--- a/parking.xlsx
+++ b/parking.xlsx
@@ -958,7 +958,7 @@
   <dimension ref="A1:K372"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K342" activeCellId="0" sqref="K342"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/parking.xlsx
+++ b/parking.xlsx
@@ -1733,7 +1733,7 @@
     <t xml:space="preserve">Підкови І., пл. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8410830,24.0293380</t>
+    <t xml:space="preserve">49.8413471,24.0291207</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Підкови І., пл.  1</t>
@@ -2995,11 +2995,11 @@
   </sheetPr>
   <dimension ref="A1:L372"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A295" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F295" activeCellId="0" sqref="F295"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I223" activeCellId="0" sqref="I223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>

--- a/parking.xlsx
+++ b/parking.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="950">
   <si>
     <t xml:space="preserve">district</t>
   </si>
@@ -857,7 +857,7 @@
     <t xml:space="preserve">Коломийська </t>
   </si>
   <si>
-    <t xml:space="preserve">49.7870640,24.0675408</t>
+    <t xml:space="preserve">49.7870732,24.0675350</t>
   </si>
   <si>
     <t xml:space="preserve">Сихівський р-н, вулиця Коломийська  18</t>
@@ -875,7 +875,7 @@
     <t xml:space="preserve">Коперника М. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8400192,24.0305656</t>
+    <t xml:space="preserve">49.8367510,24.0237843</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Коперника М.</t>
@@ -902,7 +902,7 @@
     <t xml:space="preserve">Костомарова М. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8337573,24.0353472</t>
+    <t xml:space="preserve">49.8325686,24.0345155</t>
   </si>
   <si>
     <t xml:space="preserve">Личаківський р-н, вулиця Костомарова М.</t>
@@ -911,7 +911,7 @@
     <t xml:space="preserve">Костюшка Т. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8419811,24.0254965</t>
+    <t xml:space="preserve">49.8403193,24.0233675</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Костюшка Т.</t>
@@ -938,7 +938,7 @@
     <t xml:space="preserve">Крехівська </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8476855,24.0204516</t>
+    <t xml:space="preserve">49.8475340,24.0200684</t>
   </si>
   <si>
     <t xml:space="preserve">Шевченківський р-н, вулиця Крехівська</t>
@@ -1016,6 +1016,9 @@
     <t xml:space="preserve">Залізничний р-н, вулиця Кульпарківська  115</t>
   </si>
   <si>
+    <t xml:space="preserve">49.8187256,23.9879414</t>
+  </si>
+  <si>
     <t xml:space="preserve">49.8129407,23.9844929</t>
   </si>
   <si>
@@ -1031,7 +1034,7 @@
     <t xml:space="preserve">Куліша П. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8500431,24.0250200</t>
+    <t xml:space="preserve">49.8482335,24.0243528</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Куліша П.</t>
@@ -1052,7 +1055,7 @@
     <t xml:space="preserve">Галицький р-н, вулиця Лазнева  3</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8463794,24.0264723</t>
+    <t xml:space="preserve">49.8457763,24.0262641</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Лазнева</t>
@@ -1067,10 +1070,13 @@
     <t xml:space="preserve">Личаківський р-н, вулиця Левицького К.  67</t>
   </si>
   <si>
+    <t xml:space="preserve">49.8321539,24.0440194</t>
+  </si>
+  <si>
     <t xml:space="preserve">Лепкого Б. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8430901,24.0212575</t>
+    <t xml:space="preserve">49.8412883,24.0205372</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Лепкого Б.</t>
@@ -1079,7 +1085,7 @@
     <t xml:space="preserve">Лесі Українки </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8442047,24.0350482</t>
+    <t xml:space="preserve">49.8434584,24.0344935</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Лесі Українки</t>
@@ -1103,7 +1109,7 @@
     <t xml:space="preserve"> 50-б</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8648199,24.0388073</t>
+    <t xml:space="preserve">49.8643343,24.0398524</t>
   </si>
   <si>
     <t xml:space="preserve">Шевченківський р-н, вулиця Липинського В.   50-б</t>
@@ -1112,7 +1118,7 @@
     <t xml:space="preserve">Липнева, пл. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8350180,24.0030404</t>
+    <t xml:space="preserve">49.8345121,24.0024173</t>
   </si>
   <si>
     <t xml:space="preserve">Франківський р-н, вулиця Липнева, пл.</t>
@@ -1130,7 +1136,7 @@
     <t xml:space="preserve">Лисенка М. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8437556,24.0500707</t>
+    <t xml:space="preserve">49.8426284,24.0426016</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Лисенка М.</t>
@@ -1139,7 +1145,7 @@
     <t xml:space="preserve">Листопадового Чину </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8421653,24.0238854</t>
+    <t xml:space="preserve">49.8398662,24.0193853</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Листопадового Чину</t>
@@ -1190,7 +1196,7 @@
     <t xml:space="preserve">Луганська </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8148218,24.0632299</t>
+    <t xml:space="preserve">49.8086345,24.0462265</t>
   </si>
   <si>
     <t xml:space="preserve">Франківський р-н, вулиця Луганська</t>
@@ -1202,7 +1208,7 @@
     <t xml:space="preserve">Сихівський р-н, вулиця Луганська  6</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8102435,24.0444778</t>
+    <t xml:space="preserve">49.8085922,24.0436265</t>
   </si>
   <si>
     <t xml:space="preserve">Сихівський р-н, вулиця Луганська  18</t>
@@ -1211,13 +1217,13 @@
     <t xml:space="preserve">Любінська </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8217349,23.9707470</t>
+    <t xml:space="preserve">49.8213738,23.9705388</t>
   </si>
   <si>
     <t xml:space="preserve">Залізничний р-н, вулиця Любінська  104</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8183629,23.9599281</t>
+    <t xml:space="preserve">49.8166235,23.9576458</t>
   </si>
   <si>
     <t xml:space="preserve">Залізничний р-н, вулиця Любінська  168</t>
@@ -1232,7 +1238,7 @@
     <t xml:space="preserve">Залізничний р-н, вулиця Любінська   168-а</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8192020,23.9621331</t>
+    <t xml:space="preserve">49.8186145,23.9635028</t>
   </si>
   <si>
     <t xml:space="preserve">Залізничний р-н, вулиця Любінська  164</t>
@@ -2995,11 +3001,11 @@
   </sheetPr>
   <dimension ref="A1:L372"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B177" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I223" activeCellId="0" sqref="I223"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C328" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I157" activeCellId="0" sqref="I157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -7052,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="J123" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D123,  " ", E123, " ", "Львів")</f>
@@ -7118,14 +7124,14 @@
         <v>7</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="J125" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D125,  " ", E125, " ", "Львів")</f>
         <v>Кульпарківська  200 Львів</v>
       </c>
       <c r="K125" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7151,14 +7157,14 @@
         <v>1</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J126" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D126,  " ", E126, " ", "Львів")</f>
         <v>Кульпарківська  230 Львів</v>
       </c>
       <c r="K126" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,14 +7190,14 @@
         <v>0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J127" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D127,  " ", E127, " ", "Львів")</f>
         <v>Кульпарківська  230 Львів</v>
       </c>
       <c r="K127" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7205,7 +7211,7 @@
         <v>14</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E128" s="3"/>
       <c r="G128" s="0" t="n">
@@ -7215,14 +7221,14 @@
         <v>5</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J128" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D128,  " ", E128, " ", "Львів")</f>
         <v>Куліша П.   Львів</v>
       </c>
       <c r="K128" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7236,7 +7242,7 @@
         <v>14</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E129" s="3" t="n">
         <v>15</v>
@@ -7248,14 +7254,14 @@
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="J129" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D129,  " ", E129, " ", "Львів")</f>
         <v>Куліша П.  15 Львів</v>
       </c>
       <c r="K129" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,7 +7275,7 @@
         <v>14</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E130" s="3" t="n">
         <v>3</v>
@@ -7281,14 +7287,14 @@
         <v>1</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J130" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D130,  " ", E130, " ", "Львів")</f>
         <v>Лазнева  3 Львів</v>
       </c>
       <c r="K130" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7302,7 +7308,7 @@
         <v>14</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E131" s="3"/>
       <c r="G131" s="0" t="n">
@@ -7312,14 +7318,14 @@
         <v>1</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D131,  " ", E131, " ", "Львів")</f>
         <v>Лазнева   Львів</v>
       </c>
       <c r="K131" s="0" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7333,7 +7339,7 @@
         <v>14</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E132" s="3" t="n">
         <v>67</v>
@@ -7345,14 +7351,14 @@
         <v>1</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="J132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D132,  " ", E132, " ", "Львів")</f>
         <v>Левицького К.  67 Львів</v>
       </c>
       <c r="K132" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7366,7 +7372,7 @@
         <v>14</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E133" s="3" t="n">
         <v>67</v>
@@ -7378,14 +7384,14 @@
         <v>1</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="J133" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D133,  " ", E133, " ", "Львів")</f>
         <v>Левицького К.  67 Львів</v>
       </c>
       <c r="K133" s="0" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,7 +7405,7 @@
         <v>14</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E134" s="3"/>
       <c r="G134" s="0" t="n">
@@ -7409,14 +7415,14 @@
         <v>2</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J134" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D134,  " ", E134, " ", "Львів")</f>
         <v>Лепкого Б.   Львів</v>
       </c>
       <c r="K134" s="0" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7430,7 +7436,7 @@
         <v>14</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E135" s="3"/>
       <c r="G135" s="0" t="n">
@@ -7440,14 +7446,14 @@
         <v>1</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J135" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D135,  " ", E135, " ", "Львів")</f>
         <v>Лесі Українки   Львів</v>
       </c>
       <c r="K135" s="0" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7461,7 +7467,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E136" s="3" t="n">
         <v>54</v>
@@ -7473,14 +7479,14 @@
         <v>1</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="J136" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D136,  " ", E136, " ", "Львів")</f>
         <v>Липинського В.  54 Львів</v>
       </c>
       <c r="K136" s="0" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7494,7 +7500,7 @@
         <v>14</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E137" s="3" t="n">
         <v>3</v>
@@ -7506,14 +7512,14 @@
         <v>1</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="J137" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D137,  " ", E137, " ", "Львів")</f>
         <v>Липинського В.  3 Львів</v>
       </c>
       <c r="K137" s="0" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,10 +7533,10 @@
         <v>14</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G138" s="0" t="n">
         <v>9</v>
@@ -7539,14 +7545,14 @@
         <v>1</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="J138" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D138,  " ", E138, " ", "Львів")</f>
         <v>Липинського В.   50-б Львів</v>
       </c>
       <c r="K138" s="0" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7560,7 +7566,7 @@
         <v>14</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E139" s="3"/>
       <c r="G139" s="0" t="n">
@@ -7570,14 +7576,14 @@
         <v>4</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="J139" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D139,  " ", E139, " ", "Львів")</f>
         <v>Липнева, пл.   Львів</v>
       </c>
       <c r="K139" s="0" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7591,7 +7597,7 @@
         <v>14</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E140" s="3" t="n">
         <v>13</v>
@@ -7603,14 +7609,14 @@
         <v>1</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="J140" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D140,  " ", E140, " ", "Львів")</f>
         <v>Липова Алея  13 Львів</v>
       </c>
       <c r="K140" s="0" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7624,7 +7630,7 @@
         <v>14</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E141" s="3"/>
       <c r="G141" s="0" t="n">
@@ -7634,14 +7640,14 @@
         <v>1</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D141,  " ", E141, " ", "Львів")</f>
         <v>Лисенка М.   Львів</v>
       </c>
       <c r="K141" s="0" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7655,7 +7661,7 @@
         <v>14</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E142" s="3"/>
       <c r="G142" s="0" t="n">
@@ -7665,14 +7671,14 @@
         <v>1</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="J142" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D142,  " ", E142, " ", "Львів")</f>
         <v>Листопадового Чину   Львів</v>
       </c>
       <c r="K142" s="0" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,7 +7692,7 @@
         <v>14</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E143" s="3"/>
       <c r="G143" s="0" t="n">
@@ -7696,14 +7702,14 @@
         <v>1</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J143" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D143,  " ", E143, " ", "Львів")</f>
         <v>Листопадового Чину – Лепкого Б.  Львів</v>
       </c>
       <c r="K143" s="0" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,7 +7723,7 @@
         <v>14</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E144" s="3" t="n">
         <v>150</v>
@@ -7729,14 +7735,14 @@
         <v>1</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="J144" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D144,  " ", E144, " ", "Львів")</f>
         <v>Личаківська  150 Львів</v>
       </c>
       <c r="K144" s="0" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7750,7 +7756,7 @@
         <v>14</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E145" s="3" t="n">
         <v>55</v>
@@ -7762,14 +7768,14 @@
         <v>1</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="J145" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D145,  " ", E145, " ", "Львів")</f>
         <v>Личаківська  55 Львів</v>
       </c>
       <c r="K145" s="0" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7783,7 +7789,7 @@
         <v>14</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E146" s="3" t="n">
         <v>33</v>
@@ -7795,14 +7801,14 @@
         <v>1</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J146" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D146,  " ", E146, " ", "Львів")</f>
         <v>Личаківська  33 Львів</v>
       </c>
       <c r="K146" s="0" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7816,7 +7822,7 @@
         <v>14</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E147" s="3" t="n">
         <v>72</v>
@@ -7828,14 +7834,14 @@
         <v>1</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J147" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D147,  " ", E147, " ", "Львів")</f>
         <v>Личаківська  72 Львів</v>
       </c>
       <c r="K147" s="0" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7849,7 +7855,7 @@
         <v>14</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E148" s="3" t="n">
         <v>109</v>
@@ -7861,14 +7867,14 @@
         <v>1</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J148" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D148,  " ", E148, " ", "Львів")</f>
         <v>Личаківська  109 Львів</v>
       </c>
       <c r="K148" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,7 +7888,7 @@
         <v>14</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E149" s="3"/>
       <c r="G149" s="0" t="n">
@@ -7892,14 +7898,14 @@
         <v>5</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="J149" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D149,  " ", E149, " ", "Львів")</f>
         <v>Луганська   Львів</v>
       </c>
       <c r="K149" s="0" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7913,7 +7919,7 @@
         <v>14</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E150" s="3" t="n">
         <v>6</v>
@@ -7925,14 +7931,14 @@
         <v>1</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J150" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D150,  " ", E150, " ", "Львів")</f>
         <v>Луганська  6 Львів</v>
       </c>
       <c r="K150" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,7 +7952,7 @@
         <v>14</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E151" s="3" t="n">
         <v>18</v>
@@ -7958,14 +7964,14 @@
         <v>6</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="J151" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D151,  " ", E151, " ", "Львів")</f>
         <v>Луганська  18 Львів</v>
       </c>
       <c r="K151" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7979,7 +7985,7 @@
         <v>14</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E152" s="3" t="n">
         <v>6</v>
@@ -7991,14 +7997,14 @@
         <v>6</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J152" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D152,  " ", E152, " ", "Львів")</f>
         <v>Луганська  6 Львів</v>
       </c>
       <c r="K152" s="0" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8012,7 +8018,7 @@
         <v>14</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E153" s="3" t="n">
         <v>104</v>
@@ -8024,14 +8030,14 @@
         <v>3</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="J153" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D153,  " ", E153, " ", "Львів")</f>
         <v>Любінська  104 Львів</v>
       </c>
       <c r="K153" s="0" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8045,7 +8051,7 @@
         <v>14</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E154" s="3" t="n">
         <v>168</v>
@@ -8057,14 +8063,14 @@
         <v>3</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J154" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D154,  " ", E154, " ", "Львів")</f>
         <v>Любінська  168 Львів</v>
       </c>
       <c r="K154" s="0" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,10 +8084,10 @@
         <v>14</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>2</v>
@@ -8090,14 +8096,14 @@
         <v>1</v>
       </c>
       <c r="I155" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="J155" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D155,  " ", E155, " ", "Львів")</f>
         <v>Любінська   168-а Львів</v>
       </c>
       <c r="K155" s="0" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8111,7 +8117,7 @@
         <v>14</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E156" s="3" t="n">
         <v>164</v>
@@ -8123,14 +8129,14 @@
         <v>5</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J156" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D156,  " ", E156, " ", "Львів")</f>
         <v>Любінська  164 Львів</v>
       </c>
       <c r="K156" s="0" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8144,7 +8150,7 @@
         <v>14</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E157" s="3"/>
       <c r="G157" s="0" t="n">
@@ -8154,14 +8160,14 @@
         <v>5</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J157" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D157,  " ", E157, " ", "Львів")</f>
         <v>Любінська - Терлецького О.   Львів</v>
       </c>
       <c r="K157" s="0" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8175,7 +8181,7 @@
         <v>14</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E158" s="3" t="n">
         <v>53</v>
@@ -8187,14 +8193,14 @@
         <v>1</v>
       </c>
       <c r="I158" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J158" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D158,  " ", E158, " ", "Львів")</f>
         <v>Лінкольна А.  53 Львів</v>
       </c>
       <c r="K158" s="0" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8208,7 +8214,7 @@
         <v>14</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E159" s="3"/>
       <c r="G159" s="0" t="n">
@@ -8218,14 +8224,14 @@
         <v>1</v>
       </c>
       <c r="I159" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="J159" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D159,  " ", E159, " ", "Львів")</f>
         <v>Ліста Ф.   Львів</v>
       </c>
       <c r="K159" s="0" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8239,7 +8245,7 @@
         <v>14</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E160" s="3" t="n">
         <v>7</v>
@@ -8251,14 +8257,14 @@
         <v>1</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J160" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D160,  " ", E160, " ", "Львів")</f>
         <v>Маланюка Є., пл.  7 Львів</v>
       </c>
       <c r="K160" s="0" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8272,7 +8278,7 @@
         <v>14</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E161" s="3"/>
       <c r="G161" s="0" t="n">
@@ -8282,14 +8288,14 @@
         <v>2</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="J161" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D161,  " ", E161, " ", "Львів")</f>
         <v>Маланюка Є., пл.   Львів</v>
       </c>
       <c r="K161" s="0" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8303,7 +8309,7 @@
         <v>14</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E162" s="3" t="n">
         <v>6</v>
@@ -8315,14 +8321,14 @@
         <v>1</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J162" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D162,  " ", E162, " ", "Львів")</f>
         <v>Матейка Я.  6 Львів</v>
       </c>
       <c r="K162" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8336,7 +8342,7 @@
         <v>14</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E163" s="3" t="n">
         <v>8</v>
@@ -8348,14 +8354,14 @@
         <v>1</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J163" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D163,  " ", E163, " ", "Львів")</f>
         <v>Матейка Я.  8 Львів</v>
       </c>
       <c r="K163" s="0" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8369,7 +8375,7 @@
         <v>14</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E164" s="3" t="n">
         <v>6</v>
@@ -8381,14 +8387,14 @@
         <v>2</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D164,  " ", E164, " ", "Львів")</f>
         <v>Матейка Я.  6 Львів</v>
       </c>
       <c r="K164" s="0" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8402,7 +8408,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E165" s="3"/>
       <c r="G165" s="0" t="n">
@@ -8412,14 +8418,14 @@
         <v>1</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="J165" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D165,  " ", E165, " ", "Львів")</f>
         <v>Медова   Львів</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8433,7 +8439,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E166" s="3" t="n">
         <v>18</v>
@@ -8445,14 +8451,14 @@
         <v>1</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D166,  " ", E166, " ", "Львів")</f>
         <v>Мельника А.  18 Львів</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8466,7 +8472,7 @@
         <v>14</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E167" s="3" t="n">
         <v>14</v>
@@ -8478,14 +8484,14 @@
         <v>1</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D167,  " ", E167, " ", "Львів")</f>
         <v>Мельника А.  14 Львів</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8499,7 +8505,7 @@
         <v>14</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E168" s="3"/>
       <c r="G168" s="0" t="n">
@@ -8509,14 +8515,14 @@
         <v>1</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="J168" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D168,  " ", E168, " ", "Львів")</f>
         <v>Менцинського М.   Львів</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,7 +8536,7 @@
         <v>14</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E169" s="3" t="n">
         <v>33</v>
@@ -8542,14 +8548,14 @@
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J169" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D169,  " ", E169, " ", "Львів")</f>
         <v>Мечникова І.  33 Львів</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8563,7 +8569,7 @@
         <v>14</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E170" s="3" t="n">
         <v>10</v>
@@ -8575,14 +8581,14 @@
         <v>1</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="J170" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D170,  " ", E170, " ", "Львів")</f>
         <v>Мечникова І.  10 Львів</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8596,13 +8602,13 @@
         <v>14</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E171" s="3" t="n">
         <v>33</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>2</v>
@@ -8611,14 +8617,14 @@
         <v>1</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J171" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D171,  " ", E171, " ", "Львів")</f>
         <v>Мечникова І.  33 Львів</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8632,7 +8638,7 @@
         <v>14</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E172" s="3" t="n">
         <v>9</v>
@@ -8644,14 +8650,14 @@
         <v>1</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J172" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D172,  " ", E172, " ", "Львів")</f>
         <v>Миколайчука І.  9 Львів</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8665,7 +8671,7 @@
         <v>14</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E173" s="3" t="n">
         <v>1</v>
@@ -8677,14 +8683,14 @@
         <v>3</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J173" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D173,  " ", E173, " ", "Львів")</f>
         <v>Миколайчука І.  1 Львів</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8698,7 +8704,7 @@
         <v>14</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E174" s="3" t="n">
         <v>1</v>
@@ -8710,14 +8716,14 @@
         <v>1</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="J174" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D174,  " ", E174, " ", "Львів")</f>
         <v>Миколайчука І.  1 Львів</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8731,7 +8737,7 @@
         <v>14</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E175" s="3" t="n">
         <v>30</v>
@@ -8743,14 +8749,14 @@
         <v>1</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="J175" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D175,  " ", E175, " ", "Львів")</f>
         <v>Миколайчука І.  30 Львів</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8764,7 +8770,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E176" s="3" t="n">
         <v>18</v>
@@ -8776,14 +8782,14 @@
         <v>3</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J176" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D176,  " ", E176, " ", "Львів")</f>
         <v>Миколайчука І.  18 Львів</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8797,7 +8803,7 @@
         <v>14</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E177" s="3"/>
       <c r="G177" s="0" t="n">
@@ -8807,14 +8813,14 @@
         <v>2</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="J177" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D177,  " ", E177, " ", "Львів")</f>
         <v>Миколайчука І. – Очаківська   Львів</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8828,7 +8834,7 @@
         <v>14</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E178" s="3"/>
       <c r="G178" s="0" t="n">
@@ -8838,14 +8844,14 @@
         <v>1</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="J178" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D178,  " ", E178, " ", "Львів")</f>
         <v>Мурави М.   Львів</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8859,7 +8865,7 @@
         <v>14</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E179" s="3" t="n">
         <v>8</v>
@@ -8871,14 +8877,14 @@
         <v>3</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="J179" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D179,  " ", E179, " ", "Львів")</f>
         <v>Міцкевича А., пл.  8 Львів</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8892,7 +8898,7 @@
         <v>14</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E180" s="3"/>
       <c r="G180" s="0" t="n">
@@ -8902,14 +8908,14 @@
         <v>2</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="J180" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D180,  " ", E180, " ", "Львів")</f>
         <v>Наливайка С.   Львів</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8923,7 +8929,7 @@
         <v>14</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E181" s="3" t="n">
         <v>7</v>
@@ -8935,14 +8941,14 @@
         <v>2</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="J181" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D181,  " ", E181, " ", "Львів")</f>
         <v>Наукова  7 Львів</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8956,7 +8962,7 @@
         <v>14</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E182" s="3" t="n">
         <v>30</v>
@@ -8968,14 +8974,14 @@
         <v>1</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J182" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D182,  " ", E182, " ", "Львів")</f>
         <v>Наукова  30 Львів</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8989,7 +8995,7 @@
         <v>14</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E183" s="3" t="n">
         <v>53</v>
@@ -9001,14 +9007,14 @@
         <v>1</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J183" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D183,  " ", E183, " ", "Львів")</f>
         <v>Наукова  53 Львів</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9022,10 +9028,10 @@
         <v>14</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G184" s="0" t="n">
         <v>18</v>
@@ -9034,14 +9040,14 @@
         <v>2</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J184" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D184,  " ", E184, " ", "Львів")</f>
         <v>Наукова   2-б Львів</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9055,13 +9061,13 @@
         <v>14</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>25</v>
@@ -9070,14 +9076,14 @@
         <v>3</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="J185" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D185,  " ", E185, " ", "Львів")</f>
         <v>Наукова   2-б Львів</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,7 +9097,7 @@
         <v>14</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E186" s="3" t="n">
         <v>114</v>
@@ -9103,14 +9109,14 @@
         <v>1</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J186" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D186,  " ", E186, " ", "Львів")</f>
         <v>Наукова  114 Львів</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9124,7 +9130,7 @@
         <v>14</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E187" s="3" t="n">
         <v>2</v>
@@ -9136,14 +9142,14 @@
         <v>1</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D187,  " ", E187, " ", "Львів")</f>
         <v>Наукова  2 Львів</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9157,7 +9163,7 @@
         <v>14</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E188" s="3" t="n">
         <v>18</v>
@@ -9169,14 +9175,14 @@
         <v>1</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D188,  " ", E188, " ", "Львів")</f>
         <v>Нижанківського О.  18 Львів</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9190,7 +9196,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E189" s="3" t="n">
         <v>7</v>
@@ -9202,14 +9208,14 @@
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J189" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D189,  " ", E189, " ", "Львів")</f>
         <v>Нижанківського О.  7 Львів</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9223,13 +9229,13 @@
         <v>14</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E190" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>5</v>
@@ -9238,14 +9244,14 @@
         <v>1</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="J190" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D190,  " ", E190, " ", "Львів")</f>
         <v>Нижанківського О.  5 Львів</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9259,7 +9265,7 @@
         <v>14</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E191" s="3"/>
       <c r="G191" s="0" t="n">
@@ -9269,14 +9275,14 @@
         <v>2</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="J191" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D191,  " ", E191, " ", "Львів")</f>
         <v>Низький Замок   Львів</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9290,7 +9296,7 @@
         <v>14</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E192" s="3"/>
       <c r="G192" s="0" t="n">
@@ -9300,14 +9306,14 @@
         <v>2</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="J192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D192,  " ", E192, " ", "Львів")</f>
         <v>Огієнка І.   Львів</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9321,7 +9327,7 @@
         <v>14</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E193" s="3" t="n">
         <v>1</v>
@@ -9333,14 +9339,14 @@
         <v>1</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="J193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D193,  " ", E193, " ", "Львів")</f>
         <v>Окуневського Т.  1 Львів</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9354,7 +9360,7 @@
         <v>14</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E194" s="3" t="n">
         <v>59</v>
@@ -9366,14 +9372,14 @@
         <v>1</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D194,  " ", E194, " ", "Львів")</f>
         <v>Окуневського Т. – Чорновола В., просп. 59 Львів</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9387,7 +9393,7 @@
         <v>14</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E195" s="3"/>
       <c r="G195" s="0" t="n">
@@ -9397,14 +9403,14 @@
         <v>1</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="J195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D195,  " ", E195, " ", "Львів")</f>
         <v>Опришківська   Львів</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9418,7 +9424,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E196" s="3"/>
       <c r="G196" s="0" t="n">
@@ -9428,14 +9434,14 @@
         <v>1</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D196,  " ", E196, " ", "Львів")</f>
         <v>Палія С.   Львів</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9449,7 +9455,7 @@
         <v>14</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E197" s="3" t="n">
         <v>8</v>
@@ -9461,14 +9467,14 @@
         <v>0</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="J197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D197,  " ", E197, " ", "Львів")</f>
         <v>Пасічна  8 Львів</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9482,10 +9488,10 @@
         <v>14</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>18</v>
@@ -9494,14 +9500,14 @@
         <v>1.8</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D198,  " ", E198, " ", "Львів")</f>
         <v>Пасічна   125-г Львів</v>
       </c>
       <c r="K198" s="0" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9515,10 +9521,10 @@
         <v>14</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>12</v>
@@ -9527,14 +9533,14 @@
         <v>1</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="J199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D199,  " ", E199, " ", "Львів")</f>
         <v>Пасічна   49-а Львів</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9548,7 +9554,7 @@
         <v>14</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E200" s="3" t="n">
         <v>87</v>
@@ -9560,14 +9566,14 @@
         <v>1</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D200,  " ", E200, " ", "Львів")</f>
         <v>Пасічна  87 Львів</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9581,7 +9587,7 @@
         <v>14</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E201" s="3" t="n">
         <v>2</v>
@@ -9593,14 +9599,14 @@
         <v>1</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="J201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D201,  " ", E201, " ", "Львів")</f>
         <v>Патона Є.  2 Львів</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9614,7 +9620,7 @@
         <v>14</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E202" s="3" t="n">
         <v>32</v>
@@ -9626,14 +9632,14 @@
         <v>1</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D202,  " ", E202, " ", "Львів")</f>
         <v>Патона Є.  32 Львів</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9647,7 +9653,7 @@
         <v>14</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E203" s="3" t="n">
         <v>55</v>
@@ -9659,14 +9665,14 @@
         <v>1.6</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="J203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D203,  " ", E203, " ", "Львів")</f>
         <v>Пекарська  55 Львів</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9680,7 +9686,7 @@
         <v>14</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E204" s="3"/>
       <c r="G204" s="0" t="n">
@@ -9690,14 +9696,14 @@
         <v>2.8</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="J204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D204,  " ", E204, " ", "Львів")</f>
         <v>Пекарська   Львів</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9711,7 +9717,7 @@
         <v>14</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E205" s="3"/>
       <c r="G205" s="0" t="n">
@@ -9721,14 +9727,14 @@
         <v>1.5</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="J205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D205,  " ", E205, " ", "Львів")</f>
         <v>Перфецького Л.   Львів</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9742,7 +9748,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E206" s="3" t="n">
         <v>3</v>
@@ -9754,14 +9760,14 @@
         <v>1</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D206,  " ", E206, " ", "Львів")</f>
         <v>Петрушевича Є., пл.  3 Львів</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9775,7 +9781,7 @@
         <v>14</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E207" s="3"/>
       <c r="G207" s="0" t="n">
@@ -9785,14 +9791,14 @@
         <v>3.2</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D207,  " ", E207, " ", "Львів")</f>
         <v>Петрушевича Є., пл.   Львів</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9806,7 +9812,7 @@
         <v>14</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E208" s="3" t="n">
         <v>1</v>
@@ -9818,14 +9824,14 @@
         <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D208,  " ", E208, " ", "Львів")</f>
         <v>Петрушевича Є., пл.  1 Львів</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9839,7 +9845,7 @@
         <v>14</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E209" s="3" t="n">
         <v>3</v>
@@ -9851,14 +9857,14 @@
         <v>1</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="J209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D209,  " ", E209, " ", "Львів")</f>
         <v>Петрушевича Є., пл.  3 Львів</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9872,10 +9878,10 @@
         <v>14</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>20</v>
@@ -9884,14 +9890,14 @@
         <v>2</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D210,  " ", E210, " ", "Львів")</f>
         <v>Пирогівка   6-а Львів</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9905,7 +9911,7 @@
         <v>14</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E211" s="3" t="n">
         <v>2</v>
@@ -9917,14 +9923,14 @@
         <v>1.8</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D211,  " ", E211, " ", "Львів")</f>
         <v>Повітряна  2 Львів</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9938,7 +9944,7 @@
         <v>14</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E212" s="3" t="n">
         <v>2</v>
@@ -9950,14 +9956,14 @@
         <v>1</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="J212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D212,  " ", E212, " ", "Львів")</f>
         <v>Повітряна  2 Львів</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9971,10 +9977,10 @@
         <v>14</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>4</v>
@@ -9983,14 +9989,14 @@
         <v>1</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D213,  " ", E213, " ", "Львів")</f>
         <v>Полтв’яна   38-а Львів</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10004,7 +10010,7 @@
         <v>14</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E214" s="3" t="n">
         <v>2</v>
@@ -10016,14 +10022,14 @@
         <v>5.9</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D214,  " ", E214, " ", "Львів")</f>
         <v>Поліська  2 Львів</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10037,13 +10043,13 @@
         <v>14</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E215" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>21</v>
@@ -10052,14 +10058,14 @@
         <v>2.1</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="J215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D215,  " ", E215, " ", "Львів")</f>
         <v>Поліська  2 Львів</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10073,7 +10079,7 @@
         <v>14</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E216" s="3" t="n">
         <v>3</v>
@@ -10085,14 +10091,14 @@
         <v>1</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="J216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D216,  " ", E216, " ", "Львів")</f>
         <v>Природна  3 Львів</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10106,7 +10112,7 @@
         <v>14</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E217" s="3" t="n">
         <v>52</v>
@@ -10118,14 +10124,14 @@
         <v>1.5</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="J217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D217,  " ", E217, " ", "Львів")</f>
         <v>Промислова  52 Львів</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10139,7 +10145,7 @@
         <v>14</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E218" s="3" t="n">
         <v>60</v>
@@ -10151,14 +10157,14 @@
         <v>1</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D218,  " ", E218, " ", "Львів")</f>
         <v>Промислова  60 Львів</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10172,10 +10178,10 @@
         <v>14</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>25</v>
@@ -10184,14 +10190,14 @@
         <v>2.5</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="J219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D219,  " ", E219, " ", "Львів")</f>
         <v>Промислова   50/52 Львів</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10205,7 +10211,7 @@
         <v>14</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E220" s="3"/>
       <c r="G220" s="0" t="n">
@@ -10215,14 +10221,14 @@
         <v>3.4</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="J220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D220,  " ", E220, " ", "Львів")</f>
         <v>Просвіти   Львів</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10236,7 +10242,7 @@
         <v>14</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E221" s="3"/>
       <c r="G221" s="0" t="n">
@@ -10246,14 +10252,14 @@
         <v>1</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D221,  " ", E221, " ", "Львів")</f>
         <v>Підвальна   Львів</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10267,7 +10273,7 @@
         <v>14</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E222" s="3" t="n">
         <v>5</v>
@@ -10279,14 +10285,14 @@
         <v>1</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="J222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D222,  " ", E222, " ", "Львів")</f>
         <v>Підвальна  5 Львів</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10300,7 +10306,7 @@
         <v>14</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E223" s="3" t="n">
         <v>1</v>
@@ -10312,14 +10318,14 @@
         <v>2.3</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D223,  " ", E223, " ", "Львів")</f>
         <v>Підкови І., пл.  1 Львів</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10333,10 +10339,10 @@
         <v>14</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>6</v>
@@ -10345,14 +10351,14 @@
         <v>1</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="J224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D224,  " ", E224, " ", "Львів")</f>
         <v>Райдужна   17-б Львів</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10366,7 +10372,7 @@
         <v>14</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E225" s="3"/>
       <c r="G225" s="0" t="n">
@@ -10376,14 +10382,14 @@
         <v>3.1</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="J225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D225,  " ", E225, " ", "Львів")</f>
         <v>Раппапорта Я.   Львів</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10397,7 +10403,7 @@
         <v>14</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E226" s="3" t="n">
         <v>1</v>
@@ -10409,14 +10415,14 @@
         <v>6.3</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D226,  " ", E226, " ", "Львів")</f>
         <v>Робітнича  1 Львів</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10430,13 +10436,13 @@
         <v>14</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E227" s="3" t="n">
         <v>59</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>43</v>
@@ -10445,14 +10451,14 @@
         <v>4.3</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="J227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D227,  " ", E227, " ", "Львів")</f>
         <v>Роксоляни  59 Львів</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10466,7 +10472,7 @@
         <v>14</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E228" s="3" t="n">
         <v>43</v>
@@ -10478,14 +10484,14 @@
         <v>3.7</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="J228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D228,  " ", E228, " ", "Львів")</f>
         <v>Роксоляни  43 Львів</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10499,7 +10505,7 @@
         <v>14</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E229" s="3" t="n">
         <v>1</v>
@@ -10511,14 +10517,14 @@
         <v>1</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="J229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D229,  " ", E229, " ", "Львів")</f>
         <v>Рубчака І.  1 Львів</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10532,7 +10538,7 @@
         <v>14</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E230" s="3" t="n">
         <v>14</v>
@@ -10544,14 +10550,14 @@
         <v>1</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="J230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D230,  " ", E230, " ", "Львів")</f>
         <v>Рудненська  14 Львів</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10565,7 +10571,7 @@
         <v>14</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E231" s="3" t="n">
         <v>10</v>
@@ -10577,14 +10583,14 @@
         <v>1</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="J231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D231,  " ", E231, " ", "Львів")</f>
         <v>Рудненська  10 Львів</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10598,7 +10604,7 @@
         <v>14</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E232" s="3" t="n">
         <v>7</v>
@@ -10610,14 +10616,14 @@
         <v>1.8</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D232,  " ", E232, " ", "Львів")</f>
         <v>Руставелі Ш.  7 Львів</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10631,10 +10637,10 @@
         <v>14</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>2</v>
@@ -10643,14 +10649,14 @@
         <v>1</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="J233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D233,  " ", E233, " ", "Львів")</f>
         <v>Руставелі Ш.   42-44 Львів</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10664,10 +10670,10 @@
         <v>14</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G234" s="0" t="n">
         <v>3</v>
@@ -10676,14 +10682,14 @@
         <v>1</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="J234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D234,  " ", E234, " ", "Львів")</f>
         <v>Руставелі Ш.   8-а Львів</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10697,7 +10703,7 @@
         <v>14</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E235" s="3" t="n">
         <v>1</v>
@@ -10709,14 +10715,14 @@
         <v>1</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="J235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D235,  " ", E235, " ", "Львів")</f>
         <v>Рутковича І.  1 Львів</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10730,7 +10736,7 @@
         <v>14</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E236" s="3" t="n">
         <v>9</v>
@@ -10742,14 +10748,14 @@
         <v>1</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="J236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D236,  " ", E236, " ", "Львів")</f>
         <v>Ряшівська  9 Львів</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10763,7 +10769,7 @@
         <v>14</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E237" s="3" t="n">
         <v>1</v>
@@ -10775,14 +10781,14 @@
         <v>1</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D237,  " ", E237, " ", "Львів")</f>
         <v>Ряшівська  1 Львів</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10796,10 +10802,10 @@
         <v>14</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G238" s="0" t="n">
         <v>4</v>
@@ -10808,14 +10814,14 @@
         <v>1</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="J238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D238,  " ", E238, " ", "Львів")</f>
         <v>Єфремова С., акад.   32-а Львів</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10829,7 +10835,7 @@
         <v>14</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="E239" s="3" t="n">
         <v>1</v>
@@ -10841,14 +10847,14 @@
         <v>3</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D239,  " ", E239, " ", "Львів")</f>
         <v>Садова  1 Львів</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10862,7 +10868,7 @@
         <v>14</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E240" s="3"/>
       <c r="G240" s="0" t="n">
@@ -10872,14 +10878,14 @@
         <v>2.1</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D240,  " ", E240, " ", "Львів")</f>
         <v>Саксаганського П.   Львів</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,7 +10899,7 @@
         <v>14</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="E241" s="3"/>
       <c r="G241" s="0" t="n">
@@ -10903,14 +10909,14 @@
         <v>1.5</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="J241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D241,  " ", E241, " ", "Львів")</f>
         <v>Самчука У.   Львів</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10924,10 +10930,10 @@
         <v>14</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G242" s="0" t="n">
         <v>16</v>
@@ -10936,14 +10942,14 @@
         <v>1.6</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="J242" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D242,  " ", E242, " ", "Львів")</f>
         <v>Сахарова А.,акад.   58-а Львів</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10957,7 +10963,7 @@
         <v>14</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E243" s="3" t="n">
         <v>19</v>
@@ -10969,14 +10975,14 @@
         <v>1</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J243" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D243,  " ", E243, " ", "Львів")</f>
         <v>Сахарова А.,акад.  19 Львів</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10990,7 +10996,7 @@
         <v>14</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E244" s="3" t="n">
         <v>45</v>
@@ -11002,14 +11008,14 @@
         <v>1</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J244" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D244,  " ", E244, " ", "Львів")</f>
         <v>Сахарова А.,акад.  45 Львів</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11023,10 +11029,10 @@
         <v>14</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G245" s="0" t="n">
         <v>10</v>
@@ -11035,14 +11041,14 @@
         <v>1</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J245" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D245,  " ", E245, " ", "Львів")</f>
         <v>Сахарова А.,акад.   19-а Львів</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11056,7 +11062,7 @@
         <v>14</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E246" s="3" t="n">
         <v>45</v>
@@ -11068,14 +11074,14 @@
         <v>2</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="J246" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D246,  " ", E246, " ", "Львів")</f>
         <v>Сахарова А.,акад.  45 Львів</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11089,7 +11095,7 @@
         <v>14</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E247" s="3" t="n">
         <v>35</v>
@@ -11101,14 +11107,14 @@
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="J247" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D247,  " ", E247, " ", "Львів")</f>
         <v>Сахарова А.,акад.  35 Львів</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11122,7 +11128,7 @@
         <v>14</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E248" s="3"/>
       <c r="G248" s="0" t="n">
@@ -11132,14 +11138,14 @@
         <v>3.5</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="J248" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D248,  " ", E248, " ", "Львів")</f>
         <v>Сахарова А.,акад. – Бойківська   Львів</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11153,7 +11159,7 @@
         <v>14</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E249" s="3"/>
       <c r="G249" s="0" t="n">
@@ -11163,14 +11169,14 @@
         <v>0</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J249" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D249,  " ", E249, " ", "Львів")</f>
         <v>Свободи, просп.   Львів</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11184,7 +11190,7 @@
         <v>14</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E250" s="3" t="n">
         <v>13</v>
@@ -11196,14 +11202,14 @@
         <v>1</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J250" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D250,  " ", E250, " ", "Львів")</f>
         <v>Свободи, просп.  13 Львів</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11217,7 +11223,7 @@
         <v>14</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E251" s="3" t="n">
         <v>13</v>
@@ -11229,14 +11235,14 @@
         <v>1</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J251" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D251,  " ", E251, " ", "Львів")</f>
         <v>Свободи, просп.  13 Львів</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11250,7 +11256,7 @@
         <v>14</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="E252" s="3"/>
       <c r="G252" s="0" t="n">
@@ -11260,14 +11266,14 @@
         <v>2.5</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="J252" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D252,  " ", E252, " ", "Львів")</f>
         <v>Святого Теодора, пл.   Львів</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11281,7 +11287,7 @@
         <v>14</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E253" s="3" t="n">
         <v>5</v>
@@ -11293,14 +11299,14 @@
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="J253" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D253,  " ", E253, " ", "Львів")</f>
         <v>Сихівська  5 Львів</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11314,10 +11320,10 @@
         <v>14</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G254" s="0" t="n">
         <v>3</v>
@@ -11326,14 +11332,14 @@
         <v>1</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J254" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D254,  " ", E254, " ", "Львів")</f>
         <v>Сихівська   24-б Львів</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11347,7 +11353,7 @@
         <v>14</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E255" s="3" t="n">
         <v>9</v>
@@ -11359,14 +11365,14 @@
         <v>3.8</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J255" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D255,  " ", E255, " ", "Львів")</f>
         <v>Скрипника М.  9 Львів</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11380,7 +11386,7 @@
         <v>14</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E256" s="3" t="n">
         <v>1</v>
@@ -11392,14 +11398,14 @@
         <v>2.5</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="J256" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D256,  " ", E256, " ", "Львів")</f>
         <v>Скрипника М.  1 Львів</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11413,7 +11419,7 @@
         <v>14</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E257" s="3" t="n">
         <v>13</v>
@@ -11425,14 +11431,14 @@
         <v>14</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="J257" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D257,  " ", E257, " ", "Львів")</f>
         <v>Скрипника М.  13 Львів</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11446,7 +11452,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E258" s="3"/>
       <c r="G258" s="0" t="n">
@@ -11456,14 +11462,14 @@
         <v>3</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J258" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D258,  " ", E258, " ", "Львів")</f>
         <v>Словацького Ю.   Львів</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11477,7 +11483,7 @@
         <v>14</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E259" s="3" t="n">
         <v>13</v>
@@ -11489,14 +11495,14 @@
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J259" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D259,  " ", E259, " ", "Львів")</f>
         <v>Соборна, пл.  13 Львів</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11510,7 +11516,7 @@
         <v>14</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="E260" s="3" t="n">
         <v>1</v>
@@ -11522,14 +11528,14 @@
         <v>1</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J260" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D260,  " ", E260, " ", "Львів")</f>
         <v>Соборна, пл.  1 Львів</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11543,7 +11549,7 @@
         <v>14</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E261" s="3"/>
       <c r="G261" s="0" t="n">
@@ -11553,14 +11559,14 @@
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J261" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D261,  " ", E261, " ", "Львів")</f>
         <v>Солодова   Львів</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11574,10 +11580,10 @@
         <v>14</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G262" s="0" t="n">
         <v>22</v>
@@ -11586,14 +11592,14 @@
         <v>2.2</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J262" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D262,  " ", E262, " ", "Львів")</f>
         <v>Станція Личаків   4-б Львів</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11607,7 +11613,7 @@
         <v>14</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E263" s="3"/>
       <c r="G263" s="0" t="n">
@@ -11617,14 +11623,14 @@
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="J263" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D263,  " ", E263, " ", "Львів")</f>
         <v>Старий Ринок, пл.   Львів</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11638,7 +11644,7 @@
         <v>14</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E264" s="3" t="n">
         <v>8</v>
@@ -11650,14 +11656,14 @@
         <v>2.7</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J264" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D264,  " ", E264, " ", "Львів")</f>
         <v>Старий Ринок, пл.  8 Львів</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11671,7 +11677,7 @@
         <v>14</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E265" s="3"/>
       <c r="G265" s="0" t="n">
@@ -11681,14 +11687,14 @@
         <v>3.6</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="J265" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D265,  " ", E265, " ", "Львів")</f>
         <v>Стефаника В.   Львів</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11702,7 +11708,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E266" s="3"/>
       <c r="G266" s="0" t="n">
@@ -11712,14 +11718,14 @@
         <v>1.7</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J266" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D266,  " ", E266, " ", "Львів")</f>
         <v>Стецька Я.   Львів</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11733,7 +11739,7 @@
         <v>14</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E267" s="3" t="n">
         <v>33</v>
@@ -11745,14 +11751,14 @@
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="J267" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D267,  " ", E267, " ", "Львів")</f>
         <v>Стрийська  33 Львів</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11766,13 +11772,13 @@
         <v>14</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E268" s="3" t="n">
         <v>195</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G268" s="0" t="n">
         <v>295</v>
@@ -11781,14 +11787,14 @@
         <v>29.5</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="J268" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D268,  " ", E268, " ", "Львів")</f>
         <v>Стрийська  195 Львів</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11802,7 +11808,7 @@
         <v>14</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E269" s="3" t="n">
         <v>84</v>
@@ -11814,14 +11820,14 @@
         <v>1</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="J269" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D269,  " ", E269, " ", "Львів")</f>
         <v>Стрийська  84 Львів</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11835,7 +11841,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E270" s="3" t="n">
         <v>104</v>
@@ -11847,14 +11853,14 @@
         <v>2</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J270" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D270,  " ", E270, " ", "Львів")</f>
         <v>Стрийська  104 Львів</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11868,7 +11874,7 @@
         <v>14</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E271" s="3" t="n">
         <v>144</v>
@@ -11880,14 +11886,14 @@
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J271" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D271,  " ", E271, " ", "Львів")</f>
         <v>Стрийська  144 Львів</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11901,7 +11907,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E272" s="3" t="n">
         <v>104</v>
@@ -11913,14 +11919,14 @@
         <v>3.8</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="J272" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D272,  " ", E272, " ", "Львів")</f>
         <v>Стрийська  104 Львів</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11934,7 +11940,7 @@
         <v>14</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E273" s="3" t="n">
         <v>109</v>
@@ -11946,14 +11952,14 @@
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J273" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D273,  " ", E273, " ", "Львів")</f>
         <v>Стрийська  109 Львів</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11967,7 +11973,7 @@
         <v>14</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E274" s="3" t="n">
         <v>107</v>
@@ -11979,14 +11985,14 @@
         <v>1</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J274" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D274,  " ", E274, " ", "Львів")</f>
         <v>Стрийська  107 Львів</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12000,7 +12006,7 @@
         <v>14</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E275" s="3" t="n">
         <v>179</v>
@@ -12012,14 +12018,14 @@
         <v>2</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J275" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D275,  " ", E275, " ", "Львів")</f>
         <v>Стрийська  179 Львів</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12033,7 +12039,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E276" s="3" t="n">
         <v>109</v>
@@ -12045,14 +12051,14 @@
         <v>2.3</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="J276" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D276,  " ", E276, " ", "Львів")</f>
         <v>Стрийська  109 Львів</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12066,7 +12072,7 @@
         <v>14</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E277" s="3" t="n">
         <v>28</v>
@@ -12078,14 +12084,14 @@
         <v>1</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="J277" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D277,  " ", E277, " ", "Львів")</f>
         <v>Стрийська  28 Львів</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12099,7 +12105,7 @@
         <v>14</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="E278" s="3" t="n">
         <v>332</v>
@@ -12111,14 +12117,14 @@
         <v>3.1</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="J278" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D278,  " ", E278, " ", "Львів")</f>
         <v>Стрийська  332 Львів</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12132,7 +12138,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="E279" s="3"/>
       <c r="G279" s="0" t="n">
@@ -12142,14 +12148,14 @@
         <v>10.4</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="J279" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D279,  " ", E279, " ", "Львів")</f>
         <v>Стрийська - Володимира Великого   Львів</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12163,7 +12169,7 @@
         <v>14</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="E280" s="3" t="n">
         <v>10</v>
@@ -12175,14 +12181,14 @@
         <v>0</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J280" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D280,  " ", E280, " ", "Львів")</f>
         <v>Стрілецька  10 Львів</v>
       </c>
       <c r="K280" s="0" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12196,7 +12202,7 @@
         <v>14</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="E281" s="3" t="n">
         <v>2</v>
@@ -12208,14 +12214,14 @@
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J281" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D281,  " ", E281, " ", "Львів")</f>
         <v>Стуса В.  2 Львів</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12229,11 +12235,11 @@
         <v>14</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E282" s="3"/>
       <c r="F282" s="0" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="G282" s="0" t="n">
         <v>52</v>
@@ -12242,14 +12248,14 @@
         <v>5.2</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="J282" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D282,  " ", E282, " ", "Львів")</f>
         <v>Стуса В.  Львів</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12263,7 +12269,7 @@
         <v>14</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E283" s="3" t="n">
         <v>13</v>
@@ -12275,14 +12281,14 @@
         <v>4</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="J283" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D283,  " ", E283, " ", "Львів")</f>
         <v>Суботівська  13 Львів</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12296,7 +12302,7 @@
         <v>14</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E284" s="3"/>
       <c r="G284" s="0" t="n">
@@ -12306,14 +12312,14 @@
         <v>1.5</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="J284" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D284,  " ", E284, " ", "Львів")</f>
         <v>Сянська   Львів</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12327,7 +12333,7 @@
         <v>14</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E285" s="3"/>
       <c r="G285" s="0" t="n">
@@ -12337,14 +12343,14 @@
         <v>1</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="J285" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D285,  " ", E285, " ", "Львів")</f>
         <v>Січових Стрільців   Львів</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12358,7 +12364,7 @@
         <v>14</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E286" s="3" t="n">
         <v>9</v>
@@ -12370,14 +12376,14 @@
         <v>1</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="J286" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D286,  " ", E286, " ", "Львів")</f>
         <v>Січових Стрільців  9 Львів</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12391,7 +12397,7 @@
         <v>14</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E287" s="3"/>
       <c r="G287" s="0" t="n">
@@ -12401,14 +12407,14 @@
         <v>3</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="J287" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D287,  " ", E287, " ", "Львів")</f>
         <v>Театральна   Львів</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12422,7 +12428,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E288" s="3" t="n">
         <v>42</v>
@@ -12434,14 +12440,14 @@
         <v>3</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="J288" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D288,  " ", E288, " ", "Львів")</f>
         <v>Тернопільська  42 Львів</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12455,10 +12461,10 @@
         <v>14</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G289" s="0" t="n">
         <v>4</v>
@@ -12467,14 +12473,14 @@
         <v>1</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J289" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D289,  " ", E289, " ", "Львів")</f>
         <v>Тершаковців   1-б Львів</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12488,7 +12494,7 @@
         <v>14</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E290" s="3" t="n">
         <v>2</v>
@@ -12500,14 +12506,14 @@
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="J290" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D290,  " ", E290, " ", "Львів")</f>
         <v>Тершаковців  2 Львів</v>
       </c>
       <c r="K290" s="0" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12521,10 +12527,10 @@
         <v>14</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G291" s="0" t="n">
         <v>9</v>
@@ -12533,14 +12539,14 @@
         <v>1</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="J291" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D291,  " ", E291, " ", "Львів")</f>
         <v>Тершаковців   6-а Львів</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12554,7 +12560,7 @@
         <v>14</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E292" s="3"/>
       <c r="G292" s="0" t="n">
@@ -12564,14 +12570,14 @@
         <v>1</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J292" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D292,  " ", E292, " ", "Львів")</f>
         <v>Тиктора І.   Львів</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12585,7 +12591,7 @@
         <v>14</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E293" s="3"/>
       <c r="G293" s="0" t="n">
@@ -12595,14 +12601,14 @@
         <v>2</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="J293" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D293,  " ", E293, " ", "Львів")</f>
         <v>Тобілевича І.   Львів</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12616,7 +12622,7 @@
         <v>14</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="E294" s="3"/>
       <c r="G294" s="0" t="n">
@@ -12626,14 +12632,14 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="J294" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D294,  " ", E294, " ", "Львів")</f>
         <v>Томашівського С.   Львів</v>
       </c>
       <c r="K294" s="0" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12647,7 +12653,7 @@
         <v>14</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E295" s="3" t="n">
         <v>4</v>
@@ -12659,14 +12665,14 @@
         <v>3</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="J295" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D295,  " ", E295, " ", "Львів")</f>
         <v>Торф’яна  4 Львів</v>
       </c>
       <c r="K295" s="0" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12680,7 +12686,7 @@
         <v>14</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E296" s="3" t="n">
         <v>25</v>
@@ -12692,14 +12698,14 @@
         <v>2</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="J296" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D296,  " ", E296, " ", "Львів")</f>
         <v>Торф’яна  25 Львів</v>
       </c>
       <c r="K296" s="0" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12713,7 +12719,7 @@
         <v>14</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E297" s="3" t="n">
         <v>141</v>
@@ -12725,14 +12731,14 @@
         <v>5</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="J297" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D297,  " ", E297, " ", "Львів")</f>
         <v>Глинянський Тракт  141 Львів</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12746,7 +12752,7 @@
         <v>14</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E298" s="3" t="n">
         <v>33</v>
@@ -12758,14 +12764,14 @@
         <v>3</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="J298" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D298,  " ", E298, " ", "Львів")</f>
         <v>Трильовського К.  33 Львів</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12779,7 +12785,7 @@
         <v>14</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E299" s="3" t="n">
         <v>25</v>
@@ -12791,14 +12797,14 @@
         <v>1</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="J299" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D299,  " ", E299, " ", "Львів")</f>
         <v>Федьковича Ю.  25 Львів</v>
       </c>
       <c r="K299" s="0" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12812,7 +12818,7 @@
         <v>14</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E300" s="3"/>
       <c r="G300" s="0" t="n">
@@ -12822,14 +12828,14 @@
         <v>5</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="J300" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D300,  " ", E300, " ", "Львів")</f>
         <v>Федьковича Ю.   Львів</v>
       </c>
       <c r="K300" s="0" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12843,7 +12849,7 @@
         <v>14</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E301" s="3" t="n">
         <v>23</v>
@@ -12855,14 +12861,14 @@
         <v>1</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="J301" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D301,  " ", E301, " ", "Львів")</f>
         <v>Франка І.  23 Львів</v>
       </c>
       <c r="K301" s="0" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12876,10 +12882,10 @@
         <v>14</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="G302" s="0" t="n">
         <v>15</v>
@@ -12888,14 +12894,14 @@
         <v>2</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="J302" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D302,  " ", E302, " ", "Львів")</f>
         <v>Франка І.   101-115 Львів</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12909,7 +12915,7 @@
         <v>14</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E303" s="3" t="n">
         <v>66</v>
@@ -12921,14 +12927,14 @@
         <v>1</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="J303" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D303,  " ", E303, " ", "Львів")</f>
         <v>Франка І.  66 Львів</v>
       </c>
       <c r="K303" s="0" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12942,10 +12948,10 @@
         <v>14</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="G304" s="0" t="n">
         <v>12</v>
@@ -12954,14 +12960,14 @@
         <v>1</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="J304" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D304,  " ", E304, " ", "Львів")</f>
         <v>Франка І.   137-а Львів</v>
       </c>
       <c r="K304" s="0" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12975,10 +12981,10 @@
         <v>14</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="G305" s="0" t="n">
         <v>2</v>
@@ -12987,14 +12993,14 @@
         <v>1</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="J305" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D305,  " ", E305, " ", "Львів")</f>
         <v>Франка І.   75-77 Львів</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13008,7 +13014,7 @@
         <v>14</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="E306" s="3" t="n">
         <v>108</v>
@@ -13020,14 +13026,14 @@
         <v>1</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="J306" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D306,  " ", E306, " ", "Львів")</f>
         <v>Франка І.  108 Львів</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13041,7 +13047,7 @@
         <v>14</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="E307" s="3"/>
       <c r="G307" s="0" t="n">
@@ -13051,14 +13057,14 @@
         <v>1</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="J307" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D307,  " ", E307, " ", "Львів")</f>
         <v>Фредра О.   Львів</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,7 +13078,7 @@
         <v>14</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E308" s="3" t="n">
         <v>14</v>
@@ -13084,14 +13090,14 @@
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="J308" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D308,  " ", E308, " ", "Львів")</f>
         <v>Фурманська  14 Львів</v>
       </c>
       <c r="K308" s="0" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13105,7 +13111,7 @@
         <v>14</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E309" s="3" t="n">
         <v>9</v>
@@ -13117,14 +13123,14 @@
         <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="J309" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D309,  " ", E309, " ", "Львів")</f>
         <v>Фурманська  9 Львів</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13138,7 +13144,7 @@
         <v>14</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E310" s="3" t="n">
         <v>1</v>
@@ -13150,14 +13156,14 @@
         <v>1</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="J310" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D310,  " ", E310, " ", "Львів")</f>
         <v>Фурманська  1 Львів</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13171,7 +13177,7 @@
         <v>14</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E311" s="3" t="n">
         <v>4</v>
@@ -13183,14 +13189,14 @@
         <v>2</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J311" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D311,  " ", E311, " ", "Львів")</f>
         <v>Хлібна  4 Львів</v>
       </c>
       <c r="K311" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13204,7 +13210,7 @@
         <v>14</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E312" s="3" t="n">
         <v>4</v>
@@ -13216,14 +13222,14 @@
         <v>4</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="J312" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D312,  " ", E312, " ", "Львів")</f>
         <v>Хлібна  4 Львів</v>
       </c>
       <c r="K312" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13237,10 +13243,10 @@
         <v>14</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="G313" s="0" t="n">
         <v>8</v>
@@ -13249,14 +13255,14 @@
         <v>1</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="J313" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D313,  " ", E313, " ", "Львів")</f>
         <v>Хмельницького Б   216-222 Львів</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13270,7 +13276,7 @@
         <v>14</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E314" s="3" t="n">
         <v>271</v>
@@ -13282,14 +13288,14 @@
         <v>4</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J314" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D314,  " ", E314, " ", "Львів")</f>
         <v>Хмельницького Б.  271 Львів</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13303,7 +13309,7 @@
         <v>14</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E315" s="3" t="n">
         <v>271</v>
@@ -13315,14 +13321,14 @@
         <v>1</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="J315" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D315,  " ", E315, " ", "Львів")</f>
         <v>Хмельницького Б.  271 Львів</v>
       </c>
       <c r="K315" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13336,7 +13342,7 @@
         <v>14</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E316" s="3" t="n">
         <v>200</v>
@@ -13348,14 +13354,14 @@
         <v>1</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J316" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D316,  " ", E316, " ", "Львів")</f>
         <v>Хмельницького Б.  200 Львів</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13369,7 +13375,7 @@
         <v>14</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E317" s="3" t="n">
         <v>54</v>
@@ -13381,14 +13387,14 @@
         <v>1</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="J317" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D317,  " ", E317, " ", "Львів")</f>
         <v>Хмельницького Б.  54 Львів</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13402,10 +13408,10 @@
         <v>14</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G318" s="0" t="n">
         <v>57</v>
@@ -13414,14 +13420,14 @@
         <v>6</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="J318" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D318,  " ", E318, " ", "Львів")</f>
         <v>Хмельницького Б.   188-а Львів</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13435,7 +13441,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E319" s="3" t="n">
         <v>106</v>
@@ -13447,14 +13453,14 @@
         <v>1</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J319" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D319,  " ", E319, " ", "Львів")</f>
         <v>Хмельницького Б.  106 Львів</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13468,7 +13474,7 @@
         <v>14</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E320" s="3" t="n">
         <v>172</v>
@@ -13480,14 +13486,14 @@
         <v>1</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="J320" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D320,  " ", E320, " ", "Львів")</f>
         <v>Хмельницького Б.  172 Львів</v>
       </c>
       <c r="K320" s="0" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13501,7 +13507,7 @@
         <v>14</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E321" s="3" t="n">
         <v>212</v>
@@ -13513,14 +13519,14 @@
         <v>11</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="J321" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D321,  " ", E321, " ", "Львів")</f>
         <v>Хмельницького Б.  212 Львів</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13534,7 +13540,7 @@
         <v>14</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E322" s="3" t="n">
         <v>230</v>
@@ -13546,14 +13552,14 @@
         <v>5</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="J322" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D322,  " ", E322, " ", "Львів")</f>
         <v>Хмельницького Б.  230 Львів</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13567,13 +13573,13 @@
         <v>14</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E323" s="3" t="n">
         <v>83</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G323" s="0" t="n">
         <v>3</v>
@@ -13582,14 +13588,14 @@
         <v>1</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J323" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D323,  " ", E323, " ", "Львів")</f>
         <v>Хмельницького Б.  83 Львів</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13603,7 +13609,7 @@
         <v>14</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E324" s="3" t="n">
         <v>52</v>
@@ -13615,14 +13621,14 @@
         <v>2</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="J324" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D324,  " ", E324, " ", "Львів")</f>
         <v>Хоткевича Г.  52 Львів</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13636,7 +13642,7 @@
         <v>14</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E325" s="3" t="n">
         <v>10</v>
@@ -13648,14 +13654,14 @@
         <v>3</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="J325" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D325,  " ", E325, " ", "Львів")</f>
         <v>Хоткевича Г.  10 Львів</v>
       </c>
       <c r="K325" s="0" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,7 +13675,7 @@
         <v>14</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E326" s="3" t="n">
         <v>64</v>
@@ -13681,14 +13687,14 @@
         <v>9</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="J326" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D326,  " ", E326, " ", "Львів")</f>
         <v>Хоткевича Г.  64 Львів</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13702,11 +13708,11 @@
         <v>14</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="0" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G327" s="0" t="n">
         <v>4</v>
@@ -13715,14 +13721,14 @@
         <v>1</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="J327" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D327,  " ", E327, " ", "Львів")</f>
         <v>Хоткевича Г.  Львів</v>
       </c>
       <c r="K327" s="0" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13736,10 +13742,10 @@
         <v>14</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G328" s="0" t="n">
         <v>38</v>
@@ -13748,14 +13754,14 @@
         <v>4</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="J328" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D328,  " ", E328, " ", "Львів")</f>
         <v>Хуторівка   40-а Львів</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13769,7 +13775,7 @@
         <v>14</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E329" s="3"/>
       <c r="G329" s="0" t="n">
@@ -13779,14 +13785,14 @@
         <v>2</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="J329" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D329,  " ", E329, " ", "Львів")</f>
         <v>Хуторівка - Г.Хоткевича   Львів</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13797,11 +13803,11 @@
         <v>24</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="E330" s="3"/>
       <c r="F330" s="0" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G330" s="0" t="n">
         <v>238</v>
@@ -13810,14 +13816,14 @@
         <v>24</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="J330" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D330,  " ", E330, " ", "Львів")</f>
         <v>ЦА Аеропорт  Львів</v>
       </c>
       <c r="K330" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13831,7 +13837,7 @@
         <v>14</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E331" s="3" t="n">
         <v>3</v>
@@ -13843,14 +13849,14 @@
         <v>1</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="J331" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D331,  " ", E331, " ", "Львів")</f>
         <v>Цехова  3 Львів</v>
       </c>
       <c r="K331" s="0" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13864,7 +13870,7 @@
         <v>14</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E332" s="3"/>
       <c r="G332" s="0" t="n">
@@ -13874,14 +13880,14 @@
         <v>4</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="J332" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D332,  " ", E332, " ", "Львів")</f>
         <v>Чайковського П.   Львів</v>
       </c>
       <c r="K332" s="0" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13892,10 +13898,10 @@
         <v>24</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E333" s="3" t="n">
         <v>94</v>
@@ -13907,14 +13913,14 @@
         <v>2</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="J333" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D333,  " ", E333, " ", "Львів")</f>
         <v>Червоної Калини, просп.  94 Львів</v>
       </c>
       <c r="K333" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13925,10 +13931,10 @@
         <v>13</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E334" s="3" t="n">
         <v>121</v>
@@ -13940,14 +13946,14 @@
         <v>1</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="J334" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D334,  " ", E334, " ", "Львів")</f>
         <v>Червоної Калини, просп.  121 Львів</v>
       </c>
       <c r="K334" s="0" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13958,10 +13964,10 @@
         <v>13</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E335" s="3" t="n">
         <v>109</v>
@@ -13973,14 +13979,14 @@
         <v>1</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="J335" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D335,  " ", E335, " ", "Львів")</f>
         <v>Червоної Калини, просп.  109 Львів</v>
       </c>
       <c r="K335" s="0" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13991,10 +13997,10 @@
         <v>24</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E336" s="3" t="n">
         <v>77</v>
@@ -14006,14 +14012,14 @@
         <v>5</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="J336" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D336,  " ", E336, " ", "Львів")</f>
         <v>Червоної Калини, просп.  77 Львів</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14024,10 +14030,10 @@
         <v>13</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E337" s="3" t="n">
         <v>77</v>
@@ -14039,14 +14045,14 @@
         <v>1</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="J337" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D337,  " ", E337, " ", "Львів")</f>
         <v>Червоної Калини, просп.  77 Львів</v>
       </c>
       <c r="K337" s="0" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14057,10 +14063,10 @@
         <v>13</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E338" s="3" t="n">
         <v>40</v>
@@ -14072,14 +14078,14 @@
         <v>1</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="J338" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D338,  " ", E338, " ", "Львів")</f>
         <v>Червоної Калини, просп.  40 Львів</v>
       </c>
       <c r="K338" s="0" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14090,10 +14096,10 @@
         <v>13</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E339" s="3" t="n">
         <v>35</v>
@@ -14105,14 +14111,14 @@
         <v>1</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="J339" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D339,  " ", E339, " ", "Львів")</f>
         <v>Червоної Калини, просп.  35 Львів</v>
       </c>
       <c r="K339" s="0" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14123,10 +14129,10 @@
         <v>40</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E340" s="3" t="n">
         <v>94</v>
@@ -14138,14 +14144,14 @@
         <v>1</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="J340" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D340,  " ", E340, " ", "Львів")</f>
         <v>Червоної Калини, просп.  94 Львів</v>
       </c>
       <c r="K340" s="0" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14156,13 +14162,13 @@
         <v>24</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="G341" s="0" t="n">
         <v>38</v>
@@ -14171,14 +14177,14 @@
         <v>4</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="J341" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D341,  " ", E341, " ", "Львів")</f>
         <v>Червоної Калини, просп.   68-б Львів</v>
       </c>
       <c r="K341" s="0" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14189,10 +14195,10 @@
         <v>40</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E342" s="3" t="n">
         <v>91</v>
@@ -14204,14 +14210,14 @@
         <v>1</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="J342" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D342,  " ", E342, " ", "Львів")</f>
         <v>Червоної Калини, просп.  91 Львів</v>
       </c>
       <c r="K342" s="0" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14222,10 +14228,10 @@
         <v>24</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E343" s="3" t="n">
         <v>36</v>
@@ -14237,14 +14243,14 @@
         <v>3</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="J343" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D343,  " ", E343, " ", "Львів")</f>
         <v>Червоної Калини, просп.  36 Львів</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14255,10 +14261,10 @@
         <v>40</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E344" s="3" t="n">
         <v>18</v>
@@ -14270,14 +14276,14 @@
         <v>1</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="J344" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D344,  " ", E344, " ", "Львів")</f>
         <v>Червоної Калини, просп.  18 Львів</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14288,14 +14294,14 @@
         <v>24</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="0" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G345" s="0" t="n">
         <v>800</v>
@@ -14304,14 +14310,14 @@
         <v>80</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="J345" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D345,  " ", E345, " ", "Львів")</f>
         <v>Червоної Калини, просп. – Скрипника М.  Львів</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14325,7 +14331,7 @@
         <v>14</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E346" s="3" t="n">
         <v>1</v>
@@ -14337,14 +14343,14 @@
         <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J346" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D346,  " ", E346, " ", "Львів")</f>
         <v>Чернеча Гора  1 Львів</v>
       </c>
       <c r="K346" s="0" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14358,7 +14364,7 @@
         <v>14</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E347" s="3" t="n">
         <v>31</v>
@@ -14370,14 +14376,14 @@
         <v>3</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="J347" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D347,  " ", E347, " ", "Львів")</f>
         <v>Чигиринська  31 Львів</v>
       </c>
       <c r="K347" s="0" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14388,10 +14394,10 @@
         <v>13</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E348" s="3" t="n">
         <v>105</v>
@@ -14403,14 +14409,14 @@
         <v>1</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="J348" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D348,  " ", E348, " ", "Львів")</f>
         <v>Чорновола В.,просп.  105 Львів</v>
       </c>
       <c r="K348" s="0" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14421,10 +14427,10 @@
         <v>13</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E349" s="3" t="n">
         <v>101</v>
@@ -14436,14 +14442,14 @@
         <v>1</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="J349" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D349,  " ", E349, " ", "Львів")</f>
         <v>Чорновола В.,просп.  101 Львів</v>
       </c>
       <c r="K349" s="0" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14454,10 +14460,10 @@
         <v>13</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E350" s="3" t="n">
         <v>95</v>
@@ -14469,14 +14475,14 @@
         <v>1</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="J350" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D350,  " ", E350, " ", "Львів")</f>
         <v>Чорновола В.,просп.  95 Львів</v>
       </c>
       <c r="K350" s="0" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14487,10 +14493,10 @@
         <v>13</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E351" s="3" t="n">
         <v>61</v>
@@ -14502,14 +14508,14 @@
         <v>1</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="J351" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D351,  " ", E351, " ", "Львів")</f>
         <v>Чорновола В.,просп.  61 Львів</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14520,10 +14526,10 @@
         <v>40</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E352" s="3" t="n">
         <v>59</v>
@@ -14535,14 +14541,14 @@
         <v>1</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J352" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D352,  " ", E352, " ", "Львів")</f>
         <v>Чорновола В.,просп.  59 Львів</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14553,10 +14559,10 @@
         <v>13</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E353" s="3" t="n">
         <v>57</v>
@@ -14568,14 +14574,14 @@
         <v>1</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="J353" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D353,  " ", E353, " ", "Львів")</f>
         <v>Чорновола В.,просп.  57 Львів</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14586,10 +14592,10 @@
         <v>24</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E354" s="3" t="n">
         <v>65</v>
@@ -14601,14 +14607,14 @@
         <v>3</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="J354" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D354,  " ", E354, " ", "Львів")</f>
         <v>Чорновола В.,просп.  65 Львів</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14619,13 +14625,13 @@
         <v>40</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="G355" s="0" t="n">
         <v>11</v>
@@ -14634,14 +14640,14 @@
         <v>1</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="J355" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D355,  " ", E355, " ", "Львів")</f>
         <v>Чорновола В.,просп.   43-а Львів</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14652,10 +14658,10 @@
         <v>13</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E356" s="3" t="n">
         <v>59</v>
@@ -14667,14 +14673,14 @@
         <v>1</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J356" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D356,  " ", E356, " ", "Львів")</f>
         <v>Чорновола В.,просп.  59 Львів</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14688,10 +14694,10 @@
         <v>14</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="G357" s="0" t="n">
         <v>2</v>
@@ -14700,14 +14706,14 @@
         <v>1</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="J357" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D357,  " ", E357, " ", "Львів")</f>
         <v>Шевченка Т.   358-б Львів</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14718,10 +14724,10 @@
         <v>24</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E358" s="3"/>
       <c r="G358" s="0" t="n">
@@ -14731,14 +14737,14 @@
         <v>10</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="J358" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D358,  " ", E358, " ", "Львів")</f>
         <v>Шевченка Т., просп.   Львів</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14749,10 +14755,10 @@
         <v>40</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E359" s="3" t="n">
         <v>12</v>
@@ -14764,14 +14770,14 @@
         <v>1</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="J359" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D359,  " ", E359, " ", "Львів")</f>
         <v>Шевченка Т., просп.  12 Львів</v>
       </c>
       <c r="K359" s="0" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14782,10 +14788,10 @@
         <v>40</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E360" s="3" t="n">
         <v>7</v>
@@ -14797,14 +14803,14 @@
         <v>1</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="J360" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D360,  " ", E360, " ", "Львів")</f>
         <v>Шевченка Т., просп.  7 Львів</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14818,11 +14824,11 @@
         <v>14</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E361" s="3"/>
       <c r="F361" s="0" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="G361" s="0" t="n">
         <v>2</v>
@@ -14831,14 +14837,14 @@
         <v>1</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="J361" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D361,  " ", E361, " ", "Львів")</f>
         <v>Шевченка Т.  Львів</v>
       </c>
       <c r="K361" s="0" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14852,7 +14858,7 @@
         <v>14</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E362" s="3"/>
       <c r="G362" s="0" t="n">
@@ -14862,14 +14868,14 @@
         <v>1</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="J362" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D362,  " ", E362, " ", "Львів")</f>
         <v>Шевченка Т. – Томашівська   Львів</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14883,7 +14889,7 @@
         <v>14</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E363" s="3" t="n">
         <v>18</v>
@@ -14895,14 +14901,14 @@
         <v>1</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="J363" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D363,  " ", E363, " ", "Львів")</f>
         <v>Шептицьких  18 Львів</v>
       </c>
       <c r="K363" s="0" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14916,7 +14922,7 @@
         <v>14</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E364" s="3" t="n">
         <v>85</v>
@@ -14928,14 +14934,14 @@
         <v>4</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="J364" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D364,  " ", E364, " ", "Львів")</f>
         <v>Широка  85 Львів</v>
       </c>
       <c r="K364" s="0" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14949,10 +14955,10 @@
         <v>14</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="G365" s="0" t="n">
         <v>29</v>
@@ -14961,14 +14967,14 @@
         <v>3</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="J365" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D365,  " ", E365, " ", "Львів")</f>
         <v>Широка   65-а Львів</v>
       </c>
       <c r="K365" s="0" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14982,7 +14988,7 @@
         <v>14</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E366" s="3" t="n">
         <v>41</v>
@@ -14994,14 +15000,14 @@
         <v>3</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="J366" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D366,  " ", E366, " ", "Львів")</f>
         <v>Широка  41 Львів</v>
       </c>
       <c r="K366" s="0" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15015,10 +15021,10 @@
         <v>14</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="G367" s="0" t="n">
         <v>10</v>
@@ -15027,14 +15033,14 @@
         <v>1</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="J367" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D367,  " ", E367, " ", "Львів")</f>
         <v>Широка   70-а Львів</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,7 +15054,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E368" s="3"/>
       <c r="G368" s="0" t="n">
@@ -15058,14 +15064,14 @@
         <v>3</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="J368" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D368,  " ", E368, " ", "Львів")</f>
         <v>Шолом-Алейхема Ш.   Львів</v>
       </c>
       <c r="K368" s="0" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15079,7 +15085,7 @@
         <v>14</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E369" s="3"/>
       <c r="G369" s="0" t="n">
@@ -15089,14 +15095,14 @@
         <v>3</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="J369" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D369,  " ", E369, " ", "Львів")</f>
         <v>Шпитальна   Львів</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15110,7 +15116,7 @@
         <v>14</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E370" s="3" t="n">
         <v>1</v>
@@ -15122,14 +15128,14 @@
         <v>3</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="J370" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D370,  " ", E370, " ", "Львів")</f>
         <v>Шпитальна  1 Львів</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15143,7 +15149,7 @@
         <v>14</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="E371" s="3"/>
       <c r="G371" s="0" t="n">
@@ -15153,14 +15159,14 @@
         <v>1</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="J371" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D371,  " ", E371, " ", "Львів")</f>
         <v>Шухевича В.   Львів</v>
       </c>
       <c r="K371" s="0" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15174,7 +15180,7 @@
         <v>14</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E372" s="3"/>
       <c r="G372" s="0" t="n">
@@ -15184,14 +15190,14 @@
         <v>1</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="J372" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D372,  " ", E372, " ", "Львів")</f>
         <v>Любінська - Д.Яворницького   Львів</v>
       </c>
       <c r="K372" s="0" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/parking.xlsx
+++ b/parking.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="953">
   <si>
     <t xml:space="preserve">district</t>
   </si>
@@ -1247,10 +1247,10 @@
     <t xml:space="preserve">Любінська - Терлецького О. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8251072,23.9773523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Франківський р-н, вулиця Любінська - Терлецького О.</t>
+    <t xml:space="preserve">49.8284672,23.9742254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Франківський р-н, вулиця А. Головатого 11</t>
   </si>
   <si>
     <t xml:space="preserve">Лінкольна А. </t>
@@ -1280,7 +1280,7 @@
     <t xml:space="preserve">Галицький р-н, вулиця Маланюка Є., пл.  7</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8379366,24.0288381</t>
+    <t xml:space="preserve">49.8371196,24.0283538</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Маланюка Є., пл.</t>
@@ -1301,10 +1301,13 @@
     <t xml:space="preserve">Галицький р-н, вулиця Матейка Я.  8</t>
   </si>
   <si>
+    <t xml:space="preserve">49.8370456,24.0179638</t>
+  </si>
+  <si>
     <t xml:space="preserve">Медова </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8481142,24.0278956</t>
+    <t xml:space="preserve">49.8476676,24.0269079</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Медова</t>
@@ -1328,7 +1331,7 @@
     <t xml:space="preserve">Менцинського М. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8432183,24.0225369</t>
+    <t xml:space="preserve">49.8420283,24.0222288</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Менцинського М.</t>
@@ -1361,13 +1364,16 @@
     <t xml:space="preserve">Шевченківський р-н, вулиця Миколайчука І.  9</t>
   </si>
   <si>
+    <t xml:space="preserve">49.8677488,24.0428583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шевченківський р-н, вулиця Миколайчука І.  1</t>
+  </si>
+  <si>
     <t xml:space="preserve">49.8690370,24.0430880</t>
   </si>
   <si>
-    <t xml:space="preserve">Шевченківський р-н, вулиця Миколайчука І.  1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49.8797680,24.0367829</t>
+    <t xml:space="preserve">49.8797472,24.0349589</t>
   </si>
   <si>
     <t xml:space="preserve">Шевченківський р-н, вулиця Миколайчука І.  30</t>
@@ -1382,7 +1388,7 @@
     <t xml:space="preserve">Миколайчука І. – Очаківська </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8693911,24.0434892</t>
+    <t xml:space="preserve">49.8693760,24.0434306</t>
   </si>
   <si>
     <t xml:space="preserve">Шевченківський р-н, вулиця Миколайчука І. – Очаківська</t>
@@ -1400,7 +1406,7 @@
     <t xml:space="preserve">Міцкевича А., пл. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8398777,24.0308403</t>
+    <t xml:space="preserve">49.8397532,24.0301287</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Міцкевича А., пл.  8</t>
@@ -1409,7 +1415,7 @@
     <t xml:space="preserve">Наливайка С. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8434453,24.0250403</t>
+    <t xml:space="preserve">49.8427725,24.0243847</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Наливайка С.</t>
@@ -1418,7 +1424,7 @@
     <t xml:space="preserve">Наукова </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8027951,24.0058759</t>
+    <t xml:space="preserve">49.8026262,24.0061382</t>
   </si>
   <si>
     <t xml:space="preserve">Франківський р-н, вулиця Наукова  7</t>
@@ -1454,7 +1460,7 @@
     <t xml:space="preserve">Франківський р-н, вулиця Наукова  114</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8068646,24.0070169</t>
+    <t xml:space="preserve">49.8054688,24.0054667</t>
   </si>
   <si>
     <t xml:space="preserve">Франківський р-н, вулиця Наукова  2</t>
@@ -1469,7 +1475,7 @@
     <t xml:space="preserve">Галицький р-н, вулиця Нижанківського О.  18</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8396109,24.0333308</t>
+    <t xml:space="preserve">49.8384314,24.0320113</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Нижанківського О.  7</t>
@@ -1487,7 +1493,7 @@
     <t xml:space="preserve">Низький Замок </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8434266,24.0285503</t>
+    <t xml:space="preserve">49.8433270,24.0280237</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Низький Замок</t>
@@ -1496,7 +1502,7 @@
     <t xml:space="preserve">Огієнка І. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8429124,24.0200405</t>
+    <t xml:space="preserve">49.8412675,24.0190036</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Огієнка І.</t>
@@ -1532,7 +1538,7 @@
     <t xml:space="preserve">Палія С. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8352963,24.0378130</t>
+    <t xml:space="preserve">49.8348202,24.0374698</t>
   </si>
   <si>
     <t xml:space="preserve">Личаківський р-н, вулиця Палія С.</t>
@@ -1550,7 +1556,7 @@
     <t xml:space="preserve"> 125-г</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8081868,24.0726246</t>
+    <t xml:space="preserve">49.8070250,24.0723993</t>
   </si>
   <si>
     <t xml:space="preserve">Сихівський р-н, вулиця Пасічна   125-г</t>
@@ -1589,7 +1595,7 @@
     <t xml:space="preserve">Пекарська </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8368370,24.0452910</t>
+    <t xml:space="preserve">49.8373877,24.0460065</t>
   </si>
   <si>
     <t xml:space="preserve">Личаківський р-н, вулиця Пекарська  55</t>
@@ -1604,7 +1610,7 @@
     <t xml:space="preserve">Перфецького Л. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8151057,23.9919053</t>
+    <t xml:space="preserve">49.8139726,23.9889846</t>
   </si>
   <si>
     <t xml:space="preserve">Франківський р-н, вулиця Перфецького Л.</t>
@@ -1667,15 +1673,18 @@
     <t xml:space="preserve">Поліська </t>
   </si>
   <si>
+    <t xml:space="preserve">49.8744059,24.0632040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Личаківський р-н, вулиця Поліська  2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(транспортна розв’язка)</t>
+  </si>
+  <si>
     <t xml:space="preserve">49.8749552,24.0646653</t>
   </si>
   <si>
-    <t xml:space="preserve">Личаківський р-н, вулиця Поліська  2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(транспортна розв’язка)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Шевченківський р-н, вулиця Поліська  2</t>
   </si>
   <si>
@@ -1715,7 +1724,7 @@
     <t xml:space="preserve">Просвіти </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8455587,24.1557060</t>
+    <t xml:space="preserve">49.8420766,24.0379834</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Просвіти</t>
@@ -3001,11 +3010,11 @@
   </sheetPr>
   <dimension ref="A1:L372"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C328" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I157" activeCellId="0" sqref="I157"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I221" activeCellId="0" sqref="I221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
@@ -8387,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="J164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D164,  " ", E164, " ", "Львів")</f>
@@ -8408,7 +8417,7 @@
         <v>14</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E165" s="3"/>
       <c r="G165" s="0" t="n">
@@ -8418,14 +8427,14 @@
         <v>1</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="J165" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D165,  " ", E165, " ", "Львів")</f>
         <v>Медова   Львів</v>
       </c>
       <c r="K165" s="0" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8439,7 +8448,7 @@
         <v>14</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E166" s="3" t="n">
         <v>18</v>
@@ -8451,14 +8460,14 @@
         <v>1</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="J166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D166,  " ", E166, " ", "Львів")</f>
         <v>Мельника А.  18 Львів</v>
       </c>
       <c r="K166" s="0" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8472,7 +8481,7 @@
         <v>14</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E167" s="3" t="n">
         <v>14</v>
@@ -8484,14 +8493,14 @@
         <v>1</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D167,  " ", E167, " ", "Львів")</f>
         <v>Мельника А.  14 Львів</v>
       </c>
       <c r="K167" s="0" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8505,7 +8514,7 @@
         <v>14</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E168" s="3"/>
       <c r="G168" s="0" t="n">
@@ -8515,14 +8524,14 @@
         <v>1</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J168" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D168,  " ", E168, " ", "Львів")</f>
         <v>Менцинського М.   Львів</v>
       </c>
       <c r="K168" s="0" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8536,7 +8545,7 @@
         <v>14</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E169" s="3" t="n">
         <v>33</v>
@@ -8548,14 +8557,14 @@
         <v>0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J169" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D169,  " ", E169, " ", "Львів")</f>
         <v>Мечникова І.  33 Львів</v>
       </c>
       <c r="K169" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8569,7 +8578,7 @@
         <v>14</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E170" s="3" t="n">
         <v>10</v>
@@ -8581,14 +8590,14 @@
         <v>1</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J170" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D170,  " ", E170, " ", "Львів")</f>
         <v>Мечникова І.  10 Львів</v>
       </c>
       <c r="K170" s="0" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8602,13 +8611,13 @@
         <v>14</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E171" s="3" t="n">
         <v>33</v>
       </c>
       <c r="F171" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G171" s="0" t="n">
         <v>2</v>
@@ -8617,14 +8626,14 @@
         <v>1</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J171" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D171,  " ", E171, " ", "Львів")</f>
         <v>Мечникова І.  33 Львів</v>
       </c>
       <c r="K171" s="0" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8638,7 +8647,7 @@
         <v>14</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E172" s="3" t="n">
         <v>9</v>
@@ -8650,14 +8659,14 @@
         <v>1</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J172" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D172,  " ", E172, " ", "Львів")</f>
         <v>Миколайчука І.  9 Львів</v>
       </c>
       <c r="K172" s="0" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8671,7 +8680,7 @@
         <v>14</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E173" s="3" t="n">
         <v>1</v>
@@ -8683,14 +8692,14 @@
         <v>3</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="J173" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D173,  " ", E173, " ", "Львів")</f>
         <v>Миколайчука І.  1 Львів</v>
       </c>
       <c r="K173" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8704,7 +8713,7 @@
         <v>14</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E174" s="3" t="n">
         <v>1</v>
@@ -8716,14 +8725,14 @@
         <v>1</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="J174" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D174,  " ", E174, " ", "Львів")</f>
         <v>Миколайчука І.  1 Львів</v>
       </c>
       <c r="K174" s="0" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8737,7 +8746,7 @@
         <v>14</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E175" s="3" t="n">
         <v>30</v>
@@ -8749,14 +8758,14 @@
         <v>1</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="J175" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D175,  " ", E175, " ", "Львів")</f>
         <v>Миколайчука І.  30 Львів</v>
       </c>
       <c r="K175" s="0" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8770,7 +8779,7 @@
         <v>14</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E176" s="3" t="n">
         <v>18</v>
@@ -8782,14 +8791,14 @@
         <v>3</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="J176" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D176,  " ", E176, " ", "Львів")</f>
         <v>Миколайчука І.  18 Львів</v>
       </c>
       <c r="K176" s="0" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8803,7 +8812,7 @@
         <v>14</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E177" s="3"/>
       <c r="G177" s="0" t="n">
@@ -8813,14 +8822,14 @@
         <v>2</v>
       </c>
       <c r="I177" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J177" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D177,  " ", E177, " ", "Львів")</f>
         <v>Миколайчука І. – Очаківська   Львів</v>
       </c>
       <c r="K177" s="0" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8834,7 +8843,7 @@
         <v>14</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E178" s="3"/>
       <c r="G178" s="0" t="n">
@@ -8844,14 +8853,14 @@
         <v>1</v>
       </c>
       <c r="I178" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="J178" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D178,  " ", E178, " ", "Львів")</f>
         <v>Мурави М.   Львів</v>
       </c>
       <c r="K178" s="0" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8865,7 +8874,7 @@
         <v>14</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E179" s="3" t="n">
         <v>8</v>
@@ -8877,14 +8886,14 @@
         <v>3</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J179" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D179,  " ", E179, " ", "Львів")</f>
         <v>Міцкевича А., пл.  8 Львів</v>
       </c>
       <c r="K179" s="0" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8898,7 +8907,7 @@
         <v>14</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E180" s="3"/>
       <c r="G180" s="0" t="n">
@@ -8908,14 +8917,14 @@
         <v>2</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="J180" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D180,  " ", E180, " ", "Львів")</f>
         <v>Наливайка С.   Львів</v>
       </c>
       <c r="K180" s="0" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8929,7 +8938,7 @@
         <v>14</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E181" s="3" t="n">
         <v>7</v>
@@ -8941,14 +8950,14 @@
         <v>2</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="J181" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D181,  " ", E181, " ", "Львів")</f>
         <v>Наукова  7 Львів</v>
       </c>
       <c r="K181" s="0" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8962,7 +8971,7 @@
         <v>14</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E182" s="3" t="n">
         <v>30</v>
@@ -8974,14 +8983,14 @@
         <v>1</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="J182" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D182,  " ", E182, " ", "Львів")</f>
         <v>Наукова  30 Львів</v>
       </c>
       <c r="K182" s="0" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8995,7 +9004,7 @@
         <v>14</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E183" s="3" t="n">
         <v>53</v>
@@ -9007,14 +9016,14 @@
         <v>1</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="J183" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D183,  " ", E183, " ", "Львів")</f>
         <v>Наукова  53 Львів</v>
       </c>
       <c r="K183" s="0" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9028,10 +9037,10 @@
         <v>14</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G184" s="0" t="n">
         <v>18</v>
@@ -9040,14 +9049,14 @@
         <v>2</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J184" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D184,  " ", E184, " ", "Львів")</f>
         <v>Наукова   2-б Львів</v>
       </c>
       <c r="K184" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9061,13 +9070,13 @@
         <v>14</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>25</v>
@@ -9076,14 +9085,14 @@
         <v>3</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="J185" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D185,  " ", E185, " ", "Львів")</f>
         <v>Наукова   2-б Львів</v>
       </c>
       <c r="K185" s="0" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9097,7 +9106,7 @@
         <v>14</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E186" s="3" t="n">
         <v>114</v>
@@ -9109,14 +9118,14 @@
         <v>1</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="J186" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D186,  " ", E186, " ", "Львів")</f>
         <v>Наукова  114 Львів</v>
       </c>
       <c r="K186" s="0" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9130,7 +9139,7 @@
         <v>14</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E187" s="3" t="n">
         <v>2</v>
@@ -9142,14 +9151,14 @@
         <v>1</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J187" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D187,  " ", E187, " ", "Львів")</f>
         <v>Наукова  2 Львів</v>
       </c>
       <c r="K187" s="0" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9163,7 +9172,7 @@
         <v>14</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E188" s="3" t="n">
         <v>18</v>
@@ -9175,14 +9184,14 @@
         <v>1</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="J188" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D188,  " ", E188, " ", "Львів")</f>
         <v>Нижанківського О.  18 Львів</v>
       </c>
       <c r="K188" s="0" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9196,7 +9205,7 @@
         <v>14</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E189" s="3" t="n">
         <v>7</v>
@@ -9208,14 +9217,14 @@
         <v>2</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="J189" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D189,  " ", E189, " ", "Львів")</f>
         <v>Нижанківського О.  7 Львів</v>
       </c>
       <c r="K189" s="0" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9229,13 +9238,13 @@
         <v>14</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E190" s="3" t="n">
         <v>5</v>
       </c>
       <c r="F190" s="0" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G190" s="0" t="n">
         <v>5</v>
@@ -9244,14 +9253,14 @@
         <v>1</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="J190" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D190,  " ", E190, " ", "Львів")</f>
         <v>Нижанківського О.  5 Львів</v>
       </c>
       <c r="K190" s="0" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9265,7 +9274,7 @@
         <v>14</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E191" s="3"/>
       <c r="G191" s="0" t="n">
@@ -9275,14 +9284,14 @@
         <v>2</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J191" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D191,  " ", E191, " ", "Львів")</f>
         <v>Низький Замок   Львів</v>
       </c>
       <c r="K191" s="0" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9296,7 +9305,7 @@
         <v>14</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E192" s="3"/>
       <c r="G192" s="0" t="n">
@@ -9306,14 +9315,14 @@
         <v>2</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J192" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D192,  " ", E192, " ", "Львів")</f>
         <v>Огієнка І.   Львів</v>
       </c>
       <c r="K192" s="0" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9327,7 +9336,7 @@
         <v>14</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E193" s="3" t="n">
         <v>1</v>
@@ -9339,14 +9348,14 @@
         <v>1</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J193" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D193,  " ", E193, " ", "Львів")</f>
         <v>Окуневського Т.  1 Львів</v>
       </c>
       <c r="K193" s="0" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9360,7 +9369,7 @@
         <v>14</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E194" s="3" t="n">
         <v>59</v>
@@ -9372,14 +9381,14 @@
         <v>1</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D194,  " ", E194, " ", "Львів")</f>
         <v>Окуневського Т. – Чорновола В., просп. 59 Львів</v>
       </c>
       <c r="K194" s="0" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9393,7 +9402,7 @@
         <v>14</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E195" s="3"/>
       <c r="G195" s="0" t="n">
@@ -9403,14 +9412,14 @@
         <v>1</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="J195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D195,  " ", E195, " ", "Львів")</f>
         <v>Опришківська   Львів</v>
       </c>
       <c r="K195" s="0" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9424,7 +9433,7 @@
         <v>14</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E196" s="3"/>
       <c r="G196" s="0" t="n">
@@ -9434,14 +9443,14 @@
         <v>1</v>
       </c>
       <c r="I196" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="J196" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D196,  " ", E196, " ", "Львів")</f>
         <v>Палія С.   Львів</v>
       </c>
       <c r="K196" s="0" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9455,7 +9464,7 @@
         <v>14</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E197" s="3" t="n">
         <v>8</v>
@@ -9467,14 +9476,14 @@
         <v>0</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="J197" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D197,  " ", E197, " ", "Львів")</f>
         <v>Пасічна  8 Львів</v>
       </c>
       <c r="K197" s="0" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9488,10 +9497,10 @@
         <v>14</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>18</v>
@@ -9500,14 +9509,14 @@
         <v>1.8</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J198" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D198,  " ", E198, " ", "Львів")</f>
         <v>Пасічна   125-г Львів</v>
       </c>
       <c r="K198" s="0" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9521,10 +9530,10 @@
         <v>14</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>12</v>
@@ -9533,14 +9542,14 @@
         <v>1</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="J199" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D199,  " ", E199, " ", "Львів")</f>
         <v>Пасічна   49-а Львів</v>
       </c>
       <c r="K199" s="0" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9554,7 +9563,7 @@
         <v>14</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E200" s="3" t="n">
         <v>87</v>
@@ -9566,14 +9575,14 @@
         <v>1</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="J200" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D200,  " ", E200, " ", "Львів")</f>
         <v>Пасічна  87 Львів</v>
       </c>
       <c r="K200" s="0" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9587,7 +9596,7 @@
         <v>14</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E201" s="3" t="n">
         <v>2</v>
@@ -9599,14 +9608,14 @@
         <v>1</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J201" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D201,  " ", E201, " ", "Львів")</f>
         <v>Патона Є.  2 Львів</v>
       </c>
       <c r="K201" s="0" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9620,7 +9629,7 @@
         <v>14</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E202" s="3" t="n">
         <v>32</v>
@@ -9632,14 +9641,14 @@
         <v>1</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="J202" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D202,  " ", E202, " ", "Львів")</f>
         <v>Патона Є.  32 Львів</v>
       </c>
       <c r="K202" s="0" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,7 +9662,7 @@
         <v>14</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E203" s="3" t="n">
         <v>55</v>
@@ -9665,14 +9674,14 @@
         <v>1.6</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="J203" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D203,  " ", E203, " ", "Львів")</f>
         <v>Пекарська  55 Львів</v>
       </c>
       <c r="K203" s="0" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9686,7 +9695,7 @@
         <v>14</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E204" s="3"/>
       <c r="G204" s="0" t="n">
@@ -9696,14 +9705,14 @@
         <v>2.8</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D204,  " ", E204, " ", "Львів")</f>
         <v>Пекарська   Львів</v>
       </c>
       <c r="K204" s="0" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,7 +9726,7 @@
         <v>14</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E205" s="3"/>
       <c r="G205" s="0" t="n">
@@ -9727,14 +9736,14 @@
         <v>1.5</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="J205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D205,  " ", E205, " ", "Львів")</f>
         <v>Перфецького Л.   Львів</v>
       </c>
       <c r="K205" s="0" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9748,7 +9757,7 @@
         <v>14</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E206" s="3" t="n">
         <v>3</v>
@@ -9760,14 +9769,14 @@
         <v>1</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D206,  " ", E206, " ", "Львів")</f>
         <v>Петрушевича Є., пл.  3 Львів</v>
       </c>
       <c r="K206" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,7 +9790,7 @@
         <v>14</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E207" s="3"/>
       <c r="G207" s="0" t="n">
@@ -9791,14 +9800,14 @@
         <v>3.2</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D207,  " ", E207, " ", "Львів")</f>
         <v>Петрушевича Є., пл.   Львів</v>
       </c>
       <c r="K207" s="0" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9812,7 +9821,7 @@
         <v>14</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E208" s="3" t="n">
         <v>1</v>
@@ -9824,14 +9833,14 @@
         <v>1</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="J208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D208,  " ", E208, " ", "Львів")</f>
         <v>Петрушевича Є., пл.  1 Львів</v>
       </c>
       <c r="K208" s="0" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9845,7 +9854,7 @@
         <v>14</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E209" s="3" t="n">
         <v>3</v>
@@ -9857,14 +9866,14 @@
         <v>1</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="J209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D209,  " ", E209, " ", "Львів")</f>
         <v>Петрушевича Є., пл.  3 Львів</v>
       </c>
       <c r="K209" s="0" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9878,10 +9887,10 @@
         <v>14</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>20</v>
@@ -9890,14 +9899,14 @@
         <v>2</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="J210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D210,  " ", E210, " ", "Львів")</f>
         <v>Пирогівка   6-а Львів</v>
       </c>
       <c r="K210" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9911,7 +9920,7 @@
         <v>14</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E211" s="3" t="n">
         <v>2</v>
@@ -9923,14 +9932,14 @@
         <v>1.8</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D211,  " ", E211, " ", "Львів")</f>
         <v>Повітряна  2 Львів</v>
       </c>
       <c r="K211" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9944,7 +9953,7 @@
         <v>14</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E212" s="3" t="n">
         <v>2</v>
@@ -9956,14 +9965,14 @@
         <v>1</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="J212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D212,  " ", E212, " ", "Львів")</f>
         <v>Повітряна  2 Львів</v>
       </c>
       <c r="K212" s="0" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9977,10 +9986,10 @@
         <v>14</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>4</v>
@@ -9989,14 +9998,14 @@
         <v>1</v>
       </c>
       <c r="I213" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="J213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D213,  " ", E213, " ", "Львів")</f>
         <v>Полтв’яна   38-а Львів</v>
       </c>
       <c r="K213" s="0" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10010,7 +10019,7 @@
         <v>14</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E214" s="3" t="n">
         <v>2</v>
@@ -10022,14 +10031,14 @@
         <v>5.9</v>
       </c>
       <c r="I214" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="J214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D214,  " ", E214, " ", "Львів")</f>
         <v>Поліська  2 Львів</v>
       </c>
       <c r="K214" s="0" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10043,13 +10052,13 @@
         <v>14</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E215" s="3" t="n">
         <v>2</v>
       </c>
       <c r="F215" s="0" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>21</v>
@@ -10058,14 +10067,14 @@
         <v>2.1</v>
       </c>
       <c r="I215" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="J215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D215,  " ", E215, " ", "Львів")</f>
         <v>Поліська  2 Львів</v>
       </c>
       <c r="K215" s="0" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10079,7 +10088,7 @@
         <v>14</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="E216" s="3" t="n">
         <v>3</v>
@@ -10091,14 +10100,14 @@
         <v>1</v>
       </c>
       <c r="I216" s="2" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="J216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D216,  " ", E216, " ", "Львів")</f>
         <v>Природна  3 Львів</v>
       </c>
       <c r="K216" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10112,7 +10121,7 @@
         <v>14</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E217" s="3" t="n">
         <v>52</v>
@@ -10124,14 +10133,14 @@
         <v>1.5</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="J217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D217,  " ", E217, " ", "Львів")</f>
         <v>Промислова  52 Львів</v>
       </c>
       <c r="K217" s="0" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10145,7 +10154,7 @@
         <v>14</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E218" s="3" t="n">
         <v>60</v>
@@ -10157,14 +10166,14 @@
         <v>1</v>
       </c>
       <c r="I218" s="2" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="J218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D218,  " ", E218, " ", "Львів")</f>
         <v>Промислова  60 Львів</v>
       </c>
       <c r="K218" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10178,10 +10187,10 @@
         <v>14</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>25</v>
@@ -10190,14 +10199,14 @@
         <v>2.5</v>
       </c>
       <c r="I219" s="2" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="J219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D219,  " ", E219, " ", "Львів")</f>
         <v>Промислова   50/52 Львів</v>
       </c>
       <c r="K219" s="0" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10211,7 +10220,7 @@
         <v>14</v>
       </c>
       <c r="D220" s="0" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E220" s="3"/>
       <c r="G220" s="0" t="n">
@@ -10221,14 +10230,14 @@
         <v>3.4</v>
       </c>
       <c r="I220" s="2" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="J220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D220,  " ", E220, " ", "Львів")</f>
         <v>Просвіти   Львів</v>
       </c>
       <c r="K220" s="0" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10242,7 +10251,7 @@
         <v>14</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E221" s="3"/>
       <c r="G221" s="0" t="n">
@@ -10252,14 +10261,14 @@
         <v>1</v>
       </c>
       <c r="I221" s="2" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="J221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D221,  " ", E221, " ", "Львів")</f>
         <v>Підвальна   Львів</v>
       </c>
       <c r="K221" s="0" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10273,7 +10282,7 @@
         <v>14</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E222" s="3" t="n">
         <v>5</v>
@@ -10285,14 +10294,14 @@
         <v>1</v>
       </c>
       <c r="I222" s="2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="J222" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D222,  " ", E222, " ", "Львів")</f>
         <v>Підвальна  5 Львів</v>
       </c>
       <c r="K222" s="0" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10306,7 +10315,7 @@
         <v>14</v>
       </c>
       <c r="D223" s="0" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E223" s="3" t="n">
         <v>1</v>
@@ -10318,14 +10327,14 @@
         <v>2.3</v>
       </c>
       <c r="I223" s="2" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="J223" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D223,  " ", E223, " ", "Львів")</f>
         <v>Підкови І., пл.  1 Львів</v>
       </c>
       <c r="K223" s="0" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10339,10 +10348,10 @@
         <v>14</v>
       </c>
       <c r="D224" s="0" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="G224" s="0" t="n">
         <v>6</v>
@@ -10351,14 +10360,14 @@
         <v>1</v>
       </c>
       <c r="I224" s="2" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="J224" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D224,  " ", E224, " ", "Львів")</f>
         <v>Райдужна   17-б Львів</v>
       </c>
       <c r="K224" s="0" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10372,7 +10381,7 @@
         <v>14</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E225" s="3"/>
       <c r="G225" s="0" t="n">
@@ -10382,14 +10391,14 @@
         <v>3.1</v>
       </c>
       <c r="I225" s="2" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="J225" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D225,  " ", E225, " ", "Львів")</f>
         <v>Раппапорта Я.   Львів</v>
       </c>
       <c r="K225" s="0" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10403,7 +10412,7 @@
         <v>14</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E226" s="3" t="n">
         <v>1</v>
@@ -10415,14 +10424,14 @@
         <v>6.3</v>
       </c>
       <c r="I226" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="J226" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D226,  " ", E226, " ", "Львів")</f>
         <v>Робітнича  1 Львів</v>
       </c>
       <c r="K226" s="0" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10436,13 +10445,13 @@
         <v>14</v>
       </c>
       <c r="D227" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E227" s="3" t="n">
         <v>59</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G227" s="0" t="n">
         <v>43</v>
@@ -10451,14 +10460,14 @@
         <v>4.3</v>
       </c>
       <c r="I227" s="2" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="J227" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D227,  " ", E227, " ", "Львів")</f>
         <v>Роксоляни  59 Львів</v>
       </c>
       <c r="K227" s="0" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10472,7 +10481,7 @@
         <v>14</v>
       </c>
       <c r="D228" s="0" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E228" s="3" t="n">
         <v>43</v>
@@ -10484,14 +10493,14 @@
         <v>3.7</v>
       </c>
       <c r="I228" s="2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="J228" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D228,  " ", E228, " ", "Львів")</f>
         <v>Роксоляни  43 Львів</v>
       </c>
       <c r="K228" s="0" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10505,7 +10514,7 @@
         <v>14</v>
       </c>
       <c r="D229" s="0" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E229" s="3" t="n">
         <v>1</v>
@@ -10517,14 +10526,14 @@
         <v>1</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J229" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D229,  " ", E229, " ", "Львів")</f>
         <v>Рубчака І.  1 Львів</v>
       </c>
       <c r="K229" s="0" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10538,7 +10547,7 @@
         <v>14</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E230" s="3" t="n">
         <v>14</v>
@@ -10550,14 +10559,14 @@
         <v>1</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="J230" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D230,  " ", E230, " ", "Львів")</f>
         <v>Рудненська  14 Львів</v>
       </c>
       <c r="K230" s="0" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10571,7 +10580,7 @@
         <v>14</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E231" s="3" t="n">
         <v>10</v>
@@ -10583,14 +10592,14 @@
         <v>1</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="J231" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D231,  " ", E231, " ", "Львів")</f>
         <v>Рудненська  10 Львів</v>
       </c>
       <c r="K231" s="0" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10604,7 +10613,7 @@
         <v>14</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E232" s="3" t="n">
         <v>7</v>
@@ -10616,14 +10625,14 @@
         <v>1.8</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="J232" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D232,  " ", E232, " ", "Львів")</f>
         <v>Руставелі Ш.  7 Львів</v>
       </c>
       <c r="K232" s="0" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10637,10 +10646,10 @@
         <v>14</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G233" s="0" t="n">
         <v>2</v>
@@ -10649,14 +10658,14 @@
         <v>1</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="J233" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D233,  " ", E233, " ", "Львів")</f>
         <v>Руставелі Ш.   42-44 Львів</v>
       </c>
       <c r="K233" s="0" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,10 +10679,10 @@
         <v>14</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="G234" s="0" t="n">
         <v>3</v>
@@ -10682,14 +10691,14 @@
         <v>1</v>
       </c>
       <c r="I234" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="J234" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D234,  " ", E234, " ", "Львів")</f>
         <v>Руставелі Ш.   8-а Львів</v>
       </c>
       <c r="K234" s="0" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10703,7 +10712,7 @@
         <v>14</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E235" s="3" t="n">
         <v>1</v>
@@ -10715,14 +10724,14 @@
         <v>1</v>
       </c>
       <c r="I235" s="2" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="J235" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D235,  " ", E235, " ", "Львів")</f>
         <v>Рутковича І.  1 Львів</v>
       </c>
       <c r="K235" s="0" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10736,7 +10745,7 @@
         <v>14</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E236" s="3" t="n">
         <v>9</v>
@@ -10748,14 +10757,14 @@
         <v>1</v>
       </c>
       <c r="I236" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="J236" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D236,  " ", E236, " ", "Львів")</f>
         <v>Ряшівська  9 Львів</v>
       </c>
       <c r="K236" s="0" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10769,7 +10778,7 @@
         <v>14</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E237" s="3" t="n">
         <v>1</v>
@@ -10781,14 +10790,14 @@
         <v>1</v>
       </c>
       <c r="I237" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="J237" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D237,  " ", E237, " ", "Львів")</f>
         <v>Ряшівська  1 Львів</v>
       </c>
       <c r="K237" s="0" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10802,10 +10811,10 @@
         <v>14</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G238" s="0" t="n">
         <v>4</v>
@@ -10814,14 +10823,14 @@
         <v>1</v>
       </c>
       <c r="I238" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="J238" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D238,  " ", E238, " ", "Львів")</f>
         <v>Єфремова С., акад.   32-а Львів</v>
       </c>
       <c r="K238" s="0" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10835,7 +10844,7 @@
         <v>14</v>
       </c>
       <c r="D239" s="0" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E239" s="3" t="n">
         <v>1</v>
@@ -10847,14 +10856,14 @@
         <v>3</v>
       </c>
       <c r="I239" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J239" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D239,  " ", E239, " ", "Львів")</f>
         <v>Садова  1 Львів</v>
       </c>
       <c r="K239" s="0" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10868,7 +10877,7 @@
         <v>14</v>
       </c>
       <c r="D240" s="0" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E240" s="3"/>
       <c r="G240" s="0" t="n">
@@ -10878,14 +10887,14 @@
         <v>2.1</v>
       </c>
       <c r="I240" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="J240" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D240,  " ", E240, " ", "Львів")</f>
         <v>Саксаганського П.   Львів</v>
       </c>
       <c r="K240" s="0" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10899,7 +10908,7 @@
         <v>14</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E241" s="3"/>
       <c r="G241" s="0" t="n">
@@ -10909,14 +10918,14 @@
         <v>1.5</v>
       </c>
       <c r="I241" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="J241" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D241,  " ", E241, " ", "Львів")</f>
         <v>Самчука У.   Львів</v>
       </c>
       <c r="K241" s="0" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10930,10 +10939,10 @@
         <v>14</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="G242" s="0" t="n">
         <v>16</v>
@@ -10942,14 +10951,14 @@
         <v>1.6</v>
       </c>
       <c r="I242" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="J242" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D242,  " ", E242, " ", "Львів")</f>
         <v>Сахарова А.,акад.   58-а Львів</v>
       </c>
       <c r="K242" s="0" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10963,7 +10972,7 @@
         <v>14</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E243" s="3" t="n">
         <v>19</v>
@@ -10975,14 +10984,14 @@
         <v>1</v>
       </c>
       <c r="I243" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="J243" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D243,  " ", E243, " ", "Львів")</f>
         <v>Сахарова А.,акад.  19 Львів</v>
       </c>
       <c r="K243" s="0" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10996,7 +11005,7 @@
         <v>14</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E244" s="3" t="n">
         <v>45</v>
@@ -11008,14 +11017,14 @@
         <v>1</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="J244" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D244,  " ", E244, " ", "Львів")</f>
         <v>Сахарова А.,акад.  45 Львів</v>
       </c>
       <c r="K244" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11029,10 +11038,10 @@
         <v>14</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G245" s="0" t="n">
         <v>10</v>
@@ -11041,14 +11050,14 @@
         <v>1</v>
       </c>
       <c r="I245" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="J245" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D245,  " ", E245, " ", "Львів")</f>
         <v>Сахарова А.,акад.   19-а Львів</v>
       </c>
       <c r="K245" s="0" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11062,7 +11071,7 @@
         <v>14</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E246" s="3" t="n">
         <v>45</v>
@@ -11074,14 +11083,14 @@
         <v>2</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="J246" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D246,  " ", E246, " ", "Львів")</f>
         <v>Сахарова А.,акад.  45 Львів</v>
       </c>
       <c r="K246" s="0" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11095,7 +11104,7 @@
         <v>14</v>
       </c>
       <c r="D247" s="0" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="E247" s="3" t="n">
         <v>35</v>
@@ -11107,14 +11116,14 @@
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="J247" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D247,  " ", E247, " ", "Львів")</f>
         <v>Сахарова А.,акад.  35 Львів</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11128,7 +11137,7 @@
         <v>14</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="E248" s="3"/>
       <c r="G248" s="0" t="n">
@@ -11138,14 +11147,14 @@
         <v>3.5</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J248" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D248,  " ", E248, " ", "Львів")</f>
         <v>Сахарова А.,акад. – Бойківська   Львів</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11159,7 +11168,7 @@
         <v>14</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E249" s="3"/>
       <c r="G249" s="0" t="n">
@@ -11169,14 +11178,14 @@
         <v>0</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="J249" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D249,  " ", E249, " ", "Львів")</f>
         <v>Свободи, просп.   Львів</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11190,7 +11199,7 @@
         <v>14</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E250" s="3" t="n">
         <v>13</v>
@@ -11202,14 +11211,14 @@
         <v>1</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="J250" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D250,  " ", E250, " ", "Львів")</f>
         <v>Свободи, просп.  13 Львів</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11223,7 +11232,7 @@
         <v>14</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="E251" s="3" t="n">
         <v>13</v>
@@ -11235,14 +11244,14 @@
         <v>1</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="J251" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D251,  " ", E251, " ", "Львів")</f>
         <v>Свободи, просп.  13 Львів</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11256,7 +11265,7 @@
         <v>14</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E252" s="3"/>
       <c r="G252" s="0" t="n">
@@ -11266,14 +11275,14 @@
         <v>2.5</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="J252" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D252,  " ", E252, " ", "Львів")</f>
         <v>Святого Теодора, пл.   Львів</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11287,7 +11296,7 @@
         <v>14</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E253" s="3" t="n">
         <v>5</v>
@@ -11299,14 +11308,14 @@
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="J253" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D253,  " ", E253, " ", "Львів")</f>
         <v>Сихівська  5 Львів</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11320,10 +11329,10 @@
         <v>14</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="G254" s="0" t="n">
         <v>3</v>
@@ -11332,14 +11341,14 @@
         <v>1</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="J254" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D254,  " ", E254, " ", "Львів")</f>
         <v>Сихівська   24-б Львів</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11353,7 +11362,7 @@
         <v>14</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E255" s="3" t="n">
         <v>9</v>
@@ -11365,14 +11374,14 @@
         <v>3.8</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="J255" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D255,  " ", E255, " ", "Львів")</f>
         <v>Скрипника М.  9 Львів</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11386,7 +11395,7 @@
         <v>14</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E256" s="3" t="n">
         <v>1</v>
@@ -11398,14 +11407,14 @@
         <v>2.5</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J256" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D256,  " ", E256, " ", "Львів")</f>
         <v>Скрипника М.  1 Львів</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11419,7 +11428,7 @@
         <v>14</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="E257" s="3" t="n">
         <v>13</v>
@@ -11431,14 +11440,14 @@
         <v>14</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="J257" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D257,  " ", E257, " ", "Львів")</f>
         <v>Скрипника М.  13 Львів</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11452,7 +11461,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E258" s="3"/>
       <c r="G258" s="0" t="n">
@@ -11462,14 +11471,14 @@
         <v>3</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="J258" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D258,  " ", E258, " ", "Львів")</f>
         <v>Словацького Ю.   Львів</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11483,7 +11492,7 @@
         <v>14</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E259" s="3" t="n">
         <v>13</v>
@@ -11495,14 +11504,14 @@
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="J259" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D259,  " ", E259, " ", "Львів")</f>
         <v>Соборна, пл.  13 Львів</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11516,7 +11525,7 @@
         <v>14</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E260" s="3" t="n">
         <v>1</v>
@@ -11528,14 +11537,14 @@
         <v>1</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="J260" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D260,  " ", E260, " ", "Львів")</f>
         <v>Соборна, пл.  1 Львів</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11549,7 +11558,7 @@
         <v>14</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E261" s="3"/>
       <c r="G261" s="0" t="n">
@@ -11559,14 +11568,14 @@
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="J261" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D261,  " ", E261, " ", "Львів")</f>
         <v>Солодова   Львів</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11580,10 +11589,10 @@
         <v>14</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="G262" s="0" t="n">
         <v>22</v>
@@ -11592,14 +11601,14 @@
         <v>2.2</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="J262" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D262,  " ", E262, " ", "Львів")</f>
         <v>Станція Личаків   4-б Львів</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11613,7 +11622,7 @@
         <v>14</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E263" s="3"/>
       <c r="G263" s="0" t="n">
@@ -11623,14 +11632,14 @@
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="J263" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D263,  " ", E263, " ", "Львів")</f>
         <v>Старий Ринок, пл.   Львів</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11644,7 +11653,7 @@
         <v>14</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E264" s="3" t="n">
         <v>8</v>
@@ -11656,14 +11665,14 @@
         <v>2.7</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="J264" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D264,  " ", E264, " ", "Львів")</f>
         <v>Старий Ринок, пл.  8 Львів</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11677,7 +11686,7 @@
         <v>14</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E265" s="3"/>
       <c r="G265" s="0" t="n">
@@ -11687,14 +11696,14 @@
         <v>3.6</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J265" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D265,  " ", E265, " ", "Львів")</f>
         <v>Стефаника В.   Львів</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11708,7 +11717,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E266" s="3"/>
       <c r="G266" s="0" t="n">
@@ -11718,14 +11727,14 @@
         <v>1.7</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="J266" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D266,  " ", E266, " ", "Львів")</f>
         <v>Стецька Я.   Львів</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11739,7 +11748,7 @@
         <v>14</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E267" s="3" t="n">
         <v>33</v>
@@ -11751,14 +11760,14 @@
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="J267" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D267,  " ", E267, " ", "Львів")</f>
         <v>Стрийська  33 Львів</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11772,13 +11781,13 @@
         <v>14</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E268" s="3" t="n">
         <v>195</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G268" s="0" t="n">
         <v>295</v>
@@ -11787,14 +11796,14 @@
         <v>29.5</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="J268" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D268,  " ", E268, " ", "Львів")</f>
         <v>Стрийська  195 Львів</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11808,7 +11817,7 @@
         <v>14</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E269" s="3" t="n">
         <v>84</v>
@@ -11820,14 +11829,14 @@
         <v>1</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="J269" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D269,  " ", E269, " ", "Львів")</f>
         <v>Стрийська  84 Львів</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11841,7 +11850,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E270" s="3" t="n">
         <v>104</v>
@@ -11853,14 +11862,14 @@
         <v>2</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J270" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D270,  " ", E270, " ", "Львів")</f>
         <v>Стрийська  104 Львів</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11874,7 +11883,7 @@
         <v>14</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E271" s="3" t="n">
         <v>144</v>
@@ -11886,14 +11895,14 @@
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="J271" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D271,  " ", E271, " ", "Львів")</f>
         <v>Стрийська  144 Львів</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11907,7 +11916,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E272" s="3" t="n">
         <v>104</v>
@@ -11919,14 +11928,14 @@
         <v>3.8</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J272" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D272,  " ", E272, " ", "Львів")</f>
         <v>Стрийська  104 Львів</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11940,7 +11949,7 @@
         <v>14</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E273" s="3" t="n">
         <v>109</v>
@@ -11952,14 +11961,14 @@
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="J273" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D273,  " ", E273, " ", "Львів")</f>
         <v>Стрийська  109 Львів</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11973,7 +11982,7 @@
         <v>14</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E274" s="3" t="n">
         <v>107</v>
@@ -11985,14 +11994,14 @@
         <v>1</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="J274" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D274,  " ", E274, " ", "Львів")</f>
         <v>Стрийська  107 Львів</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12006,7 +12015,7 @@
         <v>14</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E275" s="3" t="n">
         <v>179</v>
@@ -12018,14 +12027,14 @@
         <v>2</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="J275" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D275,  " ", E275, " ", "Львів")</f>
         <v>Стрийська  179 Львів</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12039,7 +12048,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E276" s="3" t="n">
         <v>109</v>
@@ -12051,14 +12060,14 @@
         <v>2.3</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="J276" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D276,  " ", E276, " ", "Львів")</f>
         <v>Стрийська  109 Львів</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12072,7 +12081,7 @@
         <v>14</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E277" s="3" t="n">
         <v>28</v>
@@ -12084,14 +12093,14 @@
         <v>1</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="J277" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D277,  " ", E277, " ", "Львів")</f>
         <v>Стрийська  28 Львів</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12105,7 +12114,7 @@
         <v>14</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E278" s="3" t="n">
         <v>332</v>
@@ -12117,14 +12126,14 @@
         <v>3.1</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J278" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D278,  " ", E278, " ", "Львів")</f>
         <v>Стрийська  332 Львів</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12138,7 +12147,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E279" s="3"/>
       <c r="G279" s="0" t="n">
@@ -12148,14 +12157,14 @@
         <v>10.4</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="J279" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D279,  " ", E279, " ", "Львів")</f>
         <v>Стрийська - Володимира Великого   Львів</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12169,7 +12178,7 @@
         <v>14</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E280" s="3" t="n">
         <v>10</v>
@@ -12181,14 +12190,14 @@
         <v>0</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="J280" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D280,  " ", E280, " ", "Львів")</f>
         <v>Стрілецька  10 Львів</v>
       </c>
       <c r="K280" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12202,7 +12211,7 @@
         <v>14</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E281" s="3" t="n">
         <v>2</v>
@@ -12214,14 +12223,14 @@
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="J281" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D281,  " ", E281, " ", "Львів")</f>
         <v>Стуса В.  2 Львів</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12235,11 +12244,11 @@
         <v>14</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="E282" s="3"/>
       <c r="F282" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="G282" s="0" t="n">
         <v>52</v>
@@ -12248,14 +12257,14 @@
         <v>5.2</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="J282" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D282,  " ", E282, " ", "Львів")</f>
         <v>Стуса В.  Львів</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12269,7 +12278,7 @@
         <v>14</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="E283" s="3" t="n">
         <v>13</v>
@@ -12281,14 +12290,14 @@
         <v>4</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="J283" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D283,  " ", E283, " ", "Львів")</f>
         <v>Суботівська  13 Львів</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12302,7 +12311,7 @@
         <v>14</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E284" s="3"/>
       <c r="G284" s="0" t="n">
@@ -12312,14 +12321,14 @@
         <v>1.5</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="J284" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D284,  " ", E284, " ", "Львів")</f>
         <v>Сянська   Львів</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12333,7 +12342,7 @@
         <v>14</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E285" s="3"/>
       <c r="G285" s="0" t="n">
@@ -12343,14 +12352,14 @@
         <v>1</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="J285" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D285,  " ", E285, " ", "Львів")</f>
         <v>Січових Стрільців   Львів</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12364,7 +12373,7 @@
         <v>14</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E286" s="3" t="n">
         <v>9</v>
@@ -12376,14 +12385,14 @@
         <v>1</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="J286" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D286,  " ", E286, " ", "Львів")</f>
         <v>Січових Стрільців  9 Львів</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12397,7 +12406,7 @@
         <v>14</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E287" s="3"/>
       <c r="G287" s="0" t="n">
@@ -12407,14 +12416,14 @@
         <v>3</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="J287" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D287,  " ", E287, " ", "Львів")</f>
         <v>Театральна   Львів</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12428,7 +12437,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E288" s="3" t="n">
         <v>42</v>
@@ -12440,14 +12449,14 @@
         <v>3</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="J288" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D288,  " ", E288, " ", "Львів")</f>
         <v>Тернопільська  42 Львів</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12461,10 +12470,10 @@
         <v>14</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G289" s="0" t="n">
         <v>4</v>
@@ -12473,14 +12482,14 @@
         <v>1</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="J289" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D289,  " ", E289, " ", "Львів")</f>
         <v>Тершаковців   1-б Львів</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12494,7 +12503,7 @@
         <v>14</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E290" s="3" t="n">
         <v>2</v>
@@ -12506,14 +12515,14 @@
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="J290" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D290,  " ", E290, " ", "Львів")</f>
         <v>Тершаковців  2 Львів</v>
       </c>
       <c r="K290" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12527,10 +12536,10 @@
         <v>14</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G291" s="0" t="n">
         <v>9</v>
@@ -12539,14 +12548,14 @@
         <v>1</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="J291" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D291,  " ", E291, " ", "Львів")</f>
         <v>Тершаковців   6-а Львів</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12560,7 +12569,7 @@
         <v>14</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="E292" s="3"/>
       <c r="G292" s="0" t="n">
@@ -12570,14 +12579,14 @@
         <v>1</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J292" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D292,  " ", E292, " ", "Львів")</f>
         <v>Тиктора І.   Львів</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12591,7 +12600,7 @@
         <v>14</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E293" s="3"/>
       <c r="G293" s="0" t="n">
@@ -12601,14 +12610,14 @@
         <v>2</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="J293" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D293,  " ", E293, " ", "Львів")</f>
         <v>Тобілевича І.   Львів</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12622,7 +12631,7 @@
         <v>14</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E294" s="3"/>
       <c r="G294" s="0" t="n">
@@ -12632,14 +12641,14 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="J294" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D294,  " ", E294, " ", "Львів")</f>
         <v>Томашівського С.   Львів</v>
       </c>
       <c r="K294" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12653,7 +12662,7 @@
         <v>14</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E295" s="3" t="n">
         <v>4</v>
@@ -12665,14 +12674,14 @@
         <v>3</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="J295" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D295,  " ", E295, " ", "Львів")</f>
         <v>Торф’яна  4 Львів</v>
       </c>
       <c r="K295" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12686,7 +12695,7 @@
         <v>14</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E296" s="3" t="n">
         <v>25</v>
@@ -12698,14 +12707,14 @@
         <v>2</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="J296" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D296,  " ", E296, " ", "Львів")</f>
         <v>Торф’яна  25 Львів</v>
       </c>
       <c r="K296" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12719,7 +12728,7 @@
         <v>14</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="E297" s="3" t="n">
         <v>141</v>
@@ -12731,14 +12740,14 @@
         <v>5</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="J297" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D297,  " ", E297, " ", "Львів")</f>
         <v>Глинянський Тракт  141 Львів</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12752,7 +12761,7 @@
         <v>14</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E298" s="3" t="n">
         <v>33</v>
@@ -12764,14 +12773,14 @@
         <v>3</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="J298" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D298,  " ", E298, " ", "Львів")</f>
         <v>Трильовського К.  33 Львів</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12785,7 +12794,7 @@
         <v>14</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="E299" s="3" t="n">
         <v>25</v>
@@ -12797,14 +12806,14 @@
         <v>1</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="J299" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D299,  " ", E299, " ", "Львів")</f>
         <v>Федьковича Ю.  25 Львів</v>
       </c>
       <c r="K299" s="0" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12818,7 +12827,7 @@
         <v>14</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="E300" s="3"/>
       <c r="G300" s="0" t="n">
@@ -12828,14 +12837,14 @@
         <v>5</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="J300" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D300,  " ", E300, " ", "Львів")</f>
         <v>Федьковича Ю.   Львів</v>
       </c>
       <c r="K300" s="0" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12849,7 +12858,7 @@
         <v>14</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E301" s="3" t="n">
         <v>23</v>
@@ -12861,14 +12870,14 @@
         <v>1</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="J301" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D301,  " ", E301, " ", "Львів")</f>
         <v>Франка І.  23 Львів</v>
       </c>
       <c r="K301" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12882,10 +12891,10 @@
         <v>14</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="G302" s="0" t="n">
         <v>15</v>
@@ -12894,14 +12903,14 @@
         <v>2</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="J302" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D302,  " ", E302, " ", "Львів")</f>
         <v>Франка І.   101-115 Львів</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12915,7 +12924,7 @@
         <v>14</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E303" s="3" t="n">
         <v>66</v>
@@ -12927,14 +12936,14 @@
         <v>1</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="J303" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D303,  " ", E303, " ", "Львів")</f>
         <v>Франка І.  66 Львів</v>
       </c>
       <c r="K303" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12948,10 +12957,10 @@
         <v>14</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G304" s="0" t="n">
         <v>12</v>
@@ -12960,14 +12969,14 @@
         <v>1</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="J304" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D304,  " ", E304, " ", "Львів")</f>
         <v>Франка І.   137-а Львів</v>
       </c>
       <c r="K304" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12981,10 +12990,10 @@
         <v>14</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G305" s="0" t="n">
         <v>2</v>
@@ -12993,14 +13002,14 @@
         <v>1</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="J305" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D305,  " ", E305, " ", "Львів")</f>
         <v>Франка І.   75-77 Львів</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13014,7 +13023,7 @@
         <v>14</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E306" s="3" t="n">
         <v>108</v>
@@ -13026,14 +13035,14 @@
         <v>1</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="J306" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D306,  " ", E306, " ", "Львів")</f>
         <v>Франка І.  108 Львів</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13047,7 +13056,7 @@
         <v>14</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="E307" s="3"/>
       <c r="G307" s="0" t="n">
@@ -13057,14 +13066,14 @@
         <v>1</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="J307" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D307,  " ", E307, " ", "Львів")</f>
         <v>Фредра О.   Львів</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13078,7 +13087,7 @@
         <v>14</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E308" s="3" t="n">
         <v>14</v>
@@ -13090,14 +13099,14 @@
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="J308" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D308,  " ", E308, " ", "Львів")</f>
         <v>Фурманська  14 Львів</v>
       </c>
       <c r="K308" s="0" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13111,7 +13120,7 @@
         <v>14</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E309" s="3" t="n">
         <v>9</v>
@@ -13123,14 +13132,14 @@
         <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="J309" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D309,  " ", E309, " ", "Львів")</f>
         <v>Фурманська  9 Львів</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13144,7 +13153,7 @@
         <v>14</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E310" s="3" t="n">
         <v>1</v>
@@ -13156,14 +13165,14 @@
         <v>1</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="J310" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D310,  " ", E310, " ", "Львів")</f>
         <v>Фурманська  1 Львів</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13177,7 +13186,7 @@
         <v>14</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="E311" s="3" t="n">
         <v>4</v>
@@ -13189,14 +13198,14 @@
         <v>2</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="J311" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D311,  " ", E311, " ", "Львів")</f>
         <v>Хлібна  4 Львів</v>
       </c>
       <c r="K311" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13210,7 +13219,7 @@
         <v>14</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="E312" s="3" t="n">
         <v>4</v>
@@ -13222,14 +13231,14 @@
         <v>4</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="J312" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D312,  " ", E312, " ", "Львів")</f>
         <v>Хлібна  4 Львів</v>
       </c>
       <c r="K312" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13243,10 +13252,10 @@
         <v>14</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="G313" s="0" t="n">
         <v>8</v>
@@ -13255,14 +13264,14 @@
         <v>1</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="J313" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D313,  " ", E313, " ", "Львів")</f>
         <v>Хмельницького Б   216-222 Львів</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13276,7 +13285,7 @@
         <v>14</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E314" s="3" t="n">
         <v>271</v>
@@ -13288,14 +13297,14 @@
         <v>4</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J314" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D314,  " ", E314, " ", "Львів")</f>
         <v>Хмельницького Б.  271 Львів</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13309,7 +13318,7 @@
         <v>14</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E315" s="3" t="n">
         <v>271</v>
@@ -13321,14 +13330,14 @@
         <v>1</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="J315" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D315,  " ", E315, " ", "Львів")</f>
         <v>Хмельницького Б.  271 Львів</v>
       </c>
       <c r="K315" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13342,7 +13351,7 @@
         <v>14</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E316" s="3" t="n">
         <v>200</v>
@@ -13354,14 +13363,14 @@
         <v>1</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="J316" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D316,  " ", E316, " ", "Львів")</f>
         <v>Хмельницького Б.  200 Львів</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13375,7 +13384,7 @@
         <v>14</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E317" s="3" t="n">
         <v>54</v>
@@ -13387,14 +13396,14 @@
         <v>1</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="J317" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D317,  " ", E317, " ", "Львів")</f>
         <v>Хмельницького Б.  54 Львів</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13408,10 +13417,10 @@
         <v>14</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G318" s="0" t="n">
         <v>57</v>
@@ -13420,14 +13429,14 @@
         <v>6</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="J318" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D318,  " ", E318, " ", "Львів")</f>
         <v>Хмельницького Б.   188-а Львів</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13441,7 +13450,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E319" s="3" t="n">
         <v>106</v>
@@ -13453,14 +13462,14 @@
         <v>1</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="J319" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D319,  " ", E319, " ", "Львів")</f>
         <v>Хмельницького Б.  106 Львів</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13474,7 +13483,7 @@
         <v>14</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E320" s="3" t="n">
         <v>172</v>
@@ -13486,14 +13495,14 @@
         <v>1</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="J320" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D320,  " ", E320, " ", "Львів")</f>
         <v>Хмельницького Б.  172 Львів</v>
       </c>
       <c r="K320" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13507,7 +13516,7 @@
         <v>14</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E321" s="3" t="n">
         <v>212</v>
@@ -13519,14 +13528,14 @@
         <v>11</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="J321" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D321,  " ", E321, " ", "Львів")</f>
         <v>Хмельницького Б.  212 Львів</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13540,7 +13549,7 @@
         <v>14</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E322" s="3" t="n">
         <v>230</v>
@@ -13552,14 +13561,14 @@
         <v>5</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="J322" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D322,  " ", E322, " ", "Львів")</f>
         <v>Хмельницького Б.  230 Львів</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13573,13 +13582,13 @@
         <v>14</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E323" s="3" t="n">
         <v>83</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G323" s="0" t="n">
         <v>3</v>
@@ -13588,14 +13597,14 @@
         <v>1</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="J323" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D323,  " ", E323, " ", "Львів")</f>
         <v>Хмельницького Б.  83 Львів</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13609,7 +13618,7 @@
         <v>14</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E324" s="3" t="n">
         <v>52</v>
@@ -13621,14 +13630,14 @@
         <v>2</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="J324" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D324,  " ", E324, " ", "Львів")</f>
         <v>Хоткевича Г.  52 Львів</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13642,7 +13651,7 @@
         <v>14</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E325" s="3" t="n">
         <v>10</v>
@@ -13654,14 +13663,14 @@
         <v>3</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J325" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D325,  " ", E325, " ", "Львів")</f>
         <v>Хоткевича Г.  10 Львів</v>
       </c>
       <c r="K325" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13675,7 +13684,7 @@
         <v>14</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E326" s="3" t="n">
         <v>64</v>
@@ -13687,14 +13696,14 @@
         <v>9</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="J326" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D326,  " ", E326, " ", "Львів")</f>
         <v>Хоткевича Г.  64 Львів</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13708,11 +13717,11 @@
         <v>14</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="G327" s="0" t="n">
         <v>4</v>
@@ -13721,14 +13730,14 @@
         <v>1</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="J327" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D327,  " ", E327, " ", "Львів")</f>
         <v>Хоткевича Г.  Львів</v>
       </c>
       <c r="K327" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13742,10 +13751,10 @@
         <v>14</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="G328" s="0" t="n">
         <v>38</v>
@@ -13754,14 +13763,14 @@
         <v>4</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="J328" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D328,  " ", E328, " ", "Львів")</f>
         <v>Хуторівка   40-а Львів</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13775,7 +13784,7 @@
         <v>14</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E329" s="3"/>
       <c r="G329" s="0" t="n">
@@ -13785,14 +13794,14 @@
         <v>2</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J329" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D329,  " ", E329, " ", "Львів")</f>
         <v>Хуторівка - Г.Хоткевича   Львів</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13803,11 +13812,11 @@
         <v>24</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E330" s="3"/>
       <c r="F330" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="G330" s="0" t="n">
         <v>238</v>
@@ -13816,14 +13825,14 @@
         <v>24</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="J330" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D330,  " ", E330, " ", "Львів")</f>
         <v>ЦА Аеропорт  Львів</v>
       </c>
       <c r="K330" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13837,7 +13846,7 @@
         <v>14</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E331" s="3" t="n">
         <v>3</v>
@@ -13849,14 +13858,14 @@
         <v>1</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="J331" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D331,  " ", E331, " ", "Львів")</f>
         <v>Цехова  3 Львів</v>
       </c>
       <c r="K331" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13870,7 +13879,7 @@
         <v>14</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E332" s="3"/>
       <c r="G332" s="0" t="n">
@@ -13880,14 +13889,14 @@
         <v>4</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="J332" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D332,  " ", E332, " ", "Львів")</f>
         <v>Чайковського П.   Львів</v>
       </c>
       <c r="K332" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13898,10 +13907,10 @@
         <v>24</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E333" s="3" t="n">
         <v>94</v>
@@ -13913,14 +13922,14 @@
         <v>2</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="J333" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D333,  " ", E333, " ", "Львів")</f>
         <v>Червоної Калини, просп.  94 Львів</v>
       </c>
       <c r="K333" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13931,10 +13940,10 @@
         <v>13</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E334" s="3" t="n">
         <v>121</v>
@@ -13946,14 +13955,14 @@
         <v>1</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="J334" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D334,  " ", E334, " ", "Львів")</f>
         <v>Червоної Калини, просп.  121 Львів</v>
       </c>
       <c r="K334" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13964,10 +13973,10 @@
         <v>13</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E335" s="3" t="n">
         <v>109</v>
@@ -13979,14 +13988,14 @@
         <v>1</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="J335" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D335,  " ", E335, " ", "Львів")</f>
         <v>Червоної Калини, просп.  109 Львів</v>
       </c>
       <c r="K335" s="0" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13997,10 +14006,10 @@
         <v>24</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E336" s="3" t="n">
         <v>77</v>
@@ -14012,14 +14021,14 @@
         <v>5</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="J336" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D336,  " ", E336, " ", "Львів")</f>
         <v>Червоної Калини, просп.  77 Львів</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14030,10 +14039,10 @@
         <v>13</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E337" s="3" t="n">
         <v>77</v>
@@ -14045,14 +14054,14 @@
         <v>1</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="J337" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D337,  " ", E337, " ", "Львів")</f>
         <v>Червоної Калини, просп.  77 Львів</v>
       </c>
       <c r="K337" s="0" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14063,10 +14072,10 @@
         <v>13</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E338" s="3" t="n">
         <v>40</v>
@@ -14078,14 +14087,14 @@
         <v>1</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="J338" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D338,  " ", E338, " ", "Львів")</f>
         <v>Червоної Калини, просп.  40 Львів</v>
       </c>
       <c r="K338" s="0" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14096,10 +14105,10 @@
         <v>13</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E339" s="3" t="n">
         <v>35</v>
@@ -14111,14 +14120,14 @@
         <v>1</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="J339" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D339,  " ", E339, " ", "Львів")</f>
         <v>Червоної Калини, просп.  35 Львів</v>
       </c>
       <c r="K339" s="0" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14129,10 +14138,10 @@
         <v>40</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E340" s="3" t="n">
         <v>94</v>
@@ -14144,14 +14153,14 @@
         <v>1</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="J340" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D340,  " ", E340, " ", "Львів")</f>
         <v>Червоної Калини, просп.  94 Львів</v>
       </c>
       <c r="K340" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14162,13 +14171,13 @@
         <v>24</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="G341" s="0" t="n">
         <v>38</v>
@@ -14177,14 +14186,14 @@
         <v>4</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="J341" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D341,  " ", E341, " ", "Львів")</f>
         <v>Червоної Калини, просп.   68-б Львів</v>
       </c>
       <c r="K341" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14195,10 +14204,10 @@
         <v>40</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E342" s="3" t="n">
         <v>91</v>
@@ -14210,14 +14219,14 @@
         <v>1</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="J342" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D342,  " ", E342, " ", "Львів")</f>
         <v>Червоної Калини, просп.  91 Львів</v>
       </c>
       <c r="K342" s="0" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14228,10 +14237,10 @@
         <v>24</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E343" s="3" t="n">
         <v>36</v>
@@ -14243,14 +14252,14 @@
         <v>3</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="J343" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D343,  " ", E343, " ", "Львів")</f>
         <v>Червоної Калини, просп.  36 Львів</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14261,10 +14270,10 @@
         <v>40</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E344" s="3" t="n">
         <v>18</v>
@@ -14276,14 +14285,14 @@
         <v>1</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="J344" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D344,  " ", E344, " ", "Львів")</f>
         <v>Червоної Калини, просп.  18 Львів</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14294,14 +14303,14 @@
         <v>24</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="0" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G345" s="0" t="n">
         <v>800</v>
@@ -14310,14 +14319,14 @@
         <v>80</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="J345" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D345,  " ", E345, " ", "Львів")</f>
         <v>Червоної Калини, просп. – Скрипника М.  Львів</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14331,7 +14340,7 @@
         <v>14</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="E346" s="3" t="n">
         <v>1</v>
@@ -14343,14 +14352,14 @@
         <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="J346" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D346,  " ", E346, " ", "Львів")</f>
         <v>Чернеча Гора  1 Львів</v>
       </c>
       <c r="K346" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14364,7 +14373,7 @@
         <v>14</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E347" s="3" t="n">
         <v>31</v>
@@ -14376,14 +14385,14 @@
         <v>3</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="J347" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D347,  " ", E347, " ", "Львів")</f>
         <v>Чигиринська  31 Львів</v>
       </c>
       <c r="K347" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14394,10 +14403,10 @@
         <v>13</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E348" s="3" t="n">
         <v>105</v>
@@ -14409,14 +14418,14 @@
         <v>1</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="J348" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D348,  " ", E348, " ", "Львів")</f>
         <v>Чорновола В.,просп.  105 Львів</v>
       </c>
       <c r="K348" s="0" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14427,10 +14436,10 @@
         <v>13</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E349" s="3" t="n">
         <v>101</v>
@@ -14442,14 +14451,14 @@
         <v>1</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="J349" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D349,  " ", E349, " ", "Львів")</f>
         <v>Чорновола В.,просп.  101 Львів</v>
       </c>
       <c r="K349" s="0" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14460,10 +14469,10 @@
         <v>13</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E350" s="3" t="n">
         <v>95</v>
@@ -14475,14 +14484,14 @@
         <v>1</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="J350" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D350,  " ", E350, " ", "Львів")</f>
         <v>Чорновола В.,просп.  95 Львів</v>
       </c>
       <c r="K350" s="0" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14493,10 +14502,10 @@
         <v>13</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E351" s="3" t="n">
         <v>61</v>
@@ -14508,14 +14517,14 @@
         <v>1</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="J351" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D351,  " ", E351, " ", "Львів")</f>
         <v>Чорновола В.,просп.  61 Львів</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14526,10 +14535,10 @@
         <v>40</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E352" s="3" t="n">
         <v>59</v>
@@ -14541,14 +14550,14 @@
         <v>1</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J352" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D352,  " ", E352, " ", "Львів")</f>
         <v>Чорновола В.,просп.  59 Львів</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14559,10 +14568,10 @@
         <v>13</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E353" s="3" t="n">
         <v>57</v>
@@ -14574,14 +14583,14 @@
         <v>1</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="J353" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D353,  " ", E353, " ", "Львів")</f>
         <v>Чорновола В.,просп.  57 Львів</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14592,10 +14601,10 @@
         <v>24</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E354" s="3" t="n">
         <v>65</v>
@@ -14607,14 +14616,14 @@
         <v>3</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="J354" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D354,  " ", E354, " ", "Львів")</f>
         <v>Чорновола В.,просп.  65 Львів</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14625,13 +14634,13 @@
         <v>40</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="G355" s="0" t="n">
         <v>11</v>
@@ -14640,14 +14649,14 @@
         <v>1</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="J355" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D355,  " ", E355, " ", "Львів")</f>
         <v>Чорновола В.,просп.   43-а Львів</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14658,10 +14667,10 @@
         <v>13</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="E356" s="3" t="n">
         <v>59</v>
@@ -14673,14 +14682,14 @@
         <v>1</v>
       </c>
       <c r="I356" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="J356" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D356,  " ", E356, " ", "Львів")</f>
         <v>Чорновола В.,просп.  59 Львів</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14694,10 +14703,10 @@
         <v>14</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G357" s="0" t="n">
         <v>2</v>
@@ -14706,14 +14715,14 @@
         <v>1</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="J357" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D357,  " ", E357, " ", "Львів")</f>
         <v>Шевченка Т.   358-б Львів</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14724,10 +14733,10 @@
         <v>24</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E358" s="3"/>
       <c r="G358" s="0" t="n">
@@ -14737,14 +14746,14 @@
         <v>10</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="J358" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D358,  " ", E358, " ", "Львів")</f>
         <v>Шевченка Т., просп.   Львів</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14755,10 +14764,10 @@
         <v>40</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E359" s="3" t="n">
         <v>12</v>
@@ -14770,14 +14779,14 @@
         <v>1</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="J359" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D359,  " ", E359, " ", "Львів")</f>
         <v>Шевченка Т., просп.  12 Львів</v>
       </c>
       <c r="K359" s="0" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14788,10 +14797,10 @@
         <v>40</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="E360" s="3" t="n">
         <v>7</v>
@@ -14803,14 +14812,14 @@
         <v>1</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="J360" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D360,  " ", E360, " ", "Львів")</f>
         <v>Шевченка Т., просп.  7 Львів</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14824,11 +14833,11 @@
         <v>14</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E361" s="3"/>
       <c r="F361" s="0" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="G361" s="0" t="n">
         <v>2</v>
@@ -14837,14 +14846,14 @@
         <v>1</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="J361" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D361,  " ", E361, " ", "Львів")</f>
         <v>Шевченка Т.  Львів</v>
       </c>
       <c r="K361" s="0" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14858,7 +14867,7 @@
         <v>14</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E362" s="3"/>
       <c r="G362" s="0" t="n">
@@ -14868,14 +14877,14 @@
         <v>1</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="J362" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D362,  " ", E362, " ", "Львів")</f>
         <v>Шевченка Т. – Томашівська   Львів</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14889,7 +14898,7 @@
         <v>14</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="E363" s="3" t="n">
         <v>18</v>
@@ -14901,14 +14910,14 @@
         <v>1</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="J363" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D363,  " ", E363, " ", "Львів")</f>
         <v>Шептицьких  18 Львів</v>
       </c>
       <c r="K363" s="0" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14922,7 +14931,7 @@
         <v>14</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E364" s="3" t="n">
         <v>85</v>
@@ -14934,14 +14943,14 @@
         <v>4</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="J364" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D364,  " ", E364, " ", "Львів")</f>
         <v>Широка  85 Львів</v>
       </c>
       <c r="K364" s="0" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14955,10 +14964,10 @@
         <v>14</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="G365" s="0" t="n">
         <v>29</v>
@@ -14967,14 +14976,14 @@
         <v>3</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="J365" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D365,  " ", E365, " ", "Львів")</f>
         <v>Широка   65-а Львів</v>
       </c>
       <c r="K365" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14988,7 +14997,7 @@
         <v>14</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E366" s="3" t="n">
         <v>41</v>
@@ -15000,14 +15009,14 @@
         <v>3</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="J366" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D366,  " ", E366, " ", "Львів")</f>
         <v>Широка  41 Львів</v>
       </c>
       <c r="K366" s="0" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15021,10 +15030,10 @@
         <v>14</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="G367" s="0" t="n">
         <v>10</v>
@@ -15033,14 +15042,14 @@
         <v>1</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="J367" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D367,  " ", E367, " ", "Львів")</f>
         <v>Широка   70-а Львів</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15054,7 +15063,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E368" s="3"/>
       <c r="G368" s="0" t="n">
@@ -15064,14 +15073,14 @@
         <v>3</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="J368" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D368,  " ", E368, " ", "Львів")</f>
         <v>Шолом-Алейхема Ш.   Львів</v>
       </c>
       <c r="K368" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15085,7 +15094,7 @@
         <v>14</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="E369" s="3"/>
       <c r="G369" s="0" t="n">
@@ -15095,14 +15104,14 @@
         <v>3</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="J369" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D369,  " ", E369, " ", "Львів")</f>
         <v>Шпитальна   Львів</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15116,7 +15125,7 @@
         <v>14</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="E370" s="3" t="n">
         <v>1</v>
@@ -15128,14 +15137,14 @@
         <v>3</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="J370" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D370,  " ", E370, " ", "Львів")</f>
         <v>Шпитальна  1 Львів</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15149,7 +15158,7 @@
         <v>14</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E371" s="3"/>
       <c r="G371" s="0" t="n">
@@ -15159,14 +15168,14 @@
         <v>1</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="J371" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D371,  " ", E371, " ", "Львів")</f>
         <v>Шухевича В.   Львів</v>
       </c>
       <c r="K371" s="0" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15180,7 +15189,7 @@
         <v>14</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="E372" s="3"/>
       <c r="G372" s="0" t="n">
@@ -15190,14 +15199,14 @@
         <v>1</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="J372" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D372,  " ", E372, " ", "Львів")</f>
         <v>Любінська - Д.Яворницького   Львів</v>
       </c>
       <c r="K372" s="0" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>

--- a/parking.xlsx
+++ b/parking.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="957">
   <si>
     <t xml:space="preserve">district</t>
   </si>
@@ -1769,7 +1769,7 @@
     <t xml:space="preserve">Раппапорта Я. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8452323,24.0202823</t>
+    <t xml:space="preserve">49.8445494,24.0180645</t>
   </si>
   <si>
     <t xml:space="preserve">Шевченківський р-н, вулиця Раппапорта Я.</t>
@@ -1790,13 +1790,13 @@
     <t xml:space="preserve">(згідно з детальним планом території (для обслуговування Палацу спорту))</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8494560,23.9615889</t>
+    <t xml:space="preserve">49.8489040,23.9616470</t>
   </si>
   <si>
     <t xml:space="preserve">Залізничний р-н, вулиця Роксоляни  59</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8460880,23.9594378</t>
+    <t xml:space="preserve">49.8458513,23.9599659</t>
   </si>
   <si>
     <t xml:space="preserve">Залізничний р-н, вулиця Роксоляни  43</t>
@@ -1892,7 +1892,7 @@
     <t xml:space="preserve">Садова </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8209490,23.9879319</t>
+    <t xml:space="preserve">49.8213456,23.9883424</t>
   </si>
   <si>
     <t xml:space="preserve">Залізничний р-н, вулиця Садова  1</t>
@@ -1901,7 +1901,7 @@
     <t xml:space="preserve">Саксаганського П. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8356724,24.0343672</t>
+    <t xml:space="preserve">49.8345305,24.0330502</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Саксаганського П.</t>
@@ -1910,7 +1910,7 @@
     <t xml:space="preserve">Самчука У. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8267013,24.0336803</t>
+    <t xml:space="preserve">49.8264736,24.0331941</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Самчука У.</t>
@@ -1922,7 +1922,7 @@
     <t xml:space="preserve"> 58-а</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8261176,24.0116338</t>
+    <t xml:space="preserve">49.8249957,24.0105611</t>
   </si>
   <si>
     <t xml:space="preserve">Франківський р-н, вулиця Сахарова А.,акад.   58-а</t>
@@ -1946,6 +1946,9 @@
     <t xml:space="preserve">Франківський р-н, вулиця Сахарова А.,акад.   19-а</t>
   </si>
   <si>
+    <t xml:space="preserve">49.8209266,24.0174664</t>
+  </si>
+  <si>
     <t xml:space="preserve">49.8235210,24.0176766</t>
   </si>
   <si>
@@ -1955,7 +1958,7 @@
     <t xml:space="preserve">Сахарова А.,акад. – Бойківська </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8225730,24.0175886</t>
+    <t xml:space="preserve">49.8230763,24.0128763</t>
   </si>
   <si>
     <t xml:space="preserve">Франківський р-н, вулиця Сахарова А.,акад. – Бойківська</t>
@@ -1979,7 +1982,7 @@
     <t xml:space="preserve">Святого Теодора, пл. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8477947,24.0273370</t>
+    <t xml:space="preserve">49.8475352,24.0267888</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Святого Теодора, пл.</t>
@@ -2006,25 +2009,28 @@
     <t xml:space="preserve">Скрипника М. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8427995,24.0484761</t>
+    <t xml:space="preserve">49.7882453,24.0558302</t>
   </si>
   <si>
     <t xml:space="preserve">Сихівський р-н, вулиця Скрипника М.  9</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8426561,24.0485376</t>
+    <t xml:space="preserve">49.7883349,24.0576821</t>
   </si>
   <si>
     <t xml:space="preserve">Сихівський р-н, вулиця Скрипника М.  1</t>
   </si>
   <si>
+    <t xml:space="preserve">49.7886078,24.0547744</t>
+  </si>
+  <si>
     <t xml:space="preserve">Сихівський р-н, вулиця Скрипника М.  13</t>
   </si>
   <si>
     <t xml:space="preserve">Словацького Ю. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8389804,24.0252242</t>
+    <t xml:space="preserve">49.8380344,24.0236537</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Словацького Ю.</t>
@@ -2048,7 +2054,7 @@
     <t xml:space="preserve">Солодова </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8418503,24.0492213</t>
+    <t xml:space="preserve">49.8411786,24.0481125</t>
   </si>
   <si>
     <t xml:space="preserve">Личаківський р-н, вулиця Солодова</t>
@@ -2060,7 +2066,7 @@
     <t xml:space="preserve"> 4-б</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8379700,24.0652479</t>
+    <t xml:space="preserve">49.8377030,24.0652233</t>
   </si>
   <si>
     <t xml:space="preserve">Личаківський р-н, вулиця Станція Личаків   4-б</t>
@@ -2084,7 +2090,7 @@
     <t xml:space="preserve">Стефаника В. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8374008,24.0294859</t>
+    <t xml:space="preserve">49.8362239,24.0267490</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Стефаника В.</t>
@@ -2093,7 +2099,7 @@
     <t xml:space="preserve">Стецька Я. </t>
   </si>
   <si>
-    <t xml:space="preserve">49.8358072,24.0339147</t>
+    <t xml:space="preserve">49.8352270,24.0336068</t>
   </si>
   <si>
     <t xml:space="preserve">Галицький р-н, вулиця Стецька Я.</t>
@@ -2114,7 +2120,7 @@
     <t xml:space="preserve">49.7855265,24.0156913</t>
   </si>
   <si>
-    <t xml:space="preserve">Сихівський р-н, вулиця Стрийська  195</t>
+    <t xml:space="preserve">Сихівський р-н, вулиця Стрийська  195 (Наразі паркінг не облаштовано, скористайтесь наступним)</t>
   </si>
   <si>
     <t xml:space="preserve">49.8192777,24.0194320</t>
@@ -2135,6 +2141,27 @@
     <t xml:space="preserve">Франківський р-н, вулиця Стрийська  144</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Франківський р-н, вулиця Стрийська  104 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Наразі паркінг не облаштовано, скористайтесь наступним)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">49.7881222,24.0175931</t>
   </si>
   <si>
@@ -2150,7 +2177,46 @@
     <t xml:space="preserve">49.7777250,24.0157121</t>
   </si>
   <si>
-    <t xml:space="preserve">Сихівський р-н, вулиця Стрийська  179</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Сихівський р-н, вулиця Стрийська  179 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Наразі паркінг не облаштовано, скористайтесь наступним)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Сихівський р-н, вулиця Стрийська  109 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Наразі паркінг не облаштовано, скористайтесь наступним)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">49.8276211,24.0296910</t>
@@ -2171,7 +2237,25 @@
     <t xml:space="preserve">49.8094836,24.0205319</t>
   </si>
   <si>
-    <t xml:space="preserve">Франківський р-н, вулиця Стрийська - Володимира Великого</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Франківський р-н, вулиця Стрийська - Володимира Великого </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Наразі паркінг не облаштовано, скористайтесь наступним)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Стрілецька </t>
@@ -2893,7 +2977,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2922,6 +3006,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3010,18 +3100,18 @@
   </sheetPr>
   <dimension ref="A1:L372"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B240" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I221" activeCellId="0" sqref="I221"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A257" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A279" activeCellId="0" sqref="A279"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="31.77"/>
@@ -11083,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="I246" s="2" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="J246" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D246,  " ", E246, " ", "Львів")</f>
@@ -11116,14 +11206,14 @@
         <v>1</v>
       </c>
       <c r="I247" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="J247" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D247,  " ", E247, " ", "Львів")</f>
         <v>Сахарова А.,акад.  35 Львів</v>
       </c>
       <c r="K247" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11137,7 +11227,7 @@
         <v>14</v>
       </c>
       <c r="D248" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E248" s="3"/>
       <c r="G248" s="0" t="n">
@@ -11147,14 +11237,14 @@
         <v>3.5</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J248" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D248,  " ", E248, " ", "Львів")</f>
         <v>Сахарова А.,акад. – Бойківська   Львів</v>
       </c>
       <c r="K248" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11168,7 +11258,7 @@
         <v>14</v>
       </c>
       <c r="D249" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E249" s="3"/>
       <c r="G249" s="0" t="n">
@@ -11178,14 +11268,14 @@
         <v>0</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="J249" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D249,  " ", E249, " ", "Львів")</f>
         <v>Свободи, просп.   Львів</v>
       </c>
       <c r="K249" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11199,7 +11289,7 @@
         <v>14</v>
       </c>
       <c r="D250" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E250" s="3" t="n">
         <v>13</v>
@@ -11211,14 +11301,14 @@
         <v>1</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J250" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D250,  " ", E250, " ", "Львів")</f>
         <v>Свободи, просп.  13 Львів</v>
       </c>
       <c r="K250" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11232,7 +11322,7 @@
         <v>14</v>
       </c>
       <c r="D251" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E251" s="3" t="n">
         <v>13</v>
@@ -11244,14 +11334,14 @@
         <v>1</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J251" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D251,  " ", E251, " ", "Львів")</f>
         <v>Свободи, просп.  13 Львів</v>
       </c>
       <c r="K251" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11265,7 +11355,7 @@
         <v>14</v>
       </c>
       <c r="D252" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E252" s="3"/>
       <c r="G252" s="0" t="n">
@@ -11275,14 +11365,14 @@
         <v>2.5</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J252" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D252,  " ", E252, " ", "Львів")</f>
         <v>Святого Теодора, пл.   Львів</v>
       </c>
       <c r="K252" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11296,7 +11386,7 @@
         <v>14</v>
       </c>
       <c r="D253" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E253" s="3" t="n">
         <v>5</v>
@@ -11308,14 +11398,14 @@
         <v>1</v>
       </c>
       <c r="I253" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="J253" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D253,  " ", E253, " ", "Львів")</f>
         <v>Сихівська  5 Львів</v>
       </c>
       <c r="K253" s="0" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11329,10 +11419,10 @@
         <v>14</v>
       </c>
       <c r="D254" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G254" s="0" t="n">
         <v>3</v>
@@ -11341,14 +11431,14 @@
         <v>1</v>
       </c>
       <c r="I254" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="J254" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D254,  " ", E254, " ", "Львів")</f>
         <v>Сихівська   24-б Львів</v>
       </c>
       <c r="K254" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11362,7 +11452,7 @@
         <v>14</v>
       </c>
       <c r="D255" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E255" s="3" t="n">
         <v>9</v>
@@ -11374,14 +11464,14 @@
         <v>3.8</v>
       </c>
       <c r="I255" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="J255" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D255,  " ", E255, " ", "Львів")</f>
         <v>Скрипника М.  9 Львів</v>
       </c>
       <c r="K255" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11395,7 +11485,7 @@
         <v>14</v>
       </c>
       <c r="D256" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E256" s="3" t="n">
         <v>1</v>
@@ -11407,14 +11497,14 @@
         <v>2.5</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="J256" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D256,  " ", E256, " ", "Львів")</f>
         <v>Скрипника М.  1 Львів</v>
       </c>
       <c r="K256" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11428,7 +11518,7 @@
         <v>14</v>
       </c>
       <c r="D257" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E257" s="3" t="n">
         <v>13</v>
@@ -11440,14 +11530,14 @@
         <v>14</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="J257" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D257,  " ", E257, " ", "Львів")</f>
         <v>Скрипника М.  13 Львів</v>
       </c>
       <c r="K257" s="0" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,7 +11551,7 @@
         <v>14</v>
       </c>
       <c r="D258" s="0" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E258" s="3"/>
       <c r="G258" s="0" t="n">
@@ -11471,14 +11561,14 @@
         <v>3</v>
       </c>
       <c r="I258" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J258" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D258,  " ", E258, " ", "Львів")</f>
         <v>Словацького Ю.   Львів</v>
       </c>
       <c r="K258" s="0" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11492,7 +11582,7 @@
         <v>14</v>
       </c>
       <c r="D259" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E259" s="3" t="n">
         <v>13</v>
@@ -11504,14 +11594,14 @@
         <v>1</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J259" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D259,  " ", E259, " ", "Львів")</f>
         <v>Соборна, пл.  13 Львів</v>
       </c>
       <c r="K259" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11525,7 +11615,7 @@
         <v>14</v>
       </c>
       <c r="D260" s="0" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="E260" s="3" t="n">
         <v>1</v>
@@ -11537,14 +11627,14 @@
         <v>1</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="J260" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D260,  " ", E260, " ", "Львів")</f>
         <v>Соборна, пл.  1 Львів</v>
       </c>
       <c r="K260" s="0" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11558,7 +11648,7 @@
         <v>14</v>
       </c>
       <c r="D261" s="0" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E261" s="3"/>
       <c r="G261" s="0" t="n">
@@ -11568,14 +11658,14 @@
         <v>1</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="J261" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D261,  " ", E261, " ", "Львів")</f>
         <v>Солодова   Львів</v>
       </c>
       <c r="K261" s="0" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11589,10 +11679,10 @@
         <v>14</v>
       </c>
       <c r="D262" s="0" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G262" s="0" t="n">
         <v>22</v>
@@ -11601,14 +11691,14 @@
         <v>2.2</v>
       </c>
       <c r="I262" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="J262" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D262,  " ", E262, " ", "Львів")</f>
         <v>Станція Личаків   4-б Львів</v>
       </c>
       <c r="K262" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11622,7 +11712,7 @@
         <v>14</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E263" s="3"/>
       <c r="G263" s="0" t="n">
@@ -11632,14 +11722,14 @@
         <v>0</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="J263" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D263,  " ", E263, " ", "Львів")</f>
         <v>Старий Ринок, пл.   Львів</v>
       </c>
       <c r="K263" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11653,7 +11743,7 @@
         <v>14</v>
       </c>
       <c r="D264" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="E264" s="3" t="n">
         <v>8</v>
@@ -11665,14 +11755,14 @@
         <v>2.7</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="J264" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D264,  " ", E264, " ", "Львів")</f>
         <v>Старий Ринок, пл.  8 Львів</v>
       </c>
       <c r="K264" s="0" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11686,7 +11776,7 @@
         <v>14</v>
       </c>
       <c r="D265" s="0" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E265" s="3"/>
       <c r="G265" s="0" t="n">
@@ -11696,14 +11786,14 @@
         <v>3.6</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="J265" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D265,  " ", E265, " ", "Львів")</f>
         <v>Стефаника В.   Львів</v>
       </c>
       <c r="K265" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11717,7 +11807,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="E266" s="3"/>
       <c r="G266" s="0" t="n">
@@ -11727,14 +11817,14 @@
         <v>1.7</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J266" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D266,  " ", E266, " ", "Львів")</f>
         <v>Стецька Я.   Львів</v>
       </c>
       <c r="K266" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11748,7 +11838,7 @@
         <v>14</v>
       </c>
       <c r="D267" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E267" s="3" t="n">
         <v>33</v>
@@ -11760,14 +11850,14 @@
         <v>1</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="J267" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D267,  " ", E267, " ", "Львів")</f>
         <v>Стрийська  33 Львів</v>
       </c>
       <c r="K267" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11781,13 +11871,13 @@
         <v>14</v>
       </c>
       <c r="D268" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E268" s="3" t="n">
         <v>195</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G268" s="0" t="n">
         <v>295</v>
@@ -11796,14 +11886,14 @@
         <v>29.5</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="J268" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D268,  " ", E268, " ", "Львів")</f>
         <v>Стрийська  195 Львів</v>
       </c>
       <c r="K268" s="0" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11817,7 +11907,7 @@
         <v>14</v>
       </c>
       <c r="D269" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E269" s="3" t="n">
         <v>84</v>
@@ -11829,14 +11919,14 @@
         <v>1</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="J269" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D269,  " ", E269, " ", "Львів")</f>
         <v>Стрийська  84 Львів</v>
       </c>
       <c r="K269" s="0" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11850,7 +11940,7 @@
         <v>14</v>
       </c>
       <c r="D270" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E270" s="3" t="n">
         <v>104</v>
@@ -11862,14 +11952,14 @@
         <v>2</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="J270" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D270,  " ", E270, " ", "Львів")</f>
         <v>Стрийська  104 Львів</v>
       </c>
       <c r="K270" s="0" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11883,7 +11973,7 @@
         <v>14</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E271" s="3" t="n">
         <v>144</v>
@@ -11895,17 +11985,17 @@
         <v>1</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="J271" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D271,  " ", E271, " ", "Львів")</f>
         <v>Стрийська  144 Львів</v>
       </c>
       <c r="K271" s="0" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
         <v>39</v>
       </c>
@@ -11916,7 +12006,7 @@
         <v>14</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E272" s="3" t="n">
         <v>104</v>
@@ -11928,14 +12018,14 @@
         <v>3.8</v>
       </c>
       <c r="I272" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="J272" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D272,  " ", E272, " ", "Львів")</f>
         <v>Стрийська  104 Львів</v>
       </c>
       <c r="K272" s="0" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11949,7 +12039,7 @@
         <v>14</v>
       </c>
       <c r="D273" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E273" s="3" t="n">
         <v>109</v>
@@ -11961,14 +12051,14 @@
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J273" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D273,  " ", E273, " ", "Львів")</f>
         <v>Стрийська  109 Львів</v>
       </c>
       <c r="K273" s="0" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11982,7 +12072,7 @@
         <v>14</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E274" s="3" t="n">
         <v>107</v>
@@ -11994,17 +12084,17 @@
         <v>1</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="J274" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D274,  " ", E274, " ", "Львів")</f>
         <v>Стрийська  107 Львів</v>
       </c>
       <c r="K274" s="0" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
         <v>65</v>
       </c>
@@ -12015,7 +12105,7 @@
         <v>14</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E275" s="3" t="n">
         <v>179</v>
@@ -12027,17 +12117,17 @@
         <v>2</v>
       </c>
       <c r="I275" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="J275" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D275,  " ", E275, " ", "Львів")</f>
         <v>Стрийська  179 Львів</v>
       </c>
       <c r="K275" s="0" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
         <v>65</v>
       </c>
@@ -12048,7 +12138,7 @@
         <v>14</v>
       </c>
       <c r="D276" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E276" s="3" t="n">
         <v>109</v>
@@ -12060,14 +12150,14 @@
         <v>2.3</v>
       </c>
       <c r="I276" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J276" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D276,  " ", E276, " ", "Львів")</f>
         <v>Стрийська  109 Львів</v>
       </c>
       <c r="K276" s="0" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12081,7 +12171,7 @@
         <v>14</v>
       </c>
       <c r="D277" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E277" s="3" t="n">
         <v>28</v>
@@ -12093,14 +12183,14 @@
         <v>1</v>
       </c>
       <c r="I277" s="2" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="J277" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D277,  " ", E277, " ", "Львів")</f>
         <v>Стрийська  28 Львів</v>
       </c>
       <c r="K277" s="0" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12114,7 +12204,7 @@
         <v>14</v>
       </c>
       <c r="D278" s="0" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E278" s="3" t="n">
         <v>332</v>
@@ -12126,17 +12216,17 @@
         <v>3.1</v>
       </c>
       <c r="I278" s="2" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="J278" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D278,  " ", E278, " ", "Львів")</f>
         <v>Стрийська  332 Львів</v>
       </c>
       <c r="K278" s="0" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
         <v>39</v>
       </c>
@@ -12147,7 +12237,7 @@
         <v>14</v>
       </c>
       <c r="D279" s="0" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="E279" s="3"/>
       <c r="G279" s="0" t="n">
@@ -12157,14 +12247,14 @@
         <v>10.4</v>
       </c>
       <c r="I279" s="2" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="J279" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D279,  " ", E279, " ", "Львів")</f>
         <v>Стрийська - Володимира Великого   Львів</v>
       </c>
       <c r="K279" s="0" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12178,7 +12268,7 @@
         <v>14</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="E280" s="3" t="n">
         <v>10</v>
@@ -12190,14 +12280,14 @@
         <v>0</v>
       </c>
       <c r="I280" s="2" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="J280" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D280,  " ", E280, " ", "Львів")</f>
         <v>Стрілецька  10 Львів</v>
       </c>
       <c r="K280" s="0" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12211,7 +12301,7 @@
         <v>14</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="E281" s="3" t="n">
         <v>2</v>
@@ -12223,14 +12313,14 @@
         <v>1</v>
       </c>
       <c r="I281" s="2" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="J281" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D281,  " ", E281, " ", "Львів")</f>
         <v>Стуса В.  2 Львів</v>
       </c>
       <c r="K281" s="0" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12244,11 +12334,11 @@
         <v>14</v>
       </c>
       <c r="D282" s="0" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="E282" s="3"/>
       <c r="F282" s="0" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="G282" s="0" t="n">
         <v>52</v>
@@ -12257,14 +12347,14 @@
         <v>5.2</v>
       </c>
       <c r="I282" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="J282" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D282,  " ", E282, " ", "Львів")</f>
         <v>Стуса В.  Львів</v>
       </c>
       <c r="K282" s="0" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12278,7 +12368,7 @@
         <v>14</v>
       </c>
       <c r="D283" s="0" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E283" s="3" t="n">
         <v>13</v>
@@ -12290,14 +12380,14 @@
         <v>4</v>
       </c>
       <c r="I283" s="2" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="J283" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D283,  " ", E283, " ", "Львів")</f>
         <v>Суботівська  13 Львів</v>
       </c>
       <c r="K283" s="0" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12311,7 +12401,7 @@
         <v>14</v>
       </c>
       <c r="D284" s="0" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E284" s="3"/>
       <c r="G284" s="0" t="n">
@@ -12321,14 +12411,14 @@
         <v>1.5</v>
       </c>
       <c r="I284" s="2" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="J284" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D284,  " ", E284, " ", "Львів")</f>
         <v>Сянська   Львів</v>
       </c>
       <c r="K284" s="0" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12342,7 +12432,7 @@
         <v>14</v>
       </c>
       <c r="D285" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E285" s="3"/>
       <c r="G285" s="0" t="n">
@@ -12352,14 +12442,14 @@
         <v>1</v>
       </c>
       <c r="I285" s="2" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="J285" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D285,  " ", E285, " ", "Львів")</f>
         <v>Січових Стрільців   Львів</v>
       </c>
       <c r="K285" s="0" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12373,7 +12463,7 @@
         <v>14</v>
       </c>
       <c r="D286" s="0" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E286" s="3" t="n">
         <v>9</v>
@@ -12385,14 +12475,14 @@
         <v>1</v>
       </c>
       <c r="I286" s="2" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="J286" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D286,  " ", E286, " ", "Львів")</f>
         <v>Січових Стрільців  9 Львів</v>
       </c>
       <c r="K286" s="0" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12406,7 +12496,7 @@
         <v>14</v>
       </c>
       <c r="D287" s="0" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="E287" s="3"/>
       <c r="G287" s="0" t="n">
@@ -12416,14 +12506,14 @@
         <v>3</v>
       </c>
       <c r="I287" s="2" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="J287" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D287,  " ", E287, " ", "Львів")</f>
         <v>Театральна   Львів</v>
       </c>
       <c r="K287" s="0" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12437,7 +12527,7 @@
         <v>14</v>
       </c>
       <c r="D288" s="0" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="E288" s="3" t="n">
         <v>42</v>
@@ -12449,14 +12539,14 @@
         <v>3</v>
       </c>
       <c r="I288" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="J288" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D288,  " ", E288, " ", "Львів")</f>
         <v>Тернопільська  42 Львів</v>
       </c>
       <c r="K288" s="0" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12470,10 +12560,10 @@
         <v>14</v>
       </c>
       <c r="D289" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="G289" s="0" t="n">
         <v>4</v>
@@ -12482,14 +12572,14 @@
         <v>1</v>
       </c>
       <c r="I289" s="2" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="J289" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D289,  " ", E289, " ", "Львів")</f>
         <v>Тершаковців   1-б Львів</v>
       </c>
       <c r="K289" s="0" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12503,7 +12593,7 @@
         <v>14</v>
       </c>
       <c r="D290" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E290" s="3" t="n">
         <v>2</v>
@@ -12515,14 +12605,14 @@
         <v>1</v>
       </c>
       <c r="I290" s="2" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="J290" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D290,  " ", E290, " ", "Львів")</f>
         <v>Тершаковців  2 Львів</v>
       </c>
       <c r="K290" s="0" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12536,7 +12626,7 @@
         <v>14</v>
       </c>
       <c r="D291" s="0" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="E291" s="3" t="s">
         <v>538</v>
@@ -12548,14 +12638,14 @@
         <v>1</v>
       </c>
       <c r="I291" s="2" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="J291" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D291,  " ", E291, " ", "Львів")</f>
         <v>Тершаковців   6-а Львів</v>
       </c>
       <c r="K291" s="0" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12569,7 +12659,7 @@
         <v>14</v>
       </c>
       <c r="D292" s="0" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="E292" s="3"/>
       <c r="G292" s="0" t="n">
@@ -12579,14 +12669,14 @@
         <v>1</v>
       </c>
       <c r="I292" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="J292" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D292,  " ", E292, " ", "Львів")</f>
         <v>Тиктора І.   Львів</v>
       </c>
       <c r="K292" s="0" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12600,7 +12690,7 @@
         <v>14</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="E293" s="3"/>
       <c r="G293" s="0" t="n">
@@ -12610,14 +12700,14 @@
         <v>2</v>
       </c>
       <c r="I293" s="2" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="J293" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D293,  " ", E293, " ", "Львів")</f>
         <v>Тобілевича І.   Львів</v>
       </c>
       <c r="K293" s="0" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12631,7 +12721,7 @@
         <v>14</v>
       </c>
       <c r="D294" s="0" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="E294" s="3"/>
       <c r="G294" s="0" t="n">
@@ -12641,14 +12731,14 @@
         <v>1</v>
       </c>
       <c r="I294" s="2" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="J294" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D294,  " ", E294, " ", "Львів")</f>
         <v>Томашівського С.   Львів</v>
       </c>
       <c r="K294" s="0" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12662,7 +12752,7 @@
         <v>14</v>
       </c>
       <c r="D295" s="0" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E295" s="3" t="n">
         <v>4</v>
@@ -12674,14 +12764,14 @@
         <v>3</v>
       </c>
       <c r="I295" s="2" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="J295" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D295,  " ", E295, " ", "Львів")</f>
         <v>Торф’яна  4 Львів</v>
       </c>
       <c r="K295" s="0" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12695,7 +12785,7 @@
         <v>14</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="E296" s="3" t="n">
         <v>25</v>
@@ -12707,14 +12797,14 @@
         <v>2</v>
       </c>
       <c r="I296" s="2" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="J296" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D296,  " ", E296, " ", "Львів")</f>
         <v>Торф’яна  25 Львів</v>
       </c>
       <c r="K296" s="0" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12728,7 +12818,7 @@
         <v>14</v>
       </c>
       <c r="D297" s="0" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="E297" s="3" t="n">
         <v>141</v>
@@ -12740,14 +12830,14 @@
         <v>5</v>
       </c>
       <c r="I297" s="2" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="J297" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D297,  " ", E297, " ", "Львів")</f>
         <v>Глинянський Тракт  141 Львів</v>
       </c>
       <c r="K297" s="0" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12761,7 +12851,7 @@
         <v>14</v>
       </c>
       <c r="D298" s="0" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E298" s="3" t="n">
         <v>33</v>
@@ -12773,14 +12863,14 @@
         <v>3</v>
       </c>
       <c r="I298" s="2" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="J298" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D298,  " ", E298, " ", "Львів")</f>
         <v>Трильовського К.  33 Львів</v>
       </c>
       <c r="K298" s="0" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12794,7 +12884,7 @@
         <v>14</v>
       </c>
       <c r="D299" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E299" s="3" t="n">
         <v>25</v>
@@ -12806,14 +12896,14 @@
         <v>1</v>
       </c>
       <c r="I299" s="2" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="J299" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D299,  " ", E299, " ", "Львів")</f>
         <v>Федьковича Ю.  25 Львів</v>
       </c>
       <c r="K299" s="0" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12827,7 +12917,7 @@
         <v>14</v>
       </c>
       <c r="D300" s="0" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="E300" s="3"/>
       <c r="G300" s="0" t="n">
@@ -12837,14 +12927,14 @@
         <v>5</v>
       </c>
       <c r="I300" s="2" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="J300" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D300,  " ", E300, " ", "Львів")</f>
         <v>Федьковича Ю.   Львів</v>
       </c>
       <c r="K300" s="0" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12858,7 +12948,7 @@
         <v>14</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E301" s="3" t="n">
         <v>23</v>
@@ -12870,14 +12960,14 @@
         <v>1</v>
       </c>
       <c r="I301" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="J301" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D301,  " ", E301, " ", "Львів")</f>
         <v>Франка І.  23 Львів</v>
       </c>
       <c r="K301" s="0" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12891,10 +12981,10 @@
         <v>14</v>
       </c>
       <c r="D302" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="G302" s="0" t="n">
         <v>15</v>
@@ -12903,14 +12993,14 @@
         <v>2</v>
       </c>
       <c r="I302" s="2" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="J302" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D302,  " ", E302, " ", "Львів")</f>
         <v>Франка І.   101-115 Львів</v>
       </c>
       <c r="K302" s="0" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,7 +13014,7 @@
         <v>14</v>
       </c>
       <c r="D303" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E303" s="3" t="n">
         <v>66</v>
@@ -12936,14 +13026,14 @@
         <v>1</v>
       </c>
       <c r="I303" s="2" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="J303" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D303,  " ", E303, " ", "Львів")</f>
         <v>Франка І.  66 Львів</v>
       </c>
       <c r="K303" s="0" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12957,10 +13047,10 @@
         <v>14</v>
       </c>
       <c r="D304" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="G304" s="0" t="n">
         <v>12</v>
@@ -12969,14 +13059,14 @@
         <v>1</v>
       </c>
       <c r="I304" s="2" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="J304" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D304,  " ", E304, " ", "Львів")</f>
         <v>Франка І.   137-а Львів</v>
       </c>
       <c r="K304" s="0" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12990,10 +13080,10 @@
         <v>14</v>
       </c>
       <c r="D305" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="G305" s="0" t="n">
         <v>2</v>
@@ -13002,14 +13092,14 @@
         <v>1</v>
       </c>
       <c r="I305" s="2" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="J305" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D305,  " ", E305, " ", "Львів")</f>
         <v>Франка І.   75-77 Львів</v>
       </c>
       <c r="K305" s="0" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13023,7 +13113,7 @@
         <v>14</v>
       </c>
       <c r="D306" s="0" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="E306" s="3" t="n">
         <v>108</v>
@@ -13035,14 +13125,14 @@
         <v>1</v>
       </c>
       <c r="I306" s="2" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="J306" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D306,  " ", E306, " ", "Львів")</f>
         <v>Франка І.  108 Львів</v>
       </c>
       <c r="K306" s="0" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13056,7 +13146,7 @@
         <v>14</v>
       </c>
       <c r="D307" s="0" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="E307" s="3"/>
       <c r="G307" s="0" t="n">
@@ -13066,14 +13156,14 @@
         <v>1</v>
       </c>
       <c r="I307" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="J307" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D307,  " ", E307, " ", "Львів")</f>
         <v>Фредра О.   Львів</v>
       </c>
       <c r="K307" s="0" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13087,7 +13177,7 @@
         <v>14</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E308" s="3" t="n">
         <v>14</v>
@@ -13099,14 +13189,14 @@
         <v>1</v>
       </c>
       <c r="I308" s="2" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="J308" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D308,  " ", E308, " ", "Львів")</f>
         <v>Фурманська  14 Львів</v>
       </c>
       <c r="K308" s="0" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13120,7 +13210,7 @@
         <v>14</v>
       </c>
       <c r="D309" s="0" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E309" s="3" t="n">
         <v>9</v>
@@ -13132,14 +13222,14 @@
         <v>1</v>
       </c>
       <c r="I309" s="2" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="J309" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D309,  " ", E309, " ", "Львів")</f>
         <v>Фурманська  9 Львів</v>
       </c>
       <c r="K309" s="0" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13153,7 +13243,7 @@
         <v>14</v>
       </c>
       <c r="D310" s="0" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="E310" s="3" t="n">
         <v>1</v>
@@ -13165,14 +13255,14 @@
         <v>1</v>
       </c>
       <c r="I310" s="2" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="J310" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D310,  " ", E310, " ", "Львів")</f>
         <v>Фурманська  1 Львів</v>
       </c>
       <c r="K310" s="0" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13186,7 +13276,7 @@
         <v>14</v>
       </c>
       <c r="D311" s="0" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E311" s="3" t="n">
         <v>4</v>
@@ -13198,14 +13288,14 @@
         <v>2</v>
       </c>
       <c r="I311" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="J311" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D311,  " ", E311, " ", "Львів")</f>
         <v>Хлібна  4 Львів</v>
       </c>
       <c r="K311" s="0" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13219,7 +13309,7 @@
         <v>14</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="E312" s="3" t="n">
         <v>4</v>
@@ -13231,14 +13321,14 @@
         <v>4</v>
       </c>
       <c r="I312" s="2" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="J312" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D312,  " ", E312, " ", "Львів")</f>
         <v>Хлібна  4 Львів</v>
       </c>
       <c r="K312" s="0" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13252,10 +13342,10 @@
         <v>14</v>
       </c>
       <c r="D313" s="0" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="E313" s="3" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="G313" s="0" t="n">
         <v>8</v>
@@ -13264,14 +13354,14 @@
         <v>1</v>
       </c>
       <c r="I313" s="2" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="J313" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D313,  " ", E313, " ", "Львів")</f>
         <v>Хмельницького Б   216-222 Львів</v>
       </c>
       <c r="K313" s="0" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13285,7 +13375,7 @@
         <v>14</v>
       </c>
       <c r="D314" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E314" s="3" t="n">
         <v>271</v>
@@ -13297,14 +13387,14 @@
         <v>4</v>
       </c>
       <c r="I314" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="J314" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D314,  " ", E314, " ", "Львів")</f>
         <v>Хмельницького Б.  271 Львів</v>
       </c>
       <c r="K314" s="0" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13318,7 +13408,7 @@
         <v>14</v>
       </c>
       <c r="D315" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E315" s="3" t="n">
         <v>271</v>
@@ -13330,14 +13420,14 @@
         <v>1</v>
       </c>
       <c r="I315" s="2" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="J315" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D315,  " ", E315, " ", "Львів")</f>
         <v>Хмельницького Б.  271 Львів</v>
       </c>
       <c r="K315" s="0" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13351,7 +13441,7 @@
         <v>14</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E316" s="3" t="n">
         <v>200</v>
@@ -13363,14 +13453,14 @@
         <v>1</v>
       </c>
       <c r="I316" s="2" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="J316" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D316,  " ", E316, " ", "Львів")</f>
         <v>Хмельницького Б.  200 Львів</v>
       </c>
       <c r="K316" s="0" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13384,7 +13474,7 @@
         <v>14</v>
       </c>
       <c r="D317" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E317" s="3" t="n">
         <v>54</v>
@@ -13396,14 +13486,14 @@
         <v>1</v>
       </c>
       <c r="I317" s="2" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="J317" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D317,  " ", E317, " ", "Львів")</f>
         <v>Хмельницького Б.  54 Львів</v>
       </c>
       <c r="K317" s="0" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13417,10 +13507,10 @@
         <v>14</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="G318" s="0" t="n">
         <v>57</v>
@@ -13429,14 +13519,14 @@
         <v>6</v>
       </c>
       <c r="I318" s="2" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="J318" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D318,  " ", E318, " ", "Львів")</f>
         <v>Хмельницького Б.   188-а Львів</v>
       </c>
       <c r="K318" s="0" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13450,7 +13540,7 @@
         <v>14</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E319" s="3" t="n">
         <v>106</v>
@@ -13462,14 +13552,14 @@
         <v>1</v>
       </c>
       <c r="I319" s="2" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="J319" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D319,  " ", E319, " ", "Львів")</f>
         <v>Хмельницького Б.  106 Львів</v>
       </c>
       <c r="K319" s="0" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13483,7 +13573,7 @@
         <v>14</v>
       </c>
       <c r="D320" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E320" s="3" t="n">
         <v>172</v>
@@ -13495,14 +13585,14 @@
         <v>1</v>
       </c>
       <c r="I320" s="2" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="J320" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D320,  " ", E320, " ", "Львів")</f>
         <v>Хмельницького Б.  172 Львів</v>
       </c>
       <c r="K320" s="0" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13516,7 +13606,7 @@
         <v>14</v>
       </c>
       <c r="D321" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E321" s="3" t="n">
         <v>212</v>
@@ -13528,14 +13618,14 @@
         <v>11</v>
       </c>
       <c r="I321" s="2" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="J321" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D321,  " ", E321, " ", "Львів")</f>
         <v>Хмельницького Б.  212 Львів</v>
       </c>
       <c r="K321" s="0" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13549,7 +13639,7 @@
         <v>14</v>
       </c>
       <c r="D322" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E322" s="3" t="n">
         <v>230</v>
@@ -13561,14 +13651,14 @@
         <v>5</v>
       </c>
       <c r="I322" s="2" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="J322" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D322,  " ", E322, " ", "Львів")</f>
         <v>Хмельницького Б.  230 Львів</v>
       </c>
       <c r="K322" s="0" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13582,13 +13672,13 @@
         <v>14</v>
       </c>
       <c r="D323" s="0" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="E323" s="3" t="n">
         <v>83</v>
       </c>
       <c r="F323" s="0" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="G323" s="0" t="n">
         <v>3</v>
@@ -13597,14 +13687,14 @@
         <v>1</v>
       </c>
       <c r="I323" s="2" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="J323" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D323,  " ", E323, " ", "Львів")</f>
         <v>Хмельницького Б.  83 Львів</v>
       </c>
       <c r="K323" s="0" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13618,7 +13708,7 @@
         <v>14</v>
       </c>
       <c r="D324" s="0" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E324" s="3" t="n">
         <v>52</v>
@@ -13630,14 +13720,14 @@
         <v>2</v>
       </c>
       <c r="I324" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="J324" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D324,  " ", E324, " ", "Львів")</f>
         <v>Хоткевича Г.  52 Львів</v>
       </c>
       <c r="K324" s="0" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13651,7 +13741,7 @@
         <v>14</v>
       </c>
       <c r="D325" s="0" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E325" s="3" t="n">
         <v>10</v>
@@ -13663,14 +13753,14 @@
         <v>3</v>
       </c>
       <c r="I325" s="2" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="J325" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D325,  " ", E325, " ", "Львів")</f>
         <v>Хоткевича Г.  10 Львів</v>
       </c>
       <c r="K325" s="0" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13684,7 +13774,7 @@
         <v>14</v>
       </c>
       <c r="D326" s="0" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="E326" s="3" t="n">
         <v>64</v>
@@ -13696,14 +13786,14 @@
         <v>9</v>
       </c>
       <c r="I326" s="2" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="J326" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D326,  " ", E326, " ", "Львів")</f>
         <v>Хоткевича Г.  64 Львів</v>
       </c>
       <c r="K326" s="0" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13717,11 +13807,11 @@
         <v>14</v>
       </c>
       <c r="D327" s="0" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="0" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="G327" s="0" t="n">
         <v>4</v>
@@ -13730,14 +13820,14 @@
         <v>1</v>
       </c>
       <c r="I327" s="2" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="J327" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D327,  " ", E327, " ", "Львів")</f>
         <v>Хоткевича Г.  Львів</v>
       </c>
       <c r="K327" s="0" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13751,10 +13841,10 @@
         <v>14</v>
       </c>
       <c r="D328" s="0" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="G328" s="0" t="n">
         <v>38</v>
@@ -13763,14 +13853,14 @@
         <v>4</v>
       </c>
       <c r="I328" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="J328" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D328,  " ", E328, " ", "Львів")</f>
         <v>Хуторівка   40-а Львів</v>
       </c>
       <c r="K328" s="0" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13784,7 +13874,7 @@
         <v>14</v>
       </c>
       <c r="D329" s="0" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E329" s="3"/>
       <c r="G329" s="0" t="n">
@@ -13794,14 +13884,14 @@
         <v>2</v>
       </c>
       <c r="I329" s="2" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="J329" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D329,  " ", E329, " ", "Львів")</f>
         <v>Хуторівка - Г.Хоткевича   Львів</v>
       </c>
       <c r="K329" s="0" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13812,11 +13902,11 @@
         <v>24</v>
       </c>
       <c r="D330" s="0" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="E330" s="3"/>
       <c r="F330" s="0" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="G330" s="0" t="n">
         <v>238</v>
@@ -13825,14 +13915,14 @@
         <v>24</v>
       </c>
       <c r="I330" s="2" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="J330" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D330,  " ", E330, " ", "Львів")</f>
         <v>ЦА Аеропорт  Львів</v>
       </c>
       <c r="K330" s="0" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13846,7 +13936,7 @@
         <v>14</v>
       </c>
       <c r="D331" s="0" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="E331" s="3" t="n">
         <v>3</v>
@@ -13858,14 +13948,14 @@
         <v>1</v>
       </c>
       <c r="I331" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="J331" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D331,  " ", E331, " ", "Львів")</f>
         <v>Цехова  3 Львів</v>
       </c>
       <c r="K331" s="0" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13879,7 +13969,7 @@
         <v>14</v>
       </c>
       <c r="D332" s="0" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="E332" s="3"/>
       <c r="G332" s="0" t="n">
@@ -13889,14 +13979,14 @@
         <v>4</v>
       </c>
       <c r="I332" s="2" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="J332" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D332,  " ", E332, " ", "Львів")</f>
         <v>Чайковського П.   Львів</v>
       </c>
       <c r="K332" s="0" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13907,10 +13997,10 @@
         <v>24</v>
       </c>
       <c r="C333" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E333" s="3" t="n">
         <v>94</v>
@@ -13922,14 +14012,14 @@
         <v>2</v>
       </c>
       <c r="I333" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="J333" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D333,  " ", E333, " ", "Львів")</f>
         <v>Червоної Калини, просп.  94 Львів</v>
       </c>
       <c r="K333" s="0" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13940,10 +14030,10 @@
         <v>13</v>
       </c>
       <c r="C334" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D334" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E334" s="3" t="n">
         <v>121</v>
@@ -13955,14 +14045,14 @@
         <v>1</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="J334" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D334,  " ", E334, " ", "Львів")</f>
         <v>Червоної Калини, просп.  121 Львів</v>
       </c>
       <c r="K334" s="0" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13973,10 +14063,10 @@
         <v>13</v>
       </c>
       <c r="C335" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D335" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E335" s="3" t="n">
         <v>109</v>
@@ -13988,14 +14078,14 @@
         <v>1</v>
       </c>
       <c r="I335" s="2" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="J335" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D335,  " ", E335, " ", "Львів")</f>
         <v>Червоної Калини, просп.  109 Львів</v>
       </c>
       <c r="K335" s="0" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14006,10 +14096,10 @@
         <v>24</v>
       </c>
       <c r="C336" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D336" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E336" s="3" t="n">
         <v>77</v>
@@ -14021,14 +14111,14 @@
         <v>5</v>
       </c>
       <c r="I336" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="J336" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D336,  " ", E336, " ", "Львів")</f>
         <v>Червоної Калини, просп.  77 Львів</v>
       </c>
       <c r="K336" s="0" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14039,10 +14129,10 @@
         <v>13</v>
       </c>
       <c r="C337" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D337" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E337" s="3" t="n">
         <v>77</v>
@@ -14054,14 +14144,14 @@
         <v>1</v>
       </c>
       <c r="I337" s="2" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="J337" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D337,  " ", E337, " ", "Львів")</f>
         <v>Червоної Калини, просп.  77 Львів</v>
       </c>
       <c r="K337" s="0" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14072,10 +14162,10 @@
         <v>13</v>
       </c>
       <c r="C338" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D338" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E338" s="3" t="n">
         <v>40</v>
@@ -14087,14 +14177,14 @@
         <v>1</v>
       </c>
       <c r="I338" s="2" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="J338" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D338,  " ", E338, " ", "Львів")</f>
         <v>Червоної Калини, просп.  40 Львів</v>
       </c>
       <c r="K338" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14105,10 +14195,10 @@
         <v>13</v>
       </c>
       <c r="C339" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D339" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E339" s="3" t="n">
         <v>35</v>
@@ -14120,14 +14210,14 @@
         <v>1</v>
       </c>
       <c r="I339" s="2" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="J339" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D339,  " ", E339, " ", "Львів")</f>
         <v>Червоної Калини, просп.  35 Львів</v>
       </c>
       <c r="K339" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14138,10 +14228,10 @@
         <v>40</v>
       </c>
       <c r="C340" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E340" s="3" t="n">
         <v>94</v>
@@ -14153,14 +14243,14 @@
         <v>1</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="J340" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D340,  " ", E340, " ", "Львів")</f>
         <v>Червоної Калини, просп.  94 Львів</v>
       </c>
       <c r="K340" s="0" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14171,13 +14261,13 @@
         <v>24</v>
       </c>
       <c r="C341" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D341" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="G341" s="0" t="n">
         <v>38</v>
@@ -14186,14 +14276,14 @@
         <v>4</v>
       </c>
       <c r="I341" s="2" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="J341" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D341,  " ", E341, " ", "Львів")</f>
         <v>Червоної Калини, просп.   68-б Львів</v>
       </c>
       <c r="K341" s="0" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14204,10 +14294,10 @@
         <v>40</v>
       </c>
       <c r="C342" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D342" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E342" s="3" t="n">
         <v>91</v>
@@ -14219,14 +14309,14 @@
         <v>1</v>
       </c>
       <c r="I342" s="2" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="J342" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D342,  " ", E342, " ", "Львів")</f>
         <v>Червоної Калини, просп.  91 Львів</v>
       </c>
       <c r="K342" s="0" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14237,10 +14327,10 @@
         <v>24</v>
       </c>
       <c r="C343" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D343" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E343" s="3" t="n">
         <v>36</v>
@@ -14252,14 +14342,14 @@
         <v>3</v>
       </c>
       <c r="I343" s="2" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="J343" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D343,  " ", E343, " ", "Львів")</f>
         <v>Червоної Калини, просп.  36 Львів</v>
       </c>
       <c r="K343" s="0" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14270,10 +14360,10 @@
         <v>40</v>
       </c>
       <c r="C344" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D344" s="0" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="E344" s="3" t="n">
         <v>18</v>
@@ -14285,14 +14375,14 @@
         <v>1</v>
       </c>
       <c r="I344" s="2" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="J344" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D344,  " ", E344, " ", "Львів")</f>
         <v>Червоної Калини, просп.  18 Львів</v>
       </c>
       <c r="K344" s="0" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14303,10 +14393,10 @@
         <v>24</v>
       </c>
       <c r="C345" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D345" s="0" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="E345" s="3"/>
       <c r="F345" s="0" t="s">
@@ -14319,14 +14409,14 @@
         <v>80</v>
       </c>
       <c r="I345" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="J345" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D345,  " ", E345, " ", "Львів")</f>
         <v>Червоної Калини, просп. – Скрипника М.  Львів</v>
       </c>
       <c r="K345" s="0" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14340,7 +14430,7 @@
         <v>14</v>
       </c>
       <c r="D346" s="0" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="E346" s="3" t="n">
         <v>1</v>
@@ -14352,14 +14442,14 @@
         <v>0</v>
       </c>
       <c r="I346" s="2" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="J346" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D346,  " ", E346, " ", "Львів")</f>
         <v>Чернеча Гора  1 Львів</v>
       </c>
       <c r="K346" s="0" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14373,7 +14463,7 @@
         <v>14</v>
       </c>
       <c r="D347" s="0" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="E347" s="3" t="n">
         <v>31</v>
@@ -14385,14 +14475,14 @@
         <v>3</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="J347" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D347,  " ", E347, " ", "Львів")</f>
         <v>Чигиринська  31 Львів</v>
       </c>
       <c r="K347" s="0" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14403,10 +14493,10 @@
         <v>13</v>
       </c>
       <c r="C348" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D348" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E348" s="3" t="n">
         <v>105</v>
@@ -14418,14 +14508,14 @@
         <v>1</v>
       </c>
       <c r="I348" s="2" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="J348" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D348,  " ", E348, " ", "Львів")</f>
         <v>Чорновола В.,просп.  105 Львів</v>
       </c>
       <c r="K348" s="0" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14436,10 +14526,10 @@
         <v>13</v>
       </c>
       <c r="C349" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D349" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E349" s="3" t="n">
         <v>101</v>
@@ -14451,14 +14541,14 @@
         <v>1</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="J349" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D349,  " ", E349, " ", "Львів")</f>
         <v>Чорновола В.,просп.  101 Львів</v>
       </c>
       <c r="K349" s="0" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14469,10 +14559,10 @@
         <v>13</v>
       </c>
       <c r="C350" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D350" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E350" s="3" t="n">
         <v>95</v>
@@ -14484,14 +14574,14 @@
         <v>1</v>
       </c>
       <c r="I350" s="2" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="J350" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D350,  " ", E350, " ", "Львів")</f>
         <v>Чорновола В.,просп.  95 Львів</v>
       </c>
       <c r="K350" s="0" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14502,10 +14592,10 @@
         <v>13</v>
       </c>
       <c r="C351" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D351" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E351" s="3" t="n">
         <v>61</v>
@@ -14517,14 +14607,14 @@
         <v>1</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="J351" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D351,  " ", E351, " ", "Львів")</f>
         <v>Чорновола В.,просп.  61 Львів</v>
       </c>
       <c r="K351" s="0" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14535,10 +14625,10 @@
         <v>40</v>
       </c>
       <c r="C352" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D352" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E352" s="3" t="n">
         <v>59</v>
@@ -14557,7 +14647,7 @@
         <v>Чорновола В.,просп.  59 Львів</v>
       </c>
       <c r="K352" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14568,10 +14658,10 @@
         <v>13</v>
       </c>
       <c r="C353" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D353" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E353" s="3" t="n">
         <v>57</v>
@@ -14583,14 +14673,14 @@
         <v>1</v>
       </c>
       <c r="I353" s="2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="J353" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D353,  " ", E353, " ", "Львів")</f>
         <v>Чорновола В.,просп.  57 Львів</v>
       </c>
       <c r="K353" s="0" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14601,10 +14691,10 @@
         <v>24</v>
       </c>
       <c r="C354" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D354" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E354" s="3" t="n">
         <v>65</v>
@@ -14616,14 +14706,14 @@
         <v>3</v>
       </c>
       <c r="I354" s="2" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="J354" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D354,  " ", E354, " ", "Львів")</f>
         <v>Чорновола В.,просп.  65 Львів</v>
       </c>
       <c r="K354" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14634,13 +14724,13 @@
         <v>40</v>
       </c>
       <c r="C355" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D355" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="G355" s="0" t="n">
         <v>11</v>
@@ -14649,14 +14739,14 @@
         <v>1</v>
       </c>
       <c r="I355" s="2" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="J355" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D355,  " ", E355, " ", "Львів")</f>
         <v>Чорновола В.,просп.   43-а Львів</v>
       </c>
       <c r="K355" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14667,10 +14757,10 @@
         <v>13</v>
       </c>
       <c r="C356" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D356" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="E356" s="3" t="n">
         <v>59</v>
@@ -14689,7 +14779,7 @@
         <v>Чорновола В.,просп.  59 Львів</v>
       </c>
       <c r="K356" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14703,10 +14793,10 @@
         <v>14</v>
       </c>
       <c r="D357" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="G357" s="0" t="n">
         <v>2</v>
@@ -14715,14 +14805,14 @@
         <v>1</v>
       </c>
       <c r="I357" s="2" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="J357" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D357,  " ", E357, " ", "Львів")</f>
         <v>Шевченка Т.   358-б Львів</v>
       </c>
       <c r="K357" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14733,10 +14823,10 @@
         <v>24</v>
       </c>
       <c r="C358" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D358" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="E358" s="3"/>
       <c r="G358" s="0" t="n">
@@ -14746,14 +14836,14 @@
         <v>10</v>
       </c>
       <c r="I358" s="2" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="J358" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D358,  " ", E358, " ", "Львів")</f>
         <v>Шевченка Т., просп.   Львів</v>
       </c>
       <c r="K358" s="0" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14764,10 +14854,10 @@
         <v>40</v>
       </c>
       <c r="C359" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D359" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="E359" s="3" t="n">
         <v>12</v>
@@ -14779,14 +14869,14 @@
         <v>1</v>
       </c>
       <c r="I359" s="2" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="J359" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D359,  " ", E359, " ", "Львів")</f>
         <v>Шевченка Т., просп.  12 Львів</v>
       </c>
       <c r="K359" s="0" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14797,10 +14887,10 @@
         <v>40</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D360" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="E360" s="3" t="n">
         <v>7</v>
@@ -14812,14 +14902,14 @@
         <v>1</v>
       </c>
       <c r="I360" s="2" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="J360" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D360,  " ", E360, " ", "Львів")</f>
         <v>Шевченка Т., просп.  7 Львів</v>
       </c>
       <c r="K360" s="0" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14833,11 +14923,11 @@
         <v>14</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E361" s="3"/>
       <c r="F361" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="G361" s="0" t="n">
         <v>2</v>
@@ -14846,14 +14936,14 @@
         <v>1</v>
       </c>
       <c r="I361" s="2" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="J361" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D361,  " ", E361, " ", "Львів")</f>
         <v>Шевченка Т.  Львів</v>
       </c>
       <c r="K361" s="0" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14867,7 +14957,7 @@
         <v>14</v>
       </c>
       <c r="D362" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="E362" s="3"/>
       <c r="G362" s="0" t="n">
@@ -14877,14 +14967,14 @@
         <v>1</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="J362" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D362,  " ", E362, " ", "Львів")</f>
         <v>Шевченка Т. – Томашівська   Львів</v>
       </c>
       <c r="K362" s="0" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14898,7 +14988,7 @@
         <v>14</v>
       </c>
       <c r="D363" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="E363" s="3" t="n">
         <v>18</v>
@@ -14910,14 +15000,14 @@
         <v>1</v>
       </c>
       <c r="I363" s="2" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="J363" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D363,  " ", E363, " ", "Львів")</f>
         <v>Шептицьких  18 Львів</v>
       </c>
       <c r="K363" s="0" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14931,7 +15021,7 @@
         <v>14</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E364" s="3" t="n">
         <v>85</v>
@@ -14943,14 +15033,14 @@
         <v>4</v>
       </c>
       <c r="I364" s="2" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="J364" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D364,  " ", E364, " ", "Львів")</f>
         <v>Широка  85 Львів</v>
       </c>
       <c r="K364" s="0" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14964,10 +15054,10 @@
         <v>14</v>
       </c>
       <c r="D365" s="0" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="G365" s="0" t="n">
         <v>29</v>
@@ -14976,14 +15066,14 @@
         <v>3</v>
       </c>
       <c r="I365" s="2" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="J365" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D365,  " ", E365, " ", "Львів")</f>
         <v>Широка   65-а Львів</v>
       </c>
       <c r="K365" s="0" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14997,7 +15087,7 @@
         <v>14</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E366" s="3" t="n">
         <v>41</v>
@@ -15009,14 +15099,14 @@
         <v>3</v>
       </c>
       <c r="I366" s="2" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="J366" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D366,  " ", E366, " ", "Львів")</f>
         <v>Широка  41 Львів</v>
       </c>
       <c r="K366" s="0" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15030,10 +15120,10 @@
         <v>14</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="G367" s="0" t="n">
         <v>10</v>
@@ -15042,14 +15132,14 @@
         <v>1</v>
       </c>
       <c r="I367" s="2" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="J367" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D367,  " ", E367, " ", "Львів")</f>
         <v>Широка   70-а Львів</v>
       </c>
       <c r="K367" s="0" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15063,7 +15153,7 @@
         <v>14</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="E368" s="3"/>
       <c r="G368" s="0" t="n">
@@ -15073,14 +15163,14 @@
         <v>3</v>
       </c>
       <c r="I368" s="2" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="J368" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D368,  " ", E368, " ", "Львів")</f>
         <v>Шолом-Алейхема Ш.   Львів</v>
       </c>
       <c r="K368" s="0" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15094,7 +15184,7 @@
         <v>14</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="E369" s="3"/>
       <c r="G369" s="0" t="n">
@@ -15104,14 +15194,14 @@
         <v>3</v>
       </c>
       <c r="I369" s="2" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="J369" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D369,  " ", E369, " ", "Львів")</f>
         <v>Шпитальна   Львів</v>
       </c>
       <c r="K369" s="0" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15125,7 +15215,7 @@
         <v>14</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="E370" s="3" t="n">
         <v>1</v>
@@ -15137,14 +15227,14 @@
         <v>3</v>
       </c>
       <c r="I370" s="2" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="J370" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D370,  " ", E370, " ", "Львів")</f>
         <v>Шпитальна  1 Львів</v>
       </c>
       <c r="K370" s="0" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15158,7 +15248,7 @@
         <v>14</v>
       </c>
       <c r="D371" s="0" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="E371" s="3"/>
       <c r="G371" s="0" t="n">
@@ -15168,14 +15258,14 @@
         <v>1</v>
       </c>
       <c r="I371" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="J371" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D371,  " ", E371, " ", "Львів")</f>
         <v>Шухевича В.   Львів</v>
       </c>
       <c r="K371" s="0" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15189,7 +15279,7 @@
         <v>14</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="E372" s="3"/>
       <c r="G372" s="0" t="n">
@@ -15199,14 +15289,14 @@
         <v>1</v>
       </c>
       <c r="I372" s="2" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="J372" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(D372,  " ", E372, " ", "Львів")</f>
         <v>Любінська - Д.Яворницького   Львів</v>
       </c>
       <c r="K372" s="0" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
     </row>
   </sheetData>
